--- a/Programming Discription/LABtest_公式_v1.2 (自动保存的).xlsx
+++ b/Programming Discription/LABtest_公式_v1.2 (自动保存的).xlsx
@@ -3040,6 +3040,99 @@
     <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3112,12 +3205,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3126,93 +3213,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4050,11 +4050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="365093840"/>
-        <c:axId val="365095520"/>
+        <c:axId val="259471344"/>
+        <c:axId val="259471904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="365093840"/>
+        <c:axId val="259471344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4063,7 +4063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365095520"/>
+        <c:crossAx val="259471904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4071,7 +4071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365095520"/>
+        <c:axId val="259471904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,13 +4082,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365093840"/>
+        <c:crossAx val="259471344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4522,11 +4523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="273501344"/>
-        <c:axId val="273501904"/>
+        <c:axId val="259477504"/>
+        <c:axId val="259478064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="273501344"/>
+        <c:axId val="259477504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,7 +4536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="273501904"/>
+        <c:crossAx val="259478064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4543,7 +4544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273501904"/>
+        <c:axId val="259478064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4554,13 +4555,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="273501344"/>
+        <c:crossAx val="259477504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4994,11 +4996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="358975456"/>
-        <c:axId val="364500128"/>
+        <c:axId val="260924352"/>
+        <c:axId val="260924912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="358975456"/>
+        <c:axId val="260924352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5007,7 +5009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364500128"/>
+        <c:crossAx val="260924912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5015,7 +5017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364500128"/>
+        <c:axId val="260924912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5026,13 +5028,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="358975456"/>
+        <c:crossAx val="260924352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5062,6 +5065,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5479,11 +5483,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="359109760"/>
-        <c:axId val="359110320"/>
+        <c:axId val="260930512"/>
+        <c:axId val="260931072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="359109760"/>
+        <c:axId val="260930512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5492,7 +5496,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359110320"/>
+        <c:crossAx val="260931072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5500,7 +5504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359110320"/>
+        <c:axId val="260931072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5508,19 +5512,21 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359109760"/>
+        <c:crossAx val="260930512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5640,11 +5646,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="366335344"/>
-        <c:axId val="366335904"/>
+        <c:axId val="260934432"/>
+        <c:axId val="260934992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="366335344"/>
+        <c:axId val="260934432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5687,7 +5693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366335904"/>
+        <c:crossAx val="260934992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5695,7 +5701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366335904"/>
+        <c:axId val="260934992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5746,7 +5752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366335344"/>
+        <c:crossAx val="260934432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6822,50 +6828,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48" customHeight="1" thickBot="1">
-      <c r="A1" s="635" t="s">
+      <c r="A1" s="666" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="636"/>
-      <c r="C1" s="636"/>
-      <c r="D1" s="636"/>
-      <c r="E1" s="636"/>
-      <c r="F1" s="636"/>
-      <c r="G1" s="636"/>
-      <c r="H1" s="636"/>
-      <c r="I1" s="636"/>
-      <c r="J1" s="636"/>
-      <c r="K1" s="636"/>
-      <c r="L1" s="637"/>
+      <c r="B1" s="667"/>
+      <c r="C1" s="667"/>
+      <c r="D1" s="667"/>
+      <c r="E1" s="667"/>
+      <c r="F1" s="667"/>
+      <c r="G1" s="667"/>
+      <c r="H1" s="667"/>
+      <c r="I1" s="667"/>
+      <c r="J1" s="667"/>
+      <c r="K1" s="667"/>
+      <c r="L1" s="668"/>
     </row>
     <row r="2" spans="1:12" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="649"/>
-      <c r="B2" s="649"/>
-      <c r="C2" s="649"/>
-      <c r="D2" s="649"/>
-      <c r="E2" s="649"/>
-      <c r="F2" s="649"/>
-      <c r="G2" s="649"/>
-      <c r="H2" s="649"/>
-      <c r="I2" s="649"/>
-      <c r="J2" s="649"/>
-      <c r="K2" s="649"/>
-      <c r="L2" s="649"/>
+      <c r="A2" s="680"/>
+      <c r="B2" s="680"/>
+      <c r="C2" s="680"/>
+      <c r="D2" s="680"/>
+      <c r="E2" s="680"/>
+      <c r="F2" s="680"/>
+      <c r="G2" s="680"/>
+      <c r="H2" s="680"/>
+      <c r="I2" s="680"/>
+      <c r="J2" s="680"/>
+      <c r="K2" s="680"/>
+      <c r="L2" s="680"/>
     </row>
     <row r="3" spans="1:12" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="661" t="s">
+      <c r="A3" s="690" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="662"/>
-      <c r="C3" s="662"/>
-      <c r="D3" s="662"/>
-      <c r="E3" s="662"/>
-      <c r="F3" s="662"/>
-      <c r="G3" s="662"/>
-      <c r="H3" s="662"/>
-      <c r="I3" s="662"/>
-      <c r="J3" s="662"/>
-      <c r="K3" s="662"/>
-      <c r="L3" s="663"/>
+      <c r="B3" s="691"/>
+      <c r="C3" s="691"/>
+      <c r="D3" s="691"/>
+      <c r="E3" s="691"/>
+      <c r="F3" s="691"/>
+      <c r="G3" s="691"/>
+      <c r="H3" s="691"/>
+      <c r="I3" s="691"/>
+      <c r="J3" s="691"/>
+      <c r="K3" s="691"/>
+      <c r="L3" s="692"/>
     </row>
     <row r="4" spans="1:12" ht="89.25" customHeight="1" thickBot="1">
       <c r="A4" s="151" t="s">
@@ -6886,11 +6892,11 @@
       <c r="F4" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="638" t="s">
+      <c r="G4" s="669" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="638"/>
-      <c r="I4" s="638"/>
+      <c r="H4" s="669"/>
+      <c r="I4" s="669"/>
       <c r="J4" s="155" t="s">
         <v>164</v>
       </c>
@@ -6898,21 +6904,21 @@
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A5" s="650"/>
-      <c r="B5" s="651"/>
-      <c r="C5" s="651"/>
-      <c r="D5" s="651"/>
-      <c r="E5" s="651"/>
-      <c r="F5" s="651"/>
-      <c r="G5" s="651"/>
-      <c r="H5" s="651"/>
-      <c r="I5" s="651"/>
-      <c r="J5" s="651"/>
-      <c r="K5" s="651"/>
-      <c r="L5" s="652"/>
+      <c r="A5" s="681"/>
+      <c r="B5" s="682"/>
+      <c r="C5" s="682"/>
+      <c r="D5" s="682"/>
+      <c r="E5" s="682"/>
+      <c r="F5" s="682"/>
+      <c r="G5" s="682"/>
+      <c r="H5" s="682"/>
+      <c r="I5" s="682"/>
+      <c r="J5" s="682"/>
+      <c r="K5" s="682"/>
+      <c r="L5" s="683"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="639">
+      <c r="A6" s="670">
         <v>1</v>
       </c>
       <c r="B6" s="86" t="s">
@@ -6933,7 +6939,7 @@
       <c r="G6" s="88">
         <v>5.5</v>
       </c>
-      <c r="H6" s="676" t="s">
+      <c r="H6" s="639" t="s">
         <v>165</v>
       </c>
       <c r="I6" s="90"/>
@@ -6942,7 +6948,7 @@
       <c r="L6" s="170"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="640"/>
+      <c r="A7" s="671"/>
       <c r="B7" s="91" t="s">
         <v>31</v>
       </c>
@@ -6951,14 +6957,14 @@
       <c r="E7" s="93"/>
       <c r="F7" s="94"/>
       <c r="G7" s="95"/>
-      <c r="H7" s="676"/>
+      <c r="H7" s="639"/>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
       <c r="L7" s="170"/>
     </row>
     <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="640"/>
+      <c r="A8" s="671"/>
       <c r="B8" s="91" t="s">
         <v>32</v>
       </c>
@@ -6967,14 +6973,14 @@
       <c r="E8" s="166"/>
       <c r="F8" s="96"/>
       <c r="G8" s="97"/>
-      <c r="H8" s="676"/>
+      <c r="H8" s="639"/>
       <c r="I8" s="98"/>
       <c r="J8" s="98"/>
       <c r="K8" s="98"/>
       <c r="L8" s="171"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A9" s="641"/>
+      <c r="A9" s="672"/>
       <c r="B9" s="99" t="s">
         <v>33</v>
       </c>
@@ -6983,28 +6989,28 @@
       <c r="E9" s="101"/>
       <c r="F9" s="100"/>
       <c r="G9" s="102"/>
-      <c r="H9" s="676"/>
+      <c r="H9" s="639"/>
       <c r="I9" s="89"/>
       <c r="J9" s="89"/>
       <c r="K9" s="89"/>
       <c r="L9" s="170"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A10" s="653"/>
-      <c r="B10" s="654"/>
-      <c r="C10" s="654"/>
-      <c r="D10" s="654"/>
-      <c r="E10" s="654"/>
-      <c r="F10" s="654"/>
-      <c r="G10" s="654"/>
-      <c r="H10" s="654"/>
-      <c r="I10" s="655"/>
-      <c r="J10" s="655"/>
-      <c r="K10" s="655"/>
-      <c r="L10" s="656"/>
+      <c r="A10" s="684"/>
+      <c r="B10" s="685"/>
+      <c r="C10" s="685"/>
+      <c r="D10" s="685"/>
+      <c r="E10" s="685"/>
+      <c r="F10" s="685"/>
+      <c r="G10" s="685"/>
+      <c r="H10" s="685"/>
+      <c r="I10" s="686"/>
+      <c r="J10" s="686"/>
+      <c r="K10" s="686"/>
+      <c r="L10" s="687"/>
     </row>
     <row r="11" spans="1:12" ht="72.75" customHeight="1">
-      <c r="A11" s="646">
+      <c r="A11" s="677">
         <v>2</v>
       </c>
       <c r="B11" s="103" t="s">
@@ -7026,7 +7032,7 @@
         <v>96</v>
       </c>
       <c r="H11" s="105"/>
-      <c r="I11" s="676" t="s">
+      <c r="I11" s="639" t="s">
         <v>170</v>
       </c>
       <c r="J11" s="89"/>
@@ -7034,11 +7040,11 @@
       <c r="L11" s="172"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="647"/>
-      <c r="B12" s="659">
-        <v>1</v>
-      </c>
-      <c r="C12" s="659">
+      <c r="A12" s="678"/>
+      <c r="B12" s="648">
+        <v>1</v>
+      </c>
+      <c r="C12" s="648">
         <v>1</v>
       </c>
       <c r="D12" s="106">
@@ -7050,15 +7056,15 @@
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="676"/>
+      <c r="I12" s="639"/>
       <c r="J12" s="109"/>
       <c r="K12" s="109"/>
       <c r="L12" s="173"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A13" s="647"/>
-      <c r="B13" s="659"/>
-      <c r="C13" s="659"/>
+      <c r="A13" s="678"/>
+      <c r="B13" s="648"/>
+      <c r="C13" s="648"/>
       <c r="D13" s="106">
         <v>0</v>
       </c>
@@ -7068,15 +7074,15 @@
       <c r="F13" s="94"/>
       <c r="G13" s="94"/>
       <c r="H13" s="95"/>
-      <c r="I13" s="676"/>
+      <c r="I13" s="639"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
       <c r="L13" s="170"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="647"/>
-      <c r="B14" s="659"/>
-      <c r="C14" s="659"/>
+      <c r="A14" s="678"/>
+      <c r="B14" s="648"/>
+      <c r="C14" s="648"/>
       <c r="D14" s="106">
         <v>1</v>
       </c>
@@ -7086,15 +7092,15 @@
       <c r="F14" s="94"/>
       <c r="G14" s="94"/>
       <c r="H14" s="95"/>
-      <c r="I14" s="676"/>
+      <c r="I14" s="639"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="170"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A15" s="648"/>
-      <c r="B15" s="660"/>
-      <c r="C15" s="660"/>
+      <c r="A15" s="679"/>
+      <c r="B15" s="649"/>
+      <c r="C15" s="649"/>
       <c r="D15" s="100">
         <v>1</v>
       </c>
@@ -7104,36 +7110,36 @@
       <c r="F15" s="111"/>
       <c r="G15" s="111"/>
       <c r="H15" s="112"/>
-      <c r="I15" s="676"/>
+      <c r="I15" s="639"/>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
       <c r="L15" s="170"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="647"/>
-      <c r="B16" s="657"/>
-      <c r="C16" s="657"/>
-      <c r="D16" s="657"/>
-      <c r="E16" s="657"/>
-      <c r="F16" s="657"/>
-      <c r="G16" s="657"/>
-      <c r="H16" s="657"/>
-      <c r="I16" s="657"/>
-      <c r="J16" s="657"/>
-      <c r="K16" s="657"/>
-      <c r="L16" s="658"/>
+      <c r="A16" s="678"/>
+      <c r="B16" s="688"/>
+      <c r="C16" s="688"/>
+      <c r="D16" s="688"/>
+      <c r="E16" s="688"/>
+      <c r="F16" s="688"/>
+      <c r="G16" s="688"/>
+      <c r="H16" s="688"/>
+      <c r="I16" s="688"/>
+      <c r="J16" s="688"/>
+      <c r="K16" s="688"/>
+      <c r="L16" s="689"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="642">
+      <c r="A17" s="673">
         <v>3</v>
       </c>
       <c r="B17" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="645" t="s">
+      <c r="C17" s="676" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="645"/>
+      <c r="D17" s="676"/>
       <c r="E17" s="64" t="s">
         <v>34</v>
       </c>
@@ -7153,19 +7159,19 @@
         <v>5.5</v>
       </c>
       <c r="K17" s="84"/>
-      <c r="L17" s="677" t="s">
+      <c r="L17" s="640" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="643"/>
-      <c r="B18" s="659">
-        <v>0</v>
-      </c>
-      <c r="C18" s="659">
-        <v>1</v>
-      </c>
-      <c r="D18" s="659"/>
+      <c r="A18" s="674"/>
+      <c r="B18" s="648">
+        <v>0</v>
+      </c>
+      <c r="C18" s="648">
+        <v>1</v>
+      </c>
+      <c r="D18" s="648"/>
       <c r="E18" s="59" t="s">
         <v>36</v>
       </c>
@@ -7175,13 +7181,13 @@
       <c r="I18" s="93"/>
       <c r="J18" s="93"/>
       <c r="K18" s="108"/>
-      <c r="L18" s="677"/>
+      <c r="L18" s="640"/>
     </row>
     <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="643"/>
-      <c r="B19" s="659"/>
-      <c r="C19" s="659"/>
-      <c r="D19" s="659"/>
+      <c r="A19" s="674"/>
+      <c r="B19" s="648"/>
+      <c r="C19" s="648"/>
+      <c r="D19" s="648"/>
       <c r="E19" s="59" t="s">
         <v>37</v>
       </c>
@@ -7191,13 +7197,13 @@
       <c r="I19" s="93"/>
       <c r="J19" s="93"/>
       <c r="K19" s="108"/>
-      <c r="L19" s="677"/>
+      <c r="L19" s="640"/>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="643"/>
-      <c r="B20" s="659"/>
-      <c r="C20" s="659"/>
-      <c r="D20" s="659"/>
+      <c r="A20" s="674"/>
+      <c r="B20" s="648"/>
+      <c r="C20" s="648"/>
+      <c r="D20" s="648"/>
       <c r="E20" s="59" t="s">
         <v>38</v>
       </c>
@@ -7207,13 +7213,13 @@
       <c r="I20" s="93"/>
       <c r="J20" s="93"/>
       <c r="K20" s="108"/>
-      <c r="L20" s="677"/>
+      <c r="L20" s="640"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A21" s="644"/>
-      <c r="B21" s="660"/>
-      <c r="C21" s="660"/>
-      <c r="D21" s="660"/>
+      <c r="A21" s="675"/>
+      <c r="B21" s="649"/>
+      <c r="C21" s="649"/>
+      <c r="D21" s="649"/>
       <c r="E21" s="85" t="s">
         <v>35</v>
       </c>
@@ -7238,24 +7244,24 @@
         <v>0</v>
       </c>
       <c r="K21" s="114"/>
-      <c r="L21" s="677"/>
+      <c r="L21" s="640"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="672"/>
-      <c r="B22" s="673"/>
-      <c r="C22" s="673"/>
-      <c r="D22" s="673"/>
-      <c r="E22" s="673"/>
-      <c r="F22" s="673"/>
-      <c r="G22" s="673"/>
-      <c r="H22" s="673"/>
-      <c r="I22" s="673"/>
-      <c r="J22" s="673"/>
-      <c r="K22" s="673"/>
-      <c r="L22" s="674"/>
+      <c r="A22" s="635"/>
+      <c r="B22" s="636"/>
+      <c r="C22" s="636"/>
+      <c r="D22" s="636"/>
+      <c r="E22" s="636"/>
+      <c r="F22" s="636"/>
+      <c r="G22" s="636"/>
+      <c r="H22" s="636"/>
+      <c r="I22" s="636"/>
+      <c r="J22" s="636"/>
+      <c r="K22" s="636"/>
+      <c r="L22" s="637"/>
     </row>
     <row r="23" spans="1:12" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A23" s="665">
+      <c r="A23" s="660">
         <v>4</v>
       </c>
       <c r="B23" s="161" t="s">
@@ -7285,7 +7291,7 @@
       <c r="L23" s="174"/>
     </row>
     <row r="24" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A24" s="666"/>
+      <c r="A24" s="661"/>
       <c r="B24" s="162">
         <v>0</v>
       </c>
@@ -7302,13 +7308,13 @@
       </c>
       <c r="I24" s="93"/>
       <c r="J24" s="108"/>
-      <c r="K24" s="678" t="s">
+      <c r="K24" s="641" t="s">
         <v>172</v>
       </c>
       <c r="L24" s="174"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1">
-      <c r="A25" s="666"/>
+      <c r="A25" s="661"/>
       <c r="B25" s="162">
         <v>0</v>
       </c>
@@ -7325,11 +7331,11 @@
       </c>
       <c r="I25" s="93"/>
       <c r="J25" s="108"/>
-      <c r="K25" s="678"/>
+      <c r="K25" s="641"/>
       <c r="L25" s="174"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="666"/>
+      <c r="A26" s="661"/>
       <c r="B26" s="162">
         <v>1</v>
       </c>
@@ -7346,11 +7352,11 @@
       </c>
       <c r="I26" s="93"/>
       <c r="J26" s="108"/>
-      <c r="K26" s="678"/>
+      <c r="K26" s="641"/>
       <c r="L26" s="174"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A27" s="667"/>
+      <c r="A27" s="662"/>
       <c r="B27" s="163">
         <v>1</v>
       </c>
@@ -7367,7 +7373,7 @@
       </c>
       <c r="I27" s="113"/>
       <c r="J27" s="114"/>
-      <c r="K27" s="678"/>
+      <c r="K27" s="641"/>
       <c r="L27" s="175"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1">
@@ -7385,7 +7391,7 @@
       <c r="L28" s="175"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A29" s="669">
+      <c r="A29" s="655">
         <v>5</v>
       </c>
       <c r="B29" s="106" t="s">
@@ -7401,7 +7407,7 @@
         <v>174</v>
       </c>
       <c r="F29" s="160"/>
-      <c r="G29" s="670" t="s">
+      <c r="G29" s="664" t="s">
         <v>175</v>
       </c>
       <c r="H29" s="109"/>
@@ -7411,8 +7417,8 @@
       <c r="L29" s="175"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A30" s="669"/>
-      <c r="B30" s="668">
+      <c r="A30" s="655"/>
+      <c r="B30" s="663">
         <v>1</v>
       </c>
       <c r="C30" s="107">
@@ -7421,7 +7427,7 @@
       <c r="D30" s="164"/>
       <c r="E30" s="165"/>
       <c r="F30" s="160"/>
-      <c r="G30" s="670"/>
+      <c r="G30" s="664"/>
       <c r="H30" s="109"/>
       <c r="I30" s="160"/>
       <c r="J30" s="160"/>
@@ -7429,15 +7435,15 @@
       <c r="L30" s="175"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A31" s="669"/>
-      <c r="B31" s="668"/>
+      <c r="A31" s="655"/>
+      <c r="B31" s="663"/>
       <c r="C31" s="107">
         <v>1</v>
       </c>
       <c r="D31" s="164"/>
       <c r="E31" s="165"/>
       <c r="F31" s="160"/>
-      <c r="G31" s="670"/>
+      <c r="G31" s="664"/>
       <c r="H31" s="109"/>
       <c r="I31" s="160"/>
       <c r="J31" s="160"/>
@@ -7445,50 +7451,50 @@
       <c r="L31" s="175"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A32" s="680" t="s">
+      <c r="A32" s="643" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="679"/>
-      <c r="C32" s="679"/>
-      <c r="D32" s="679"/>
-      <c r="E32" s="679"/>
-      <c r="F32" s="679"/>
-      <c r="G32" s="679"/>
-      <c r="H32" s="679"/>
-      <c r="I32" s="679"/>
-      <c r="J32" s="679"/>
-      <c r="K32" s="679"/>
-      <c r="L32" s="681"/>
+      <c r="B32" s="642"/>
+      <c r="C32" s="642"/>
+      <c r="D32" s="642"/>
+      <c r="E32" s="642"/>
+      <c r="F32" s="642"/>
+      <c r="G32" s="642"/>
+      <c r="H32" s="642"/>
+      <c r="I32" s="642"/>
+      <c r="J32" s="642"/>
+      <c r="K32" s="642"/>
+      <c r="L32" s="644"/>
     </row>
     <row r="33" spans="1:31" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A33" s="679"/>
-      <c r="B33" s="679"/>
-      <c r="C33" s="679"/>
-      <c r="D33" s="679"/>
-      <c r="E33" s="679"/>
-      <c r="F33" s="679"/>
-      <c r="G33" s="679"/>
-      <c r="H33" s="679"/>
-      <c r="I33" s="679"/>
-      <c r="J33" s="679"/>
-      <c r="K33" s="679"/>
-      <c r="L33" s="679"/>
+      <c r="A33" s="642"/>
+      <c r="B33" s="642"/>
+      <c r="C33" s="642"/>
+      <c r="D33" s="642"/>
+      <c r="E33" s="642"/>
+      <c r="F33" s="642"/>
+      <c r="G33" s="642"/>
+      <c r="H33" s="642"/>
+      <c r="I33" s="642"/>
+      <c r="J33" s="642"/>
+      <c r="K33" s="642"/>
+      <c r="L33" s="642"/>
     </row>
     <row r="34" spans="1:31" ht="27" customHeight="1" thickBot="1">
-      <c r="A34" s="682" t="s">
+      <c r="A34" s="645" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="683"/>
-      <c r="C34" s="683"/>
-      <c r="D34" s="683"/>
-      <c r="E34" s="683"/>
-      <c r="F34" s="683"/>
-      <c r="G34" s="683"/>
-      <c r="H34" s="683"/>
-      <c r="I34" s="683"/>
-      <c r="J34" s="683"/>
-      <c r="K34" s="683"/>
-      <c r="L34" s="684"/>
+      <c r="B34" s="646"/>
+      <c r="C34" s="646"/>
+      <c r="D34" s="646"/>
+      <c r="E34" s="646"/>
+      <c r="F34" s="646"/>
+      <c r="G34" s="646"/>
+      <c r="H34" s="646"/>
+      <c r="I34" s="646"/>
+      <c r="J34" s="646"/>
+      <c r="K34" s="646"/>
+      <c r="L34" s="647"/>
     </row>
     <row r="35" spans="1:31" ht="16.5" thickBot="1">
       <c r="A35" s="115"/>
@@ -7529,19 +7535,19 @@
         <v>24</v>
       </c>
       <c r="J36" s="17"/>
-      <c r="K36" s="671" t="s">
+      <c r="K36" s="665" t="s">
         <v>161</v>
       </c>
-      <c r="L36" s="664"/>
-      <c r="M36" s="664"/>
-      <c r="N36" s="664"/>
-      <c r="O36" s="664"/>
-      <c r="P36" s="664"/>
-      <c r="Q36" s="664"/>
-      <c r="R36" s="664"/>
-      <c r="S36" s="664"/>
-      <c r="T36" s="664"/>
-      <c r="U36" s="664"/>
+      <c r="L36" s="659"/>
+      <c r="M36" s="659"/>
+      <c r="N36" s="659"/>
+      <c r="O36" s="659"/>
+      <c r="P36" s="659"/>
+      <c r="Q36" s="659"/>
+      <c r="R36" s="659"/>
+      <c r="S36" s="659"/>
+      <c r="T36" s="659"/>
+      <c r="U36" s="659"/>
       <c r="V36" s="9"/>
       <c r="W36" s="29"/>
       <c r="X36" s="9"/>
@@ -7579,10 +7585,10 @@
       <c r="I37" s="81">
         <v>1</v>
       </c>
-      <c r="J37" s="691" t="s">
+      <c r="J37" s="657" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="671"/>
+      <c r="K37" s="665"/>
       <c r="N37" s="4"/>
       <c r="O37" s="6"/>
       <c r="R37" s="9"/>
@@ -7625,8 +7631,8 @@
       <c r="I38" s="81">
         <v>0</v>
       </c>
-      <c r="J38" s="692"/>
-      <c r="K38" s="671"/>
+      <c r="J38" s="658"/>
+      <c r="K38" s="665"/>
       <c r="N38" s="5"/>
       <c r="O38" s="6"/>
       <c r="R38" s="9"/>
@@ -7668,8 +7674,8 @@
       <c r="I39" s="81">
         <v>1</v>
       </c>
-      <c r="J39" s="692"/>
-      <c r="K39" s="671"/>
+      <c r="J39" s="658"/>
+      <c r="K39" s="665"/>
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
       <c r="R39" s="9"/>
@@ -7711,8 +7717,8 @@
       <c r="I40" s="81">
         <v>0</v>
       </c>
-      <c r="J40" s="692"/>
-      <c r="K40" s="671"/>
+      <c r="J40" s="658"/>
+      <c r="K40" s="665"/>
       <c r="N40" s="5"/>
       <c r="O40" s="6"/>
       <c r="R40" s="9"/>
@@ -7754,8 +7760,8 @@
       <c r="I41" s="81">
         <v>1</v>
       </c>
-      <c r="J41" s="692"/>
-      <c r="K41" s="671"/>
+      <c r="J41" s="658"/>
+      <c r="K41" s="665"/>
       <c r="N41" s="5"/>
       <c r="O41" s="6"/>
       <c r="R41" s="9"/>
@@ -7797,8 +7803,8 @@
       <c r="I42" s="81">
         <v>0</v>
       </c>
-      <c r="J42" s="692"/>
-      <c r="K42" s="671"/>
+      <c r="J42" s="658"/>
+      <c r="K42" s="665"/>
       <c r="N42" s="5"/>
       <c r="O42" s="6"/>
       <c r="R42" s="9"/>
@@ -7840,8 +7846,8 @@
       <c r="I43" s="81">
         <v>1</v>
       </c>
-      <c r="J43" s="692"/>
-      <c r="K43" s="671"/>
+      <c r="J43" s="658"/>
+      <c r="K43" s="665"/>
       <c r="N43" s="5"/>
       <c r="O43" s="6"/>
       <c r="R43" s="9"/>
@@ -7883,8 +7889,8 @@
       <c r="I44" s="81">
         <v>0</v>
       </c>
-      <c r="J44" s="692"/>
-      <c r="K44" s="671"/>
+      <c r="J44" s="658"/>
+      <c r="K44" s="665"/>
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
       <c r="R44" s="9"/>
@@ -7926,8 +7932,8 @@
       <c r="I45" s="81">
         <v>1</v>
       </c>
-      <c r="J45" s="692"/>
-      <c r="K45" s="671"/>
+      <c r="J45" s="658"/>
+      <c r="K45" s="665"/>
       <c r="N45" s="5"/>
       <c r="O45" s="6"/>
       <c r="R45" s="9"/>
@@ -7969,8 +7975,8 @@
       <c r="I46" s="81">
         <v>0</v>
       </c>
-      <c r="J46" s="692"/>
-      <c r="K46" s="671"/>
+      <c r="J46" s="658"/>
+      <c r="K46" s="665"/>
       <c r="N46" s="5"/>
       <c r="O46" s="6"/>
       <c r="R46" s="9"/>
@@ -8012,8 +8018,8 @@
       <c r="I47" s="81">
         <v>1</v>
       </c>
-      <c r="J47" s="692"/>
-      <c r="K47" s="671"/>
+      <c r="J47" s="658"/>
+      <c r="K47" s="665"/>
       <c r="N47" s="5"/>
       <c r="O47" s="6"/>
       <c r="R47" s="9"/>
@@ -8055,8 +8061,8 @@
       <c r="I48" s="81">
         <v>0</v>
       </c>
-      <c r="J48" s="692"/>
-      <c r="K48" s="671"/>
+      <c r="J48" s="658"/>
+      <c r="K48" s="665"/>
       <c r="N48" s="5"/>
       <c r="O48" s="6"/>
       <c r="R48" s="9"/>
@@ -8098,8 +8104,8 @@
       <c r="I49" s="81">
         <v>1</v>
       </c>
-      <c r="J49" s="692"/>
-      <c r="K49" s="671"/>
+      <c r="J49" s="658"/>
+      <c r="K49" s="665"/>
       <c r="N49" s="5"/>
       <c r="O49" s="6"/>
       <c r="X49" s="9"/>
@@ -8131,8 +8137,8 @@
       <c r="I50" s="81">
         <v>0</v>
       </c>
-      <c r="J50" s="692"/>
-      <c r="K50" s="671"/>
+      <c r="J50" s="658"/>
+      <c r="K50" s="665"/>
       <c r="N50" s="5"/>
       <c r="O50" s="6"/>
       <c r="X50" s="9"/>
@@ -8164,8 +8170,8 @@
       <c r="I51" s="81">
         <v>1</v>
       </c>
-      <c r="J51" s="692"/>
-      <c r="K51" s="671"/>
+      <c r="J51" s="658"/>
+      <c r="K51" s="665"/>
       <c r="N51" s="5"/>
       <c r="O51" s="6"/>
       <c r="X51" s="9"/>
@@ -8197,8 +8203,8 @@
       <c r="I52" s="81">
         <v>0</v>
       </c>
-      <c r="J52" s="692"/>
-      <c r="K52" s="671"/>
+      <c r="J52" s="658"/>
+      <c r="K52" s="665"/>
       <c r="N52" s="3"/>
       <c r="O52" s="6"/>
     </row>
@@ -8224,7 +8230,7 @@
         <v>21</v>
       </c>
       <c r="I53" s="128"/>
-      <c r="J53" s="686" t="s">
+      <c r="J53" s="651" t="s">
         <v>177</v>
       </c>
       <c r="K53" s="10"/>
@@ -8288,7 +8294,7 @@
         <v>25</v>
       </c>
       <c r="I54" s="81"/>
-      <c r="J54" s="687"/>
+      <c r="J54" s="652"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8">
         <v>0.5</v>
@@ -8354,7 +8360,7 @@
         <v>45</v>
       </c>
       <c r="I55" s="81"/>
-      <c r="J55" s="687"/>
+      <c r="J55" s="652"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="9"/>
@@ -8418,7 +8424,7 @@
         <v>46</v>
       </c>
       <c r="I56" s="81"/>
-      <c r="J56" s="687"/>
+      <c r="J56" s="652"/>
       <c r="K56" s="9"/>
       <c r="L56" s="10"/>
       <c r="M56" s="9"/>
@@ -8481,7 +8487,7 @@
         <v>47</v>
       </c>
       <c r="I57" s="81"/>
-      <c r="J57" s="687"/>
+      <c r="J57" s="652"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="9"/>
@@ -8544,7 +8550,7 @@
         <v>48</v>
       </c>
       <c r="I58" s="81"/>
-      <c r="J58" s="687"/>
+      <c r="J58" s="652"/>
       <c r="K58" s="10"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -8605,7 +8611,7 @@
         <v>49</v>
       </c>
       <c r="I59" s="81"/>
-      <c r="J59" s="687"/>
+      <c r="J59" s="652"/>
       <c r="K59" s="10"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -8667,7 +8673,7 @@
         <v>50</v>
       </c>
       <c r="I60" s="81"/>
-      <c r="J60" s="687"/>
+      <c r="J60" s="652"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -8728,7 +8734,7 @@
         <v>51</v>
       </c>
       <c r="I61" s="81"/>
-      <c r="J61" s="687"/>
+      <c r="J61" s="652"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -8789,7 +8795,7 @@
         <v>52</v>
       </c>
       <c r="I62" s="81"/>
-      <c r="J62" s="687"/>
+      <c r="J62" s="652"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -8849,7 +8855,7 @@
         <v>53</v>
       </c>
       <c r="I63" s="81"/>
-      <c r="J63" s="687"/>
+      <c r="J63" s="652"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="9"/>
@@ -8908,7 +8914,7 @@
         <v>54</v>
       </c>
       <c r="I64" s="81"/>
-      <c r="J64" s="687"/>
+      <c r="J64" s="652"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -8968,7 +8974,7 @@
         <v>55</v>
       </c>
       <c r="I65" s="81"/>
-      <c r="J65" s="687"/>
+      <c r="J65" s="652"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
@@ -9028,7 +9034,7 @@
         <v>56</v>
       </c>
       <c r="I66" s="81"/>
-      <c r="J66" s="687"/>
+      <c r="J66" s="652"/>
       <c r="K66" s="10"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
@@ -9087,7 +9093,7 @@
         <v>57</v>
       </c>
       <c r="I67" s="81"/>
-      <c r="J67" s="687"/>
+      <c r="J67" s="652"/>
       <c r="K67" s="10"/>
       <c r="L67" s="8"/>
       <c r="M67" s="9"/>
@@ -9146,7 +9152,7 @@
         <v>58</v>
       </c>
       <c r="I68" s="81"/>
-      <c r="J68" s="687"/>
+      <c r="J68" s="652"/>
       <c r="K68" s="9"/>
       <c r="L68" s="8"/>
       <c r="M68" s="9"/>
@@ -9206,7 +9212,7 @@
         <v>59</v>
       </c>
       <c r="I69" s="81"/>
-      <c r="J69" s="687"/>
+      <c r="J69" s="652"/>
       <c r="K69" s="9"/>
       <c r="L69" s="8"/>
       <c r="M69" s="9"/>
@@ -9265,7 +9271,7 @@
         <v>60</v>
       </c>
       <c r="I70" s="81"/>
-      <c r="J70" s="687"/>
+      <c r="J70" s="652"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="9"/>
@@ -10150,24 +10156,24 @@
       <c r="I85" s="23"/>
       <c r="J85" s="7"/>
       <c r="K85" s="9"/>
-      <c r="L85" s="685"/>
-      <c r="M85" s="685"/>
-      <c r="N85" s="685">
-        <v>0</v>
-      </c>
-      <c r="O85" s="685">
-        <v>0</v>
-      </c>
-      <c r="P85" s="685">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="685">
-        <v>0</v>
-      </c>
-      <c r="R85" s="685">
-        <v>0</v>
-      </c>
-      <c r="S85" s="685">
+      <c r="L85" s="650"/>
+      <c r="M85" s="650"/>
+      <c r="N85" s="650">
+        <v>0</v>
+      </c>
+      <c r="O85" s="650">
+        <v>0</v>
+      </c>
+      <c r="P85" s="650">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="650">
+        <v>0</v>
+      </c>
+      <c r="R85" s="650">
+        <v>0</v>
+      </c>
+      <c r="S85" s="650">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -10184,7 +10190,7 @@
       <c r="AF86" s="167"/>
     </row>
     <row r="87" spans="1:32" ht="15.75">
-      <c r="A87" s="689" t="s">
+      <c r="A87" s="654" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="63" t="s">
@@ -10216,7 +10222,7 @@
       <c r="AF87" s="167"/>
     </row>
     <row r="88" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A88" s="669"/>
+      <c r="A88" s="655"/>
       <c r="B88" s="19">
         <v>0</v>
       </c>
@@ -10240,12 +10246,12 @@
         <v>0</v>
       </c>
       <c r="J88" s="58"/>
-      <c r="K88" s="688" t="s">
+      <c r="K88" s="653" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A89" s="669"/>
+      <c r="A89" s="655"/>
       <c r="B89" s="19">
         <v>0</v>
       </c>
@@ -10269,14 +10275,14 @@
         <v>4</v>
       </c>
       <c r="J89" s="13"/>
-      <c r="K89" s="688"/>
+      <c r="K89" s="653"/>
       <c r="L89" s="56"/>
       <c r="N89" s="11"/>
       <c r="O89" s="6"/>
       <c r="S89" s="32"/>
     </row>
     <row r="90" spans="1:32" ht="15.75">
-      <c r="A90" s="669"/>
+      <c r="A90" s="655"/>
       <c r="B90" s="19">
         <v>0</v>
       </c>
@@ -10300,14 +10306,14 @@
         <v>2</v>
       </c>
       <c r="J90" s="13"/>
-      <c r="K90" s="688"/>
+      <c r="K90" s="653"/>
       <c r="L90" s="56"/>
       <c r="N90" s="11"/>
       <c r="O90" s="6"/>
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:32" ht="15.75">
-      <c r="A91" s="669"/>
+      <c r="A91" s="655"/>
       <c r="B91" s="19">
         <v>0</v>
       </c>
@@ -10331,14 +10337,14 @@
         <v>6</v>
       </c>
       <c r="J91" s="13"/>
-      <c r="K91" s="688"/>
+      <c r="K91" s="653"/>
       <c r="L91" s="56"/>
       <c r="N91" s="11"/>
       <c r="O91" s="6"/>
       <c r="S91" s="32"/>
     </row>
     <row r="92" spans="1:32" ht="15.75">
-      <c r="A92" s="669"/>
+      <c r="A92" s="655"/>
       <c r="B92" s="19">
         <v>0</v>
       </c>
@@ -10362,14 +10368,14 @@
         <v>1</v>
       </c>
       <c r="J92" s="13"/>
-      <c r="K92" s="688"/>
+      <c r="K92" s="653"/>
       <c r="L92" s="56"/>
       <c r="N92" s="11"/>
       <c r="O92" s="6"/>
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:32" ht="15.75">
-      <c r="A93" s="669"/>
+      <c r="A93" s="655"/>
       <c r="B93" s="19">
         <v>0</v>
       </c>
@@ -10393,14 +10399,14 @@
         <v>5</v>
       </c>
       <c r="J93" s="13"/>
-      <c r="K93" s="688"/>
+      <c r="K93" s="653"/>
       <c r="L93" s="56"/>
       <c r="N93" s="11"/>
       <c r="O93" s="6"/>
       <c r="S93" s="32"/>
     </row>
     <row r="94" spans="1:32" ht="15.75">
-      <c r="A94" s="669"/>
+      <c r="A94" s="655"/>
       <c r="B94" s="19">
         <v>0</v>
       </c>
@@ -10424,14 +10430,14 @@
         <v>3</v>
       </c>
       <c r="J94" s="13"/>
-      <c r="K94" s="688"/>
+      <c r="K94" s="653"/>
       <c r="L94" s="56"/>
       <c r="N94" s="11"/>
       <c r="O94" s="6"/>
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A95" s="669"/>
+      <c r="A95" s="655"/>
       <c r="B95" s="19">
         <v>0</v>
       </c>
@@ -10455,14 +10461,14 @@
         <v>7</v>
       </c>
       <c r="J95" s="13"/>
-      <c r="K95" s="688"/>
+      <c r="K95" s="653"/>
       <c r="L95" s="56"/>
       <c r="N95" s="11"/>
       <c r="O95" s="6"/>
       <c r="S95" s="32"/>
     </row>
     <row r="96" spans="1:32" ht="15.75">
-      <c r="A96" s="669"/>
+      <c r="A96" s="655"/>
       <c r="B96" s="19">
         <v>1</v>
       </c>
@@ -10488,14 +10494,14 @@
       <c r="J96" s="148">
         <v>13.6</v>
       </c>
-      <c r="K96" s="688"/>
+      <c r="K96" s="653"/>
       <c r="L96" s="56"/>
       <c r="N96" s="11"/>
       <c r="O96" s="6"/>
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="15.75">
-      <c r="A97" s="669"/>
+      <c r="A97" s="655"/>
       <c r="B97" s="19">
         <v>1</v>
       </c>
@@ -10519,14 +10525,14 @@
         <v>4</v>
       </c>
       <c r="J97" s="13"/>
-      <c r="K97" s="688"/>
+      <c r="K97" s="653"/>
       <c r="L97" s="56"/>
       <c r="N97" s="11"/>
       <c r="O97" s="6"/>
       <c r="S97" s="32"/>
     </row>
     <row r="98" spans="1:19" ht="15.75">
-      <c r="A98" s="669"/>
+      <c r="A98" s="655"/>
       <c r="B98" s="19">
         <v>1</v>
       </c>
@@ -10550,14 +10556,14 @@
         <v>2</v>
       </c>
       <c r="J98" s="13"/>
-      <c r="K98" s="688"/>
+      <c r="K98" s="653"/>
       <c r="L98" s="56"/>
       <c r="N98" s="11"/>
       <c r="O98" s="6"/>
       <c r="S98" s="32"/>
     </row>
     <row r="99" spans="1:19" ht="15.75">
-      <c r="A99" s="669"/>
+      <c r="A99" s="655"/>
       <c r="B99" s="19">
         <v>1</v>
       </c>
@@ -10581,14 +10587,14 @@
         <v>6</v>
       </c>
       <c r="J99" s="13"/>
-      <c r="K99" s="688"/>
+      <c r="K99" s="653"/>
       <c r="L99" s="56"/>
       <c r="N99" s="11"/>
       <c r="O99" s="6"/>
       <c r="S99" s="32"/>
     </row>
     <row r="100" spans="1:19" ht="15.75">
-      <c r="A100" s="669"/>
+      <c r="A100" s="655"/>
       <c r="B100" s="19">
         <v>1</v>
       </c>
@@ -10612,14 +10618,14 @@
         <v>1</v>
       </c>
       <c r="J100" s="13"/>
-      <c r="K100" s="688"/>
+      <c r="K100" s="653"/>
       <c r="L100" s="56"/>
       <c r="N100" s="11"/>
       <c r="O100" s="6"/>
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="15.75">
-      <c r="A101" s="669"/>
+      <c r="A101" s="655"/>
       <c r="B101" s="19">
         <v>1</v>
       </c>
@@ -10643,14 +10649,14 @@
         <v>5</v>
       </c>
       <c r="J101" s="13"/>
-      <c r="K101" s="688"/>
+      <c r="K101" s="653"/>
       <c r="L101" s="56"/>
       <c r="N101" s="11"/>
       <c r="O101" s="6"/>
       <c r="S101" s="32"/>
     </row>
     <row r="102" spans="1:19" ht="15.75">
-      <c r="A102" s="669"/>
+      <c r="A102" s="655"/>
       <c r="B102" s="19">
         <v>1</v>
       </c>
@@ -10674,14 +10680,14 @@
         <v>3</v>
       </c>
       <c r="J102" s="13"/>
-      <c r="K102" s="688"/>
+      <c r="K102" s="653"/>
       <c r="L102" s="56"/>
       <c r="N102" s="11"/>
       <c r="O102" s="6"/>
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A103" s="669"/>
+      <c r="A103" s="655"/>
       <c r="B103" s="19">
         <v>1</v>
       </c>
@@ -10705,14 +10711,14 @@
         <v>7</v>
       </c>
       <c r="J103" s="13"/>
-      <c r="K103" s="688"/>
+      <c r="K103" s="653"/>
       <c r="L103" s="56"/>
       <c r="N103" s="11"/>
       <c r="O103" s="6"/>
       <c r="S103" s="32"/>
     </row>
     <row r="104" spans="1:19" ht="15.75">
-      <c r="A104" s="669"/>
+      <c r="A104" s="655"/>
       <c r="B104" s="132" t="s">
         <v>149</v>
       </c>
@@ -10740,7 +10746,7 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="15.75">
-      <c r="A105" s="669"/>
+      <c r="A105" s="655"/>
       <c r="B105" s="19">
         <v>0</v>
       </c>
@@ -10764,7 +10770,7 @@
       <c r="J105" s="146">
         <v>1</v>
       </c>
-      <c r="K105" s="675" t="s">
+      <c r="K105" s="638" t="s">
         <v>159</v>
       </c>
       <c r="L105" s="2" t="s">
@@ -10774,7 +10780,7 @@
       <c r="S105" s="32"/>
     </row>
     <row r="106" spans="1:19" ht="15.75">
-      <c r="A106" s="669"/>
+      <c r="A106" s="655"/>
       <c r="B106" s="19">
         <v>0</v>
       </c>
@@ -10798,7 +10804,7 @@
       <c r="J106" s="146">
         <v>0.99719999999999998</v>
       </c>
-      <c r="K106" s="675"/>
+      <c r="K106" s="638"/>
       <c r="L106" t="s">
         <v>157</v>
       </c>
@@ -10807,7 +10813,7 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="15.75">
-      <c r="A107" s="669"/>
+      <c r="A107" s="655"/>
       <c r="B107" s="19">
         <v>0</v>
       </c>
@@ -10831,14 +10837,14 @@
       <c r="J107" s="146">
         <v>0.99429999999999996</v>
       </c>
-      <c r="K107" s="675"/>
+      <c r="K107" s="638"/>
       <c r="L107" s="12"/>
       <c r="O107" s="6"/>
       <c r="Q107" s="11"/>
       <c r="S107" s="32"/>
     </row>
     <row r="108" spans="1:19" ht="15.75">
-      <c r="A108" s="669"/>
+      <c r="A108" s="655"/>
       <c r="B108" s="19">
         <v>0</v>
       </c>
@@ -10862,14 +10868,14 @@
       <c r="J108" s="3">
         <v>0.99139999999999995</v>
       </c>
-      <c r="K108" s="675"/>
+      <c r="K108" s="638"/>
       <c r="L108" s="12"/>
       <c r="O108" s="6"/>
       <c r="Q108" s="11"/>
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="15.75">
-      <c r="A109" s="669"/>
+      <c r="A109" s="655"/>
       <c r="B109" s="19">
         <v>0</v>
       </c>
@@ -10893,14 +10899,14 @@
       <c r="J109" s="3">
         <v>0.98850000000000005</v>
       </c>
-      <c r="K109" s="675"/>
+      <c r="K109" s="638"/>
       <c r="L109" s="12"/>
       <c r="O109" s="6"/>
       <c r="Q109" s="11"/>
       <c r="S109" s="32"/>
     </row>
     <row r="110" spans="1:19" ht="15.75">
-      <c r="A110" s="669"/>
+      <c r="A110" s="655"/>
       <c r="B110" s="19">
         <v>0</v>
       </c>
@@ -10924,14 +10930,14 @@
       <c r="J110" s="3">
         <v>0.98560000000000003</v>
       </c>
-      <c r="K110" s="675"/>
+      <c r="K110" s="638"/>
       <c r="L110" s="57"/>
       <c r="O110" s="6"/>
       <c r="Q110" s="11"/>
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="15.75">
-      <c r="A111" s="669"/>
+      <c r="A111" s="655"/>
       <c r="B111" s="19">
         <v>0</v>
       </c>
@@ -10955,14 +10961,14 @@
       <c r="J111" s="3">
         <v>0.98260000000000003</v>
       </c>
-      <c r="K111" s="675"/>
+      <c r="K111" s="638"/>
       <c r="L111" s="12"/>
       <c r="O111" s="6"/>
       <c r="Q111" s="11"/>
       <c r="S111" s="32"/>
     </row>
     <row r="112" spans="1:19" ht="15.75">
-      <c r="A112" s="669"/>
+      <c r="A112" s="655"/>
       <c r="B112" s="19">
         <v>0</v>
       </c>
@@ -10986,14 +10992,14 @@
       <c r="J112" s="147">
         <v>0.9798</v>
       </c>
-      <c r="K112" s="675"/>
+      <c r="K112" s="638"/>
       <c r="L112" s="12"/>
       <c r="O112" s="6"/>
       <c r="Q112" s="11"/>
       <c r="S112" s="32"/>
     </row>
     <row r="113" spans="1:19" ht="15.75">
-      <c r="A113" s="669"/>
+      <c r="A113" s="655"/>
       <c r="B113" s="19">
         <v>1</v>
       </c>
@@ -11017,14 +11023,14 @@
       <c r="J113" s="147">
         <v>1.0233000000000001</v>
       </c>
-      <c r="K113" s="675"/>
+      <c r="K113" s="638"/>
       <c r="L113" s="12"/>
       <c r="O113" s="6"/>
       <c r="Q113" s="11"/>
       <c r="S113" s="32"/>
     </row>
     <row r="114" spans="1:19" ht="15.75">
-      <c r="A114" s="669"/>
+      <c r="A114" s="655"/>
       <c r="B114" s="19">
         <v>1</v>
       </c>
@@ -11048,14 +11054,14 @@
       <c r="J114" s="3">
         <v>1.0204</v>
       </c>
-      <c r="K114" s="675"/>
+      <c r="K114" s="638"/>
       <c r="L114" s="12"/>
       <c r="O114" s="6"/>
       <c r="Q114" s="11"/>
       <c r="S114" s="32"/>
     </row>
     <row r="115" spans="1:19" ht="15.75">
-      <c r="A115" s="669"/>
+      <c r="A115" s="655"/>
       <c r="B115" s="19">
         <v>1</v>
       </c>
@@ -11079,14 +11085,14 @@
       <c r="J115" s="3">
         <v>1.0175000000000001</v>
       </c>
-      <c r="K115" s="675"/>
+      <c r="K115" s="638"/>
       <c r="L115" s="12"/>
       <c r="O115" s="6"/>
       <c r="Q115" s="11"/>
       <c r="S115" s="32"/>
     </row>
     <row r="116" spans="1:19" ht="15.75">
-      <c r="A116" s="669"/>
+      <c r="A116" s="655"/>
       <c r="B116" s="19">
         <v>1</v>
       </c>
@@ -11110,14 +11116,14 @@
       <c r="J116" s="3">
         <v>1.0145999999999999</v>
       </c>
-      <c r="K116" s="675"/>
+      <c r="K116" s="638"/>
       <c r="L116" s="57"/>
       <c r="O116" s="6"/>
       <c r="Q116" s="11"/>
       <c r="S116" s="32"/>
     </row>
     <row r="117" spans="1:19" ht="15.75">
-      <c r="A117" s="669"/>
+      <c r="A117" s="655"/>
       <c r="B117" s="19">
         <v>1</v>
       </c>
@@ -11141,14 +11147,14 @@
       <c r="J117" s="3">
         <v>1.0117</v>
       </c>
-      <c r="K117" s="675"/>
+      <c r="K117" s="638"/>
       <c r="L117" s="12"/>
       <c r="O117" s="6"/>
       <c r="Q117" s="11"/>
       <c r="S117" s="32"/>
     </row>
     <row r="118" spans="1:19" ht="15.75">
-      <c r="A118" s="669"/>
+      <c r="A118" s="655"/>
       <c r="B118" s="19">
         <v>1</v>
       </c>
@@ -11172,14 +11178,14 @@
       <c r="J118" s="3">
         <v>1.0087999999999999</v>
       </c>
-      <c r="K118" s="675"/>
+      <c r="K118" s="638"/>
       <c r="L118" s="12"/>
       <c r="O118" s="6"/>
       <c r="Q118" s="11"/>
       <c r="S118" s="32"/>
     </row>
     <row r="119" spans="1:19" ht="15.75">
-      <c r="A119" s="669"/>
+      <c r="A119" s="655"/>
       <c r="B119" s="19">
         <v>1</v>
       </c>
@@ -11203,14 +11209,14 @@
       <c r="J119" s="3">
         <v>1.0059</v>
       </c>
-      <c r="K119" s="675"/>
+      <c r="K119" s="638"/>
       <c r="L119" s="12"/>
       <c r="O119" s="6"/>
       <c r="Q119" s="11"/>
       <c r="S119" s="32"/>
     </row>
     <row r="120" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A120" s="690"/>
+      <c r="A120" s="656"/>
       <c r="B120" s="22">
         <v>1</v>
       </c>
@@ -11234,7 +11240,7 @@
       <c r="J120" s="142">
         <v>1.0029999999999999</v>
       </c>
-      <c r="K120" s="675"/>
+      <c r="K120" s="638"/>
       <c r="L120" s="12"/>
       <c r="O120" s="6"/>
       <c r="Q120" s="11"/>
@@ -11841,6 +11847,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="K36:K52"/>
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="K105:K120"/>
     <mergeCell ref="H6:H9"/>
@@ -11857,25 +11882,6 @@
     <mergeCell ref="K88:K103"/>
     <mergeCell ref="A87:A120"/>
     <mergeCell ref="J37:J52"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="K36:K52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26350,9 +26356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG19" sqref="AG19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH41" sqref="AH41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -26530,10 +26536,12 @@
       <c r="I4" s="308">
         <v>1</v>
       </c>
-      <c r="J4" s="691" t="s">
+      <c r="J4" s="657" t="s">
         <v>256</v>
       </c>
-      <c r="K4" s="354"/>
+      <c r="K4" s="354">
+        <v>0.01</v>
+      </c>
       <c r="L4" s="354"/>
       <c r="M4" s="359">
         <v>2.4596</v>
@@ -26599,6 +26607,9 @@
         <f>AVERAGE(O4,R4,U4,X4,AA4,AD4)</f>
         <v>0.12356481985392632</v>
       </c>
+      <c r="AH4" s="214">
+        <v>0</v>
+      </c>
       <c r="AI4" s="306">
         <v>-0.88207547169811318</v>
       </c>
@@ -26634,8 +26645,10 @@
       <c r="I5" s="308">
         <v>0</v>
       </c>
-      <c r="J5" s="691"/>
-      <c r="K5" s="354"/>
+      <c r="J5" s="657"/>
+      <c r="K5" s="354">
+        <v>0.02</v>
+      </c>
       <c r="L5" s="354"/>
       <c r="M5" s="359">
         <v>2.4615999999999998</v>
@@ -26701,6 +26714,9 @@
         <f t="shared" ref="AG5:AG18" si="6">AVERAGE(O5,R5,U5,X5,AA5,AD5)</f>
         <v>0.14131607924368628</v>
       </c>
+      <c r="AH5" s="214">
+        <v>1</v>
+      </c>
       <c r="AI5" s="306">
         <v>-0.86438679245283012</v>
       </c>
@@ -26735,8 +26751,10 @@
       <c r="I6" s="308">
         <v>1</v>
       </c>
-      <c r="J6" s="691"/>
-      <c r="K6" s="354"/>
+      <c r="J6" s="657"/>
+      <c r="K6" s="354">
+        <v>0.03</v>
+      </c>
       <c r="L6" s="354"/>
       <c r="M6" s="359">
         <v>2.4609999999999999</v>
@@ -26802,6 +26820,9 @@
         <f t="shared" si="6"/>
         <v>0.16261534628755939</v>
       </c>
+      <c r="AH6" s="214">
+        <v>2</v>
+      </c>
       <c r="AI6" s="306">
         <v>-0.84433962264150941</v>
       </c>
@@ -26836,8 +26857,10 @@
       <c r="I7" s="308">
         <v>0</v>
       </c>
-      <c r="J7" s="691"/>
-      <c r="K7" s="354"/>
+      <c r="J7" s="657"/>
+      <c r="K7" s="354">
+        <v>0.04</v>
+      </c>
       <c r="L7" s="354"/>
       <c r="M7" s="359">
         <v>2.4615999999999998</v>
@@ -26903,6 +26926,9 @@
         <f t="shared" si="6"/>
         <v>0.18733922159855385</v>
       </c>
+      <c r="AH7" s="214">
+        <v>3</v>
+      </c>
       <c r="AI7" s="306">
         <v>-0.82075471698113212</v>
       </c>
@@ -26937,8 +26963,10 @@
       <c r="I8" s="308">
         <v>1</v>
       </c>
-      <c r="J8" s="691"/>
-      <c r="K8" s="354"/>
+      <c r="J8" s="657"/>
+      <c r="K8" s="354">
+        <v>0.05</v>
+      </c>
       <c r="L8" s="354"/>
       <c r="M8" s="359">
         <v>2.4615999999999998</v>
@@ -27004,6 +27032,9 @@
         <f t="shared" si="6"/>
         <v>0.21524820452761606</v>
       </c>
+      <c r="AH8" s="214">
+        <v>4</v>
+      </c>
       <c r="AI8" s="306">
         <v>-0.79363207547169812</v>
       </c>
@@ -27038,8 +27069,10 @@
       <c r="I9" s="308">
         <v>0</v>
       </c>
-      <c r="J9" s="691"/>
-      <c r="K9" s="354"/>
+      <c r="J9" s="657"/>
+      <c r="K9" s="354">
+        <v>0.06</v>
+      </c>
       <c r="L9" s="354"/>
       <c r="M9" s="359">
         <v>2.4621</v>
@@ -27105,6 +27138,9 @@
         <f t="shared" si="6"/>
         <v>0.24743302057072233</v>
       </c>
+      <c r="AH9" s="214">
+        <v>5</v>
+      </c>
       <c r="AI9" s="306">
         <v>-0.7617924528301887</v>
       </c>
@@ -27139,8 +27175,10 @@
       <c r="I10" s="308">
         <v>1</v>
       </c>
-      <c r="J10" s="691"/>
-      <c r="K10" s="354"/>
+      <c r="J10" s="657"/>
+      <c r="K10" s="354">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="L10" s="354"/>
       <c r="M10" s="359">
         <v>2.4626000000000001</v>
@@ -27206,6 +27244,9 @@
         <f t="shared" si="6"/>
         <v>0.28643028493174377</v>
       </c>
+      <c r="AH10" s="214">
+        <v>6</v>
+      </c>
       <c r="AI10" s="306">
         <v>-0.72641509433962259</v>
       </c>
@@ -27240,8 +27281,10 @@
       <c r="I11" s="614">
         <v>0</v>
       </c>
-      <c r="J11" s="691"/>
-      <c r="K11" s="615"/>
+      <c r="J11" s="657"/>
+      <c r="K11" s="354">
+        <v>0.08</v>
+      </c>
       <c r="L11" s="615"/>
       <c r="M11" s="616">
         <v>2.4628000000000001</v>
@@ -27308,6 +27351,9 @@
         <f t="shared" si="6"/>
         <v>0.3274329483548904</v>
       </c>
+      <c r="AH11" s="214">
+        <v>7</v>
+      </c>
       <c r="AI11" s="612">
         <v>-0.68549528301886797</v>
       </c>
@@ -27342,8 +27388,10 @@
       <c r="I12" s="308">
         <v>1</v>
       </c>
-      <c r="J12" s="691"/>
-      <c r="K12" s="354"/>
+      <c r="J12" s="657"/>
+      <c r="K12" s="354">
+        <v>0.09</v>
+      </c>
       <c r="L12" s="354"/>
       <c r="M12" s="359">
         <v>2.4601000000000002</v>
@@ -27409,6 +27457,9 @@
         <f t="shared" si="6"/>
         <v>0.37759370398286846</v>
       </c>
+      <c r="AH12" s="214">
+        <v>8</v>
+      </c>
       <c r="AI12" s="306">
         <v>-0.63844339622641511</v>
       </c>
@@ -27443,8 +27494,10 @@
       <c r="I13" s="308">
         <v>0</v>
       </c>
-      <c r="J13" s="691"/>
-      <c r="K13" s="354"/>
+      <c r="J13" s="657"/>
+      <c r="K13" s="354">
+        <v>0.1</v>
+      </c>
       <c r="L13" s="354"/>
       <c r="M13" s="359">
         <v>2.4603999999999999</v>
@@ -27510,6 +27563,9 @@
         <f t="shared" si="6"/>
         <v>0.43510272701896319</v>
       </c>
+      <c r="AH13" s="214">
+        <v>9</v>
+      </c>
       <c r="AI13" s="306">
         <v>-0.58372641509433976</v>
       </c>
@@ -27544,8 +27600,10 @@
       <c r="I14" s="308">
         <v>1</v>
       </c>
-      <c r="J14" s="691"/>
-      <c r="K14" s="354"/>
+      <c r="J14" s="657"/>
+      <c r="K14" s="354">
+        <v>0.11</v>
+      </c>
       <c r="L14" s="354"/>
       <c r="M14" s="359">
         <v>2.4598</v>
@@ -27611,6 +27669,9 @@
         <f t="shared" si="6"/>
         <v>0.49965471374568576</v>
       </c>
+      <c r="AH14" s="214">
+        <v>10</v>
+      </c>
       <c r="AI14" s="306">
         <v>-0.52122641509433965</v>
       </c>
@@ -27645,8 +27706,10 @@
       <c r="I15" s="614">
         <v>0</v>
       </c>
-      <c r="J15" s="691"/>
-      <c r="K15" s="615"/>
+      <c r="J15" s="657"/>
+      <c r="K15" s="354">
+        <v>0.12</v>
+      </c>
       <c r="L15" s="615"/>
       <c r="M15" s="616">
         <v>2.46</v>
@@ -27713,6 +27776,9 @@
         <f t="shared" si="6"/>
         <v>0.57562181156707293</v>
       </c>
+      <c r="AH15" s="214">
+        <v>11</v>
+      </c>
       <c r="AI15" s="612">
         <v>-0.44811320754716988</v>
       </c>
@@ -27747,8 +27813,10 @@
       <c r="I16" s="308">
         <v>1</v>
       </c>
-      <c r="J16" s="691"/>
-      <c r="K16" s="354"/>
+      <c r="J16" s="657"/>
+      <c r="K16" s="354">
+        <v>0.13</v>
+      </c>
       <c r="L16" s="354"/>
       <c r="M16" s="359">
         <v>2.4594</v>
@@ -27815,6 +27883,9 @@
         <f t="shared" si="6"/>
         <v>0.66188042317009843</v>
       </c>
+      <c r="AH16" s="214">
+        <v>12</v>
+      </c>
       <c r="AI16" s="306">
         <v>-0.3632075471698113</v>
       </c>
@@ -27849,8 +27920,10 @@
       <c r="I17" s="614">
         <v>0</v>
       </c>
-      <c r="J17" s="691"/>
-      <c r="K17" s="615"/>
+      <c r="J17" s="657"/>
+      <c r="K17" s="354">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="L17" s="615"/>
       <c r="M17" s="616">
         <v>2.4592999999999998</v>
@@ -27917,6 +27990,9 @@
         <f t="shared" si="6"/>
         <v>0.75999842860002031</v>
       </c>
+      <c r="AH17" s="214">
+        <v>13</v>
+      </c>
       <c r="AI17" s="612">
         <v>-0.26297169811320759</v>
       </c>
@@ -27951,8 +28027,10 @@
       <c r="I18" s="614">
         <v>1</v>
       </c>
-      <c r="J18" s="691"/>
-      <c r="K18" s="615"/>
+      <c r="J18" s="657"/>
+      <c r="K18" s="354">
+        <v>0.15</v>
+      </c>
       <c r="L18" s="615"/>
       <c r="M18" s="616">
         <v>2.4588999999999999</v>
@@ -28019,6 +28097,9 @@
         <f t="shared" si="6"/>
         <v>0.87537969942050642</v>
       </c>
+      <c r="AH18" s="214">
+        <v>14</v>
+      </c>
       <c r="AI18" s="612">
         <v>-0.14268867924528311</v>
       </c>
@@ -28053,10 +28134,9 @@
       <c r="I19" s="308">
         <v>0</v>
       </c>
-      <c r="J19" s="691"/>
+      <c r="J19" s="657"/>
       <c r="K19" s="354">
-        <f>(E19-E18)/E19</f>
-        <v>0.14268867924528311</v>
+        <v>0.16</v>
       </c>
       <c r="L19" s="354"/>
       <c r="M19" s="359">
@@ -28121,6 +28201,9 @@
       </c>
       <c r="AG19" s="370">
         <v>1</v>
+      </c>
+      <c r="AH19" s="214">
+        <v>15</v>
       </c>
       <c r="AI19" s="310">
         <v>0</v>
@@ -28268,6 +28351,9 @@
         <f>AVERAGE(O21,R21,U21,X21,AA21,AD21)</f>
         <v>0</v>
       </c>
+      <c r="AH21" s="5">
+        <v>0</v>
+      </c>
       <c r="AI21" s="317">
         <v>0</v>
       </c>
@@ -28371,6 +28457,9 @@
         <f t="shared" ref="AG22:AG52" si="8">AVERAGE(O22,R22,U22,X22,AA22,AD22)</f>
         <v>0.99510669756161574</v>
       </c>
+      <c r="AH22" s="619">
+        <v>1</v>
+      </c>
       <c r="AI22" s="623">
         <v>-4.5200172191132591E-3</v>
       </c>
@@ -28471,6 +28560,9 @@
         <f t="shared" si="8"/>
         <v>0.9909092169963083</v>
       </c>
+      <c r="AH23" s="5">
+        <v>2</v>
+      </c>
       <c r="AI23" s="623">
         <v>-9.0041612856938298E-3</v>
       </c>
@@ -28570,6 +28662,9 @@
         <f t="shared" si="8"/>
         <v>0.98643639062920563</v>
       </c>
+      <c r="AH24" s="619">
+        <v>3</v>
+      </c>
       <c r="AI24" s="319">
         <v>-1.3488305352274401E-2</v>
       </c>
@@ -28670,6 +28765,9 @@
         <f t="shared" si="8"/>
         <v>0.98191466783832804</v>
       </c>
+      <c r="AH25" s="5">
+        <v>4</v>
+      </c>
       <c r="AI25" s="623">
         <v>-1.7972449418854973E-2</v>
       </c>
@@ -28769,6 +28867,9 @@
         <f t="shared" si="8"/>
         <v>0.97725834556060198</v>
       </c>
+      <c r="AH26" s="619">
+        <v>5</v>
+      </c>
       <c r="AI26" s="319">
         <v>-2.2456593485435671E-2</v>
       </c>
@@ -28868,6 +28969,9 @@
         <f t="shared" si="8"/>
         <v>0.97223822804304705</v>
       </c>
+      <c r="AH27" s="5">
+        <v>6</v>
+      </c>
       <c r="AI27" s="319">
         <v>-2.6940737552016113E-2</v>
       </c>
@@ -28967,6 +29071,9 @@
         <f t="shared" si="8"/>
         <v>0.96793265321338906</v>
       </c>
+      <c r="AH28" s="619">
+        <v>7</v>
+      </c>
       <c r="AI28" s="319">
         <v>-3.1424881618596683E-2</v>
       </c>
@@ -29067,6 +29174,9 @@
         <f t="shared" si="8"/>
         <v>0.9632518975567913</v>
       </c>
+      <c r="AH29" s="5">
+        <v>8</v>
+      </c>
       <c r="AI29" s="623">
         <v>-3.5909025685177252E-2</v>
       </c>
@@ -29166,6 +29276,9 @@
         <f t="shared" si="8"/>
         <v>0.95905684463379071</v>
       </c>
+      <c r="AH30" s="619">
+        <v>9</v>
+      </c>
       <c r="AI30" s="319">
         <v>-4.0393169751757829E-2</v>
       </c>
@@ -29265,6 +29378,9 @@
         <f t="shared" si="8"/>
         <v>0.95477402610246942</v>
       </c>
+      <c r="AH31" s="5">
+        <v>10</v>
+      </c>
       <c r="AI31" s="319">
         <v>-4.4877313818338399E-2</v>
       </c>
@@ -29364,6 +29480,9 @@
         <f t="shared" si="8"/>
         <v>0.94996086680916358</v>
       </c>
+      <c r="AH32" s="619">
+        <v>11</v>
+      </c>
       <c r="AI32" s="319">
         <v>-4.9361457884918969E-2</v>
       </c>
@@ -29463,6 +29582,9 @@
         <f t="shared" si="8"/>
         <v>0.94585707090276638</v>
       </c>
+      <c r="AH33" s="5">
+        <v>12</v>
+      </c>
       <c r="AI33" s="319">
         <v>-5.3845601951499539E-2</v>
       </c>
@@ -29562,6 +29684,9 @@
         <f t="shared" si="8"/>
         <v>0.94222611728094252</v>
       </c>
+      <c r="AH34" s="619">
+        <v>13</v>
+      </c>
       <c r="AI34" s="319">
         <v>-5.8329746018080109E-2</v>
       </c>
@@ -29661,6 +29786,9 @@
         <f t="shared" si="8"/>
         <v>0.93691735304209101</v>
       </c>
+      <c r="AH35" s="5">
+        <v>14</v>
+      </c>
       <c r="AI35" s="319">
         <v>-6.2813890084660678E-2</v>
       </c>
@@ -29760,6 +29888,9 @@
         <f t="shared" si="8"/>
         <v>0.93252454339438806</v>
       </c>
+      <c r="AH36" s="619">
+        <v>15</v>
+      </c>
       <c r="AI36" s="319">
         <v>-6.7298034151241248E-2</v>
       </c>
@@ -29860,6 +29991,9 @@
         <f t="shared" si="8"/>
         <v>0.92831171090103737</v>
       </c>
+      <c r="AH37" s="5">
+        <v>16</v>
+      </c>
       <c r="AI37" s="623">
         <v>-7.1782178217821818E-2</v>
       </c>
@@ -29959,6 +30093,9 @@
         <f t="shared" si="8"/>
         <v>0.92375386722740283</v>
       </c>
+      <c r="AH38" s="619">
+        <v>17</v>
+      </c>
       <c r="AI38" s="319">
         <v>-7.6266322284402388E-2</v>
       </c>
@@ -30058,6 +30195,9 @@
         <f t="shared" si="8"/>
         <v>0.91899574275966678</v>
       </c>
+      <c r="AH39" s="5">
+        <v>18</v>
+      </c>
       <c r="AI39" s="319">
         <v>-8.0750466350982958E-2</v>
       </c>
@@ -30157,6 +30297,9 @@
         <f t="shared" si="8"/>
         <v>0.91501584234971434</v>
       </c>
+      <c r="AH40" s="619">
+        <v>19</v>
+      </c>
       <c r="AI40" s="319">
         <v>-8.5234610417563542E-2</v>
       </c>
@@ -30256,6 +30399,9 @@
         <f t="shared" si="8"/>
         <v>0.91028043928727687</v>
       </c>
+      <c r="AH41" s="5">
+        <v>20</v>
+      </c>
       <c r="AI41" s="319">
         <v>-8.9718754484144111E-2</v>
       </c>
@@ -30355,6 +30501,9 @@
         <f t="shared" si="8"/>
         <v>0.90552488153490929</v>
       </c>
+      <c r="AH42" s="619">
+        <v>21</v>
+      </c>
       <c r="AI42" s="319">
         <v>-9.4202898550724681E-2</v>
       </c>
@@ -30454,6 +30603,9 @@
         <f t="shared" si="8"/>
         <v>0.90094800555146115</v>
       </c>
+      <c r="AH43" s="5">
+        <v>22</v>
+      </c>
       <c r="AI43" s="319">
         <v>-9.8687042617305251E-2</v>
       </c>
@@ -30553,6 +30705,9 @@
         <f t="shared" si="8"/>
         <v>0.89656300792062094</v>
       </c>
+      <c r="AH44" s="619">
+        <v>23</v>
+      </c>
       <c r="AI44" s="319">
         <v>-0.10317118668388582</v>
       </c>
@@ -30652,6 +30807,9 @@
         <f t="shared" si="8"/>
         <v>0.89210216156946043</v>
       </c>
+      <c r="AH45" s="5">
+        <v>24</v>
+      </c>
       <c r="AI45" s="319">
         <v>-0.10765533075046639</v>
       </c>
@@ -30751,6 +30909,9 @@
         <f t="shared" si="8"/>
         <v>0.88755766787337997</v>
       </c>
+      <c r="AH46" s="619">
+        <v>25</v>
+      </c>
       <c r="AI46" s="319">
         <v>-0.11213947481704696</v>
       </c>
@@ -30850,6 +31011,9 @@
         <f t="shared" si="8"/>
         <v>0.88289112265716352</v>
       </c>
+      <c r="AH47" s="5">
+        <v>26</v>
+      </c>
       <c r="AI47" s="319">
         <v>-0.11662361888362753</v>
       </c>
@@ -30949,6 +31113,9 @@
         <f t="shared" si="8"/>
         <v>0.8785194141233722</v>
       </c>
+      <c r="AH48" s="619">
+        <v>27</v>
+      </c>
       <c r="AI48" s="319">
         <v>-0.1211077629502081</v>
       </c>
@@ -31048,6 +31215,9 @@
         <f t="shared" si="8"/>
         <v>0.87396033934527007</v>
       </c>
+      <c r="AH49" s="5">
+        <v>28</v>
+      </c>
       <c r="AI49" s="319">
         <v>-0.12559190701678868</v>
       </c>
@@ -31147,6 +31317,9 @@
         <f t="shared" si="8"/>
         <v>0.86963469734511234</v>
       </c>
+      <c r="AH50" s="619">
+        <v>29</v>
+      </c>
       <c r="AI50" s="319">
         <v>-0.13007605108336925</v>
       </c>
@@ -31246,6 +31419,9 @@
         <f t="shared" si="8"/>
         <v>0.86491925835692751</v>
       </c>
+      <c r="AH51" s="5">
+        <v>30</v>
+      </c>
       <c r="AI51" s="319">
         <v>-0.13456019514994982</v>
       </c>
@@ -31344,6 +31520,9 @@
       <c r="AG52" s="369">
         <f t="shared" si="8"/>
         <v>0.86066911118590772</v>
+      </c>
+      <c r="AH52" s="619">
+        <v>31</v>
       </c>
       <c r="AI52" s="326">
         <v>-0.13904433921653039</v>
@@ -34558,12 +34737,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet4!F11:F11</xm:f>
-              <xm:sqref>BE22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet4!F12:F12</xm:f>
-              <xm:sqref>BE23</xm:sqref>
+              <xm:f>Sheet4!F11:F12</xm:f>
+              <xm:sqref>BA39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -34578,8 +34753,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet4!F11:F12</xm:f>
-              <xm:sqref>BA39</xm:sqref>
+              <xm:f>Sheet4!F11:F11</xm:f>
+              <xm:sqref>BE22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet4!F12:F12</xm:f>
+              <xm:sqref>BE23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -40771,6 +40950,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:D26"/>
     <mergeCell ref="B39:B42"/>
@@ -40781,17 +40971,6 @@
     <mergeCell ref="C31:D34"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:D38"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Programming Discription/LABtest_公式_v1.2 (自动保存的).xlsx
+++ b/Programming Discription/LABtest_公式_v1.2 (自动保存的).xlsx
@@ -3040,99 +3040,6 @@
     <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3205,6 +3112,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3213,6 +3126,93 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4050,11 +4050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259471344"/>
-        <c:axId val="259471904"/>
+        <c:axId val="290763680"/>
+        <c:axId val="290764240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259471344"/>
+        <c:axId val="290763680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4063,7 +4063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259471904"/>
+        <c:crossAx val="290764240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4071,7 +4071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259471904"/>
+        <c:axId val="290764240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259471344"/>
+        <c:crossAx val="290763680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4523,11 +4523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259477504"/>
-        <c:axId val="259478064"/>
+        <c:axId val="291967232"/>
+        <c:axId val="291967792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259477504"/>
+        <c:axId val="291967232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259478064"/>
+        <c:crossAx val="291967792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4544,7 +4544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259478064"/>
+        <c:axId val="291967792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,7 +4555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259477504"/>
+        <c:crossAx val="291967232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4996,11 +4996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="260924352"/>
-        <c:axId val="260924912"/>
+        <c:axId val="291973392"/>
+        <c:axId val="291973952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260924352"/>
+        <c:axId val="291973392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5009,7 +5009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260924912"/>
+        <c:crossAx val="291973952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5017,7 +5017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260924912"/>
+        <c:axId val="291973952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,14 +5028,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260924352"/>
+        <c:crossAx val="291973392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5483,11 +5482,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="260930512"/>
-        <c:axId val="260931072"/>
+        <c:axId val="292170864"/>
+        <c:axId val="292171424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260930512"/>
+        <c:axId val="292170864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5496,7 +5495,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260931072"/>
+        <c:crossAx val="292171424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5504,7 +5503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260931072"/>
+        <c:axId val="292171424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5519,7 +5518,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260930512"/>
+        <c:crossAx val="292170864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5646,11 +5645,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="260934432"/>
-        <c:axId val="260934992"/>
+        <c:axId val="292174784"/>
+        <c:axId val="292175344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260934432"/>
+        <c:axId val="292174784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5693,7 +5692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260934992"/>
+        <c:crossAx val="292175344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5701,7 +5700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260934992"/>
+        <c:axId val="292175344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5752,7 +5751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260934432"/>
+        <c:crossAx val="292174784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6828,50 +6827,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48" customHeight="1" thickBot="1">
-      <c r="A1" s="666" t="s">
+      <c r="A1" s="635" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="667"/>
-      <c r="C1" s="667"/>
-      <c r="D1" s="667"/>
-      <c r="E1" s="667"/>
-      <c r="F1" s="667"/>
-      <c r="G1" s="667"/>
-      <c r="H1" s="667"/>
-      <c r="I1" s="667"/>
-      <c r="J1" s="667"/>
-      <c r="K1" s="667"/>
-      <c r="L1" s="668"/>
+      <c r="B1" s="636"/>
+      <c r="C1" s="636"/>
+      <c r="D1" s="636"/>
+      <c r="E1" s="636"/>
+      <c r="F1" s="636"/>
+      <c r="G1" s="636"/>
+      <c r="H1" s="636"/>
+      <c r="I1" s="636"/>
+      <c r="J1" s="636"/>
+      <c r="K1" s="636"/>
+      <c r="L1" s="637"/>
     </row>
     <row r="2" spans="1:12" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="680"/>
-      <c r="B2" s="680"/>
-      <c r="C2" s="680"/>
-      <c r="D2" s="680"/>
-      <c r="E2" s="680"/>
-      <c r="F2" s="680"/>
-      <c r="G2" s="680"/>
-      <c r="H2" s="680"/>
-      <c r="I2" s="680"/>
-      <c r="J2" s="680"/>
-      <c r="K2" s="680"/>
-      <c r="L2" s="680"/>
+      <c r="A2" s="649"/>
+      <c r="B2" s="649"/>
+      <c r="C2" s="649"/>
+      <c r="D2" s="649"/>
+      <c r="E2" s="649"/>
+      <c r="F2" s="649"/>
+      <c r="G2" s="649"/>
+      <c r="H2" s="649"/>
+      <c r="I2" s="649"/>
+      <c r="J2" s="649"/>
+      <c r="K2" s="649"/>
+      <c r="L2" s="649"/>
     </row>
     <row r="3" spans="1:12" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="690" t="s">
+      <c r="A3" s="661" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="691"/>
-      <c r="C3" s="691"/>
-      <c r="D3" s="691"/>
-      <c r="E3" s="691"/>
-      <c r="F3" s="691"/>
-      <c r="G3" s="691"/>
-      <c r="H3" s="691"/>
-      <c r="I3" s="691"/>
-      <c r="J3" s="691"/>
-      <c r="K3" s="691"/>
-      <c r="L3" s="692"/>
+      <c r="B3" s="662"/>
+      <c r="C3" s="662"/>
+      <c r="D3" s="662"/>
+      <c r="E3" s="662"/>
+      <c r="F3" s="662"/>
+      <c r="G3" s="662"/>
+      <c r="H3" s="662"/>
+      <c r="I3" s="662"/>
+      <c r="J3" s="662"/>
+      <c r="K3" s="662"/>
+      <c r="L3" s="663"/>
     </row>
     <row r="4" spans="1:12" ht="89.25" customHeight="1" thickBot="1">
       <c r="A4" s="151" t="s">
@@ -6892,11 +6891,11 @@
       <c r="F4" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="669" t="s">
+      <c r="G4" s="638" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="669"/>
-      <c r="I4" s="669"/>
+      <c r="H4" s="638"/>
+      <c r="I4" s="638"/>
       <c r="J4" s="155" t="s">
         <v>164</v>
       </c>
@@ -6904,21 +6903,21 @@
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A5" s="681"/>
-      <c r="B5" s="682"/>
-      <c r="C5" s="682"/>
-      <c r="D5" s="682"/>
-      <c r="E5" s="682"/>
-      <c r="F5" s="682"/>
-      <c r="G5" s="682"/>
-      <c r="H5" s="682"/>
-      <c r="I5" s="682"/>
-      <c r="J5" s="682"/>
-      <c r="K5" s="682"/>
-      <c r="L5" s="683"/>
+      <c r="A5" s="650"/>
+      <c r="B5" s="651"/>
+      <c r="C5" s="651"/>
+      <c r="D5" s="651"/>
+      <c r="E5" s="651"/>
+      <c r="F5" s="651"/>
+      <c r="G5" s="651"/>
+      <c r="H5" s="651"/>
+      <c r="I5" s="651"/>
+      <c r="J5" s="651"/>
+      <c r="K5" s="651"/>
+      <c r="L5" s="652"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="670">
+      <c r="A6" s="639">
         <v>1</v>
       </c>
       <c r="B6" s="86" t="s">
@@ -6939,7 +6938,7 @@
       <c r="G6" s="88">
         <v>5.5</v>
       </c>
-      <c r="H6" s="639" t="s">
+      <c r="H6" s="676" t="s">
         <v>165</v>
       </c>
       <c r="I6" s="90"/>
@@ -6948,7 +6947,7 @@
       <c r="L6" s="170"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="671"/>
+      <c r="A7" s="640"/>
       <c r="B7" s="91" t="s">
         <v>31</v>
       </c>
@@ -6957,14 +6956,14 @@
       <c r="E7" s="93"/>
       <c r="F7" s="94"/>
       <c r="G7" s="95"/>
-      <c r="H7" s="639"/>
+      <c r="H7" s="676"/>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
       <c r="L7" s="170"/>
     </row>
     <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="671"/>
+      <c r="A8" s="640"/>
       <c r="B8" s="91" t="s">
         <v>32</v>
       </c>
@@ -6973,14 +6972,14 @@
       <c r="E8" s="166"/>
       <c r="F8" s="96"/>
       <c r="G8" s="97"/>
-      <c r="H8" s="639"/>
+      <c r="H8" s="676"/>
       <c r="I8" s="98"/>
       <c r="J8" s="98"/>
       <c r="K8" s="98"/>
       <c r="L8" s="171"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A9" s="672"/>
+      <c r="A9" s="641"/>
       <c r="B9" s="99" t="s">
         <v>33</v>
       </c>
@@ -6989,28 +6988,28 @@
       <c r="E9" s="101"/>
       <c r="F9" s="100"/>
       <c r="G9" s="102"/>
-      <c r="H9" s="639"/>
+      <c r="H9" s="676"/>
       <c r="I9" s="89"/>
       <c r="J9" s="89"/>
       <c r="K9" s="89"/>
       <c r="L9" s="170"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A10" s="684"/>
-      <c r="B10" s="685"/>
-      <c r="C10" s="685"/>
-      <c r="D10" s="685"/>
-      <c r="E10" s="685"/>
-      <c r="F10" s="685"/>
-      <c r="G10" s="685"/>
-      <c r="H10" s="685"/>
-      <c r="I10" s="686"/>
-      <c r="J10" s="686"/>
-      <c r="K10" s="686"/>
-      <c r="L10" s="687"/>
+      <c r="A10" s="653"/>
+      <c r="B10" s="654"/>
+      <c r="C10" s="654"/>
+      <c r="D10" s="654"/>
+      <c r="E10" s="654"/>
+      <c r="F10" s="654"/>
+      <c r="G10" s="654"/>
+      <c r="H10" s="654"/>
+      <c r="I10" s="655"/>
+      <c r="J10" s="655"/>
+      <c r="K10" s="655"/>
+      <c r="L10" s="656"/>
     </row>
     <row r="11" spans="1:12" ht="72.75" customHeight="1">
-      <c r="A11" s="677">
+      <c r="A11" s="646">
         <v>2</v>
       </c>
       <c r="B11" s="103" t="s">
@@ -7032,7 +7031,7 @@
         <v>96</v>
       </c>
       <c r="H11" s="105"/>
-      <c r="I11" s="639" t="s">
+      <c r="I11" s="676" t="s">
         <v>170</v>
       </c>
       <c r="J11" s="89"/>
@@ -7040,11 +7039,11 @@
       <c r="L11" s="172"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="678"/>
-      <c r="B12" s="648">
-        <v>1</v>
-      </c>
-      <c r="C12" s="648">
+      <c r="A12" s="647"/>
+      <c r="B12" s="659">
+        <v>1</v>
+      </c>
+      <c r="C12" s="659">
         <v>1</v>
       </c>
       <c r="D12" s="106">
@@ -7056,15 +7055,15 @@
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="639"/>
+      <c r="I12" s="676"/>
       <c r="J12" s="109"/>
       <c r="K12" s="109"/>
       <c r="L12" s="173"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A13" s="678"/>
-      <c r="B13" s="648"/>
-      <c r="C13" s="648"/>
+      <c r="A13" s="647"/>
+      <c r="B13" s="659"/>
+      <c r="C13" s="659"/>
       <c r="D13" s="106">
         <v>0</v>
       </c>
@@ -7074,15 +7073,15 @@
       <c r="F13" s="94"/>
       <c r="G13" s="94"/>
       <c r="H13" s="95"/>
-      <c r="I13" s="639"/>
+      <c r="I13" s="676"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
       <c r="L13" s="170"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="678"/>
-      <c r="B14" s="648"/>
-      <c r="C14" s="648"/>
+      <c r="A14" s="647"/>
+      <c r="B14" s="659"/>
+      <c r="C14" s="659"/>
       <c r="D14" s="106">
         <v>1</v>
       </c>
@@ -7092,15 +7091,15 @@
       <c r="F14" s="94"/>
       <c r="G14" s="94"/>
       <c r="H14" s="95"/>
-      <c r="I14" s="639"/>
+      <c r="I14" s="676"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="170"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A15" s="679"/>
-      <c r="B15" s="649"/>
-      <c r="C15" s="649"/>
+      <c r="A15" s="648"/>
+      <c r="B15" s="660"/>
+      <c r="C15" s="660"/>
       <c r="D15" s="100">
         <v>1</v>
       </c>
@@ -7110,36 +7109,36 @@
       <c r="F15" s="111"/>
       <c r="G15" s="111"/>
       <c r="H15" s="112"/>
-      <c r="I15" s="639"/>
+      <c r="I15" s="676"/>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
       <c r="L15" s="170"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="678"/>
-      <c r="B16" s="688"/>
-      <c r="C16" s="688"/>
-      <c r="D16" s="688"/>
-      <c r="E16" s="688"/>
-      <c r="F16" s="688"/>
-      <c r="G16" s="688"/>
-      <c r="H16" s="688"/>
-      <c r="I16" s="688"/>
-      <c r="J16" s="688"/>
-      <c r="K16" s="688"/>
-      <c r="L16" s="689"/>
+      <c r="A16" s="647"/>
+      <c r="B16" s="657"/>
+      <c r="C16" s="657"/>
+      <c r="D16" s="657"/>
+      <c r="E16" s="657"/>
+      <c r="F16" s="657"/>
+      <c r="G16" s="657"/>
+      <c r="H16" s="657"/>
+      <c r="I16" s="657"/>
+      <c r="J16" s="657"/>
+      <c r="K16" s="657"/>
+      <c r="L16" s="658"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="673">
+      <c r="A17" s="642">
         <v>3</v>
       </c>
       <c r="B17" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="676" t="s">
+      <c r="C17" s="645" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="676"/>
+      <c r="D17" s="645"/>
       <c r="E17" s="64" t="s">
         <v>34</v>
       </c>
@@ -7159,19 +7158,19 @@
         <v>5.5</v>
       </c>
       <c r="K17" s="84"/>
-      <c r="L17" s="640" t="s">
+      <c r="L17" s="677" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="674"/>
-      <c r="B18" s="648">
-        <v>0</v>
-      </c>
-      <c r="C18" s="648">
-        <v>1</v>
-      </c>
-      <c r="D18" s="648"/>
+      <c r="A18" s="643"/>
+      <c r="B18" s="659">
+        <v>0</v>
+      </c>
+      <c r="C18" s="659">
+        <v>1</v>
+      </c>
+      <c r="D18" s="659"/>
       <c r="E18" s="59" t="s">
         <v>36</v>
       </c>
@@ -7181,13 +7180,13 @@
       <c r="I18" s="93"/>
       <c r="J18" s="93"/>
       <c r="K18" s="108"/>
-      <c r="L18" s="640"/>
+      <c r="L18" s="677"/>
     </row>
     <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="674"/>
-      <c r="B19" s="648"/>
-      <c r="C19" s="648"/>
-      <c r="D19" s="648"/>
+      <c r="A19" s="643"/>
+      <c r="B19" s="659"/>
+      <c r="C19" s="659"/>
+      <c r="D19" s="659"/>
       <c r="E19" s="59" t="s">
         <v>37</v>
       </c>
@@ -7197,13 +7196,13 @@
       <c r="I19" s="93"/>
       <c r="J19" s="93"/>
       <c r="K19" s="108"/>
-      <c r="L19" s="640"/>
+      <c r="L19" s="677"/>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="674"/>
-      <c r="B20" s="648"/>
-      <c r="C20" s="648"/>
-      <c r="D20" s="648"/>
+      <c r="A20" s="643"/>
+      <c r="B20" s="659"/>
+      <c r="C20" s="659"/>
+      <c r="D20" s="659"/>
       <c r="E20" s="59" t="s">
         <v>38</v>
       </c>
@@ -7213,13 +7212,13 @@
       <c r="I20" s="93"/>
       <c r="J20" s="93"/>
       <c r="K20" s="108"/>
-      <c r="L20" s="640"/>
+      <c r="L20" s="677"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A21" s="675"/>
-      <c r="B21" s="649"/>
-      <c r="C21" s="649"/>
-      <c r="D21" s="649"/>
+      <c r="A21" s="644"/>
+      <c r="B21" s="660"/>
+      <c r="C21" s="660"/>
+      <c r="D21" s="660"/>
       <c r="E21" s="85" t="s">
         <v>35</v>
       </c>
@@ -7244,24 +7243,24 @@
         <v>0</v>
       </c>
       <c r="K21" s="114"/>
-      <c r="L21" s="640"/>
+      <c r="L21" s="677"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="635"/>
-      <c r="B22" s="636"/>
-      <c r="C22" s="636"/>
-      <c r="D22" s="636"/>
-      <c r="E22" s="636"/>
-      <c r="F22" s="636"/>
-      <c r="G22" s="636"/>
-      <c r="H22" s="636"/>
-      <c r="I22" s="636"/>
-      <c r="J22" s="636"/>
-      <c r="K22" s="636"/>
-      <c r="L22" s="637"/>
+      <c r="A22" s="672"/>
+      <c r="B22" s="673"/>
+      <c r="C22" s="673"/>
+      <c r="D22" s="673"/>
+      <c r="E22" s="673"/>
+      <c r="F22" s="673"/>
+      <c r="G22" s="673"/>
+      <c r="H22" s="673"/>
+      <c r="I22" s="673"/>
+      <c r="J22" s="673"/>
+      <c r="K22" s="673"/>
+      <c r="L22" s="674"/>
     </row>
     <row r="23" spans="1:12" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A23" s="660">
+      <c r="A23" s="665">
         <v>4</v>
       </c>
       <c r="B23" s="161" t="s">
@@ -7291,7 +7290,7 @@
       <c r="L23" s="174"/>
     </row>
     <row r="24" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A24" s="661"/>
+      <c r="A24" s="666"/>
       <c r="B24" s="162">
         <v>0</v>
       </c>
@@ -7308,13 +7307,13 @@
       </c>
       <c r="I24" s="93"/>
       <c r="J24" s="108"/>
-      <c r="K24" s="641" t="s">
+      <c r="K24" s="678" t="s">
         <v>172</v>
       </c>
       <c r="L24" s="174"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1">
-      <c r="A25" s="661"/>
+      <c r="A25" s="666"/>
       <c r="B25" s="162">
         <v>0</v>
       </c>
@@ -7331,11 +7330,11 @@
       </c>
       <c r="I25" s="93"/>
       <c r="J25" s="108"/>
-      <c r="K25" s="641"/>
+      <c r="K25" s="678"/>
       <c r="L25" s="174"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="661"/>
+      <c r="A26" s="666"/>
       <c r="B26" s="162">
         <v>1</v>
       </c>
@@ -7352,11 +7351,11 @@
       </c>
       <c r="I26" s="93"/>
       <c r="J26" s="108"/>
-      <c r="K26" s="641"/>
+      <c r="K26" s="678"/>
       <c r="L26" s="174"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A27" s="662"/>
+      <c r="A27" s="667"/>
       <c r="B27" s="163">
         <v>1</v>
       </c>
@@ -7373,7 +7372,7 @@
       </c>
       <c r="I27" s="113"/>
       <c r="J27" s="114"/>
-      <c r="K27" s="641"/>
+      <c r="K27" s="678"/>
       <c r="L27" s="175"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1">
@@ -7391,7 +7390,7 @@
       <c r="L28" s="175"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A29" s="655">
+      <c r="A29" s="669">
         <v>5</v>
       </c>
       <c r="B29" s="106" t="s">
@@ -7407,7 +7406,7 @@
         <v>174</v>
       </c>
       <c r="F29" s="160"/>
-      <c r="G29" s="664" t="s">
+      <c r="G29" s="670" t="s">
         <v>175</v>
       </c>
       <c r="H29" s="109"/>
@@ -7417,8 +7416,8 @@
       <c r="L29" s="175"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A30" s="655"/>
-      <c r="B30" s="663">
+      <c r="A30" s="669"/>
+      <c r="B30" s="668">
         <v>1</v>
       </c>
       <c r="C30" s="107">
@@ -7427,7 +7426,7 @@
       <c r="D30" s="164"/>
       <c r="E30" s="165"/>
       <c r="F30" s="160"/>
-      <c r="G30" s="664"/>
+      <c r="G30" s="670"/>
       <c r="H30" s="109"/>
       <c r="I30" s="160"/>
       <c r="J30" s="160"/>
@@ -7435,15 +7434,15 @@
       <c r="L30" s="175"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A31" s="655"/>
-      <c r="B31" s="663"/>
+      <c r="A31" s="669"/>
+      <c r="B31" s="668"/>
       <c r="C31" s="107">
         <v>1</v>
       </c>
       <c r="D31" s="164"/>
       <c r="E31" s="165"/>
       <c r="F31" s="160"/>
-      <c r="G31" s="664"/>
+      <c r="G31" s="670"/>
       <c r="H31" s="109"/>
       <c r="I31" s="160"/>
       <c r="J31" s="160"/>
@@ -7451,50 +7450,50 @@
       <c r="L31" s="175"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A32" s="643" t="s">
+      <c r="A32" s="680" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="642"/>
-      <c r="C32" s="642"/>
-      <c r="D32" s="642"/>
-      <c r="E32" s="642"/>
-      <c r="F32" s="642"/>
-      <c r="G32" s="642"/>
-      <c r="H32" s="642"/>
-      <c r="I32" s="642"/>
-      <c r="J32" s="642"/>
-      <c r="K32" s="642"/>
-      <c r="L32" s="644"/>
+      <c r="B32" s="679"/>
+      <c r="C32" s="679"/>
+      <c r="D32" s="679"/>
+      <c r="E32" s="679"/>
+      <c r="F32" s="679"/>
+      <c r="G32" s="679"/>
+      <c r="H32" s="679"/>
+      <c r="I32" s="679"/>
+      <c r="J32" s="679"/>
+      <c r="K32" s="679"/>
+      <c r="L32" s="681"/>
     </row>
     <row r="33" spans="1:31" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A33" s="642"/>
-      <c r="B33" s="642"/>
-      <c r="C33" s="642"/>
-      <c r="D33" s="642"/>
-      <c r="E33" s="642"/>
-      <c r="F33" s="642"/>
-      <c r="G33" s="642"/>
-      <c r="H33" s="642"/>
-      <c r="I33" s="642"/>
-      <c r="J33" s="642"/>
-      <c r="K33" s="642"/>
-      <c r="L33" s="642"/>
+      <c r="A33" s="679"/>
+      <c r="B33" s="679"/>
+      <c r="C33" s="679"/>
+      <c r="D33" s="679"/>
+      <c r="E33" s="679"/>
+      <c r="F33" s="679"/>
+      <c r="G33" s="679"/>
+      <c r="H33" s="679"/>
+      <c r="I33" s="679"/>
+      <c r="J33" s="679"/>
+      <c r="K33" s="679"/>
+      <c r="L33" s="679"/>
     </row>
     <row r="34" spans="1:31" ht="27" customHeight="1" thickBot="1">
-      <c r="A34" s="645" t="s">
+      <c r="A34" s="682" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="646"/>
-      <c r="C34" s="646"/>
-      <c r="D34" s="646"/>
-      <c r="E34" s="646"/>
-      <c r="F34" s="646"/>
-      <c r="G34" s="646"/>
-      <c r="H34" s="646"/>
-      <c r="I34" s="646"/>
-      <c r="J34" s="646"/>
-      <c r="K34" s="646"/>
-      <c r="L34" s="647"/>
+      <c r="B34" s="683"/>
+      <c r="C34" s="683"/>
+      <c r="D34" s="683"/>
+      <c r="E34" s="683"/>
+      <c r="F34" s="683"/>
+      <c r="G34" s="683"/>
+      <c r="H34" s="683"/>
+      <c r="I34" s="683"/>
+      <c r="J34" s="683"/>
+      <c r="K34" s="683"/>
+      <c r="L34" s="684"/>
     </row>
     <row r="35" spans="1:31" ht="16.5" thickBot="1">
       <c r="A35" s="115"/>
@@ -7535,19 +7534,19 @@
         <v>24</v>
       </c>
       <c r="J36" s="17"/>
-      <c r="K36" s="665" t="s">
+      <c r="K36" s="671" t="s">
         <v>161</v>
       </c>
-      <c r="L36" s="659"/>
-      <c r="M36" s="659"/>
-      <c r="N36" s="659"/>
-      <c r="O36" s="659"/>
-      <c r="P36" s="659"/>
-      <c r="Q36" s="659"/>
-      <c r="R36" s="659"/>
-      <c r="S36" s="659"/>
-      <c r="T36" s="659"/>
-      <c r="U36" s="659"/>
+      <c r="L36" s="664"/>
+      <c r="M36" s="664"/>
+      <c r="N36" s="664"/>
+      <c r="O36" s="664"/>
+      <c r="P36" s="664"/>
+      <c r="Q36" s="664"/>
+      <c r="R36" s="664"/>
+      <c r="S36" s="664"/>
+      <c r="T36" s="664"/>
+      <c r="U36" s="664"/>
       <c r="V36" s="9"/>
       <c r="W36" s="29"/>
       <c r="X36" s="9"/>
@@ -7585,10 +7584,10 @@
       <c r="I37" s="81">
         <v>1</v>
       </c>
-      <c r="J37" s="657" t="s">
+      <c r="J37" s="691" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="665"/>
+      <c r="K37" s="671"/>
       <c r="N37" s="4"/>
       <c r="O37" s="6"/>
       <c r="R37" s="9"/>
@@ -7631,8 +7630,8 @@
       <c r="I38" s="81">
         <v>0</v>
       </c>
-      <c r="J38" s="658"/>
-      <c r="K38" s="665"/>
+      <c r="J38" s="692"/>
+      <c r="K38" s="671"/>
       <c r="N38" s="5"/>
       <c r="O38" s="6"/>
       <c r="R38" s="9"/>
@@ -7674,8 +7673,8 @@
       <c r="I39" s="81">
         <v>1</v>
       </c>
-      <c r="J39" s="658"/>
-      <c r="K39" s="665"/>
+      <c r="J39" s="692"/>
+      <c r="K39" s="671"/>
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
       <c r="R39" s="9"/>
@@ -7717,8 +7716,8 @@
       <c r="I40" s="81">
         <v>0</v>
       </c>
-      <c r="J40" s="658"/>
-      <c r="K40" s="665"/>
+      <c r="J40" s="692"/>
+      <c r="K40" s="671"/>
       <c r="N40" s="5"/>
       <c r="O40" s="6"/>
       <c r="R40" s="9"/>
@@ -7760,8 +7759,8 @@
       <c r="I41" s="81">
         <v>1</v>
       </c>
-      <c r="J41" s="658"/>
-      <c r="K41" s="665"/>
+      <c r="J41" s="692"/>
+      <c r="K41" s="671"/>
       <c r="N41" s="5"/>
       <c r="O41" s="6"/>
       <c r="R41" s="9"/>
@@ -7803,8 +7802,8 @@
       <c r="I42" s="81">
         <v>0</v>
       </c>
-      <c r="J42" s="658"/>
-      <c r="K42" s="665"/>
+      <c r="J42" s="692"/>
+      <c r="K42" s="671"/>
       <c r="N42" s="5"/>
       <c r="O42" s="6"/>
       <c r="R42" s="9"/>
@@ -7846,8 +7845,8 @@
       <c r="I43" s="81">
         <v>1</v>
       </c>
-      <c r="J43" s="658"/>
-      <c r="K43" s="665"/>
+      <c r="J43" s="692"/>
+      <c r="K43" s="671"/>
       <c r="N43" s="5"/>
       <c r="O43" s="6"/>
       <c r="R43" s="9"/>
@@ -7889,8 +7888,8 @@
       <c r="I44" s="81">
         <v>0</v>
       </c>
-      <c r="J44" s="658"/>
-      <c r="K44" s="665"/>
+      <c r="J44" s="692"/>
+      <c r="K44" s="671"/>
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
       <c r="R44" s="9"/>
@@ -7932,8 +7931,8 @@
       <c r="I45" s="81">
         <v>1</v>
       </c>
-      <c r="J45" s="658"/>
-      <c r="K45" s="665"/>
+      <c r="J45" s="692"/>
+      <c r="K45" s="671"/>
       <c r="N45" s="5"/>
       <c r="O45" s="6"/>
       <c r="R45" s="9"/>
@@ -7975,8 +7974,8 @@
       <c r="I46" s="81">
         <v>0</v>
       </c>
-      <c r="J46" s="658"/>
-      <c r="K46" s="665"/>
+      <c r="J46" s="692"/>
+      <c r="K46" s="671"/>
       <c r="N46" s="5"/>
       <c r="O46" s="6"/>
       <c r="R46" s="9"/>
@@ -8018,8 +8017,8 @@
       <c r="I47" s="81">
         <v>1</v>
       </c>
-      <c r="J47" s="658"/>
-      <c r="K47" s="665"/>
+      <c r="J47" s="692"/>
+      <c r="K47" s="671"/>
       <c r="N47" s="5"/>
       <c r="O47" s="6"/>
       <c r="R47" s="9"/>
@@ -8061,8 +8060,8 @@
       <c r="I48" s="81">
         <v>0</v>
       </c>
-      <c r="J48" s="658"/>
-      <c r="K48" s="665"/>
+      <c r="J48" s="692"/>
+      <c r="K48" s="671"/>
       <c r="N48" s="5"/>
       <c r="O48" s="6"/>
       <c r="R48" s="9"/>
@@ -8104,8 +8103,8 @@
       <c r="I49" s="81">
         <v>1</v>
       </c>
-      <c r="J49" s="658"/>
-      <c r="K49" s="665"/>
+      <c r="J49" s="692"/>
+      <c r="K49" s="671"/>
       <c r="N49" s="5"/>
       <c r="O49" s="6"/>
       <c r="X49" s="9"/>
@@ -8137,8 +8136,8 @@
       <c r="I50" s="81">
         <v>0</v>
       </c>
-      <c r="J50" s="658"/>
-      <c r="K50" s="665"/>
+      <c r="J50" s="692"/>
+      <c r="K50" s="671"/>
       <c r="N50" s="5"/>
       <c r="O50" s="6"/>
       <c r="X50" s="9"/>
@@ -8170,8 +8169,8 @@
       <c r="I51" s="81">
         <v>1</v>
       </c>
-      <c r="J51" s="658"/>
-      <c r="K51" s="665"/>
+      <c r="J51" s="692"/>
+      <c r="K51" s="671"/>
       <c r="N51" s="5"/>
       <c r="O51" s="6"/>
       <c r="X51" s="9"/>
@@ -8203,8 +8202,8 @@
       <c r="I52" s="81">
         <v>0</v>
       </c>
-      <c r="J52" s="658"/>
-      <c r="K52" s="665"/>
+      <c r="J52" s="692"/>
+      <c r="K52" s="671"/>
       <c r="N52" s="3"/>
       <c r="O52" s="6"/>
     </row>
@@ -8230,7 +8229,7 @@
         <v>21</v>
       </c>
       <c r="I53" s="128"/>
-      <c r="J53" s="651" t="s">
+      <c r="J53" s="686" t="s">
         <v>177</v>
       </c>
       <c r="K53" s="10"/>
@@ -8294,7 +8293,7 @@
         <v>25</v>
       </c>
       <c r="I54" s="81"/>
-      <c r="J54" s="652"/>
+      <c r="J54" s="687"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8">
         <v>0.5</v>
@@ -8360,7 +8359,7 @@
         <v>45</v>
       </c>
       <c r="I55" s="81"/>
-      <c r="J55" s="652"/>
+      <c r="J55" s="687"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="9"/>
@@ -8424,7 +8423,7 @@
         <v>46</v>
       </c>
       <c r="I56" s="81"/>
-      <c r="J56" s="652"/>
+      <c r="J56" s="687"/>
       <c r="K56" s="9"/>
       <c r="L56" s="10"/>
       <c r="M56" s="9"/>
@@ -8487,7 +8486,7 @@
         <v>47</v>
       </c>
       <c r="I57" s="81"/>
-      <c r="J57" s="652"/>
+      <c r="J57" s="687"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="9"/>
@@ -8550,7 +8549,7 @@
         <v>48</v>
       </c>
       <c r="I58" s="81"/>
-      <c r="J58" s="652"/>
+      <c r="J58" s="687"/>
       <c r="K58" s="10"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -8611,7 +8610,7 @@
         <v>49</v>
       </c>
       <c r="I59" s="81"/>
-      <c r="J59" s="652"/>
+      <c r="J59" s="687"/>
       <c r="K59" s="10"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -8673,7 +8672,7 @@
         <v>50</v>
       </c>
       <c r="I60" s="81"/>
-      <c r="J60" s="652"/>
+      <c r="J60" s="687"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -8734,7 +8733,7 @@
         <v>51</v>
       </c>
       <c r="I61" s="81"/>
-      <c r="J61" s="652"/>
+      <c r="J61" s="687"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -8795,7 +8794,7 @@
         <v>52</v>
       </c>
       <c r="I62" s="81"/>
-      <c r="J62" s="652"/>
+      <c r="J62" s="687"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -8855,7 +8854,7 @@
         <v>53</v>
       </c>
       <c r="I63" s="81"/>
-      <c r="J63" s="652"/>
+      <c r="J63" s="687"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="9"/>
@@ -8914,7 +8913,7 @@
         <v>54</v>
       </c>
       <c r="I64" s="81"/>
-      <c r="J64" s="652"/>
+      <c r="J64" s="687"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -8974,7 +8973,7 @@
         <v>55</v>
       </c>
       <c r="I65" s="81"/>
-      <c r="J65" s="652"/>
+      <c r="J65" s="687"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
@@ -9034,7 +9033,7 @@
         <v>56</v>
       </c>
       <c r="I66" s="81"/>
-      <c r="J66" s="652"/>
+      <c r="J66" s="687"/>
       <c r="K66" s="10"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
@@ -9093,7 +9092,7 @@
         <v>57</v>
       </c>
       <c r="I67" s="81"/>
-      <c r="J67" s="652"/>
+      <c r="J67" s="687"/>
       <c r="K67" s="10"/>
       <c r="L67" s="8"/>
       <c r="M67" s="9"/>
@@ -9152,7 +9151,7 @@
         <v>58</v>
       </c>
       <c r="I68" s="81"/>
-      <c r="J68" s="652"/>
+      <c r="J68" s="687"/>
       <c r="K68" s="9"/>
       <c r="L68" s="8"/>
       <c r="M68" s="9"/>
@@ -9212,7 +9211,7 @@
         <v>59</v>
       </c>
       <c r="I69" s="81"/>
-      <c r="J69" s="652"/>
+      <c r="J69" s="687"/>
       <c r="K69" s="9"/>
       <c r="L69" s="8"/>
       <c r="M69" s="9"/>
@@ -9271,7 +9270,7 @@
         <v>60</v>
       </c>
       <c r="I70" s="81"/>
-      <c r="J70" s="652"/>
+      <c r="J70" s="687"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="9"/>
@@ -10156,24 +10155,24 @@
       <c r="I85" s="23"/>
       <c r="J85" s="7"/>
       <c r="K85" s="9"/>
-      <c r="L85" s="650"/>
-      <c r="M85" s="650"/>
-      <c r="N85" s="650">
-        <v>0</v>
-      </c>
-      <c r="O85" s="650">
-        <v>0</v>
-      </c>
-      <c r="P85" s="650">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="650">
-        <v>0</v>
-      </c>
-      <c r="R85" s="650">
-        <v>0</v>
-      </c>
-      <c r="S85" s="650">
+      <c r="L85" s="685"/>
+      <c r="M85" s="685"/>
+      <c r="N85" s="685">
+        <v>0</v>
+      </c>
+      <c r="O85" s="685">
+        <v>0</v>
+      </c>
+      <c r="P85" s="685">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="685">
+        <v>0</v>
+      </c>
+      <c r="R85" s="685">
+        <v>0</v>
+      </c>
+      <c r="S85" s="685">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -10190,7 +10189,7 @@
       <c r="AF86" s="167"/>
     </row>
     <row r="87" spans="1:32" ht="15.75">
-      <c r="A87" s="654" t="s">
+      <c r="A87" s="689" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="63" t="s">
@@ -10222,7 +10221,7 @@
       <c r="AF87" s="167"/>
     </row>
     <row r="88" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A88" s="655"/>
+      <c r="A88" s="669"/>
       <c r="B88" s="19">
         <v>0</v>
       </c>
@@ -10246,12 +10245,12 @@
         <v>0</v>
       </c>
       <c r="J88" s="58"/>
-      <c r="K88" s="653" t="s">
+      <c r="K88" s="688" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A89" s="655"/>
+      <c r="A89" s="669"/>
       <c r="B89" s="19">
         <v>0</v>
       </c>
@@ -10275,14 +10274,14 @@
         <v>4</v>
       </c>
       <c r="J89" s="13"/>
-      <c r="K89" s="653"/>
+      <c r="K89" s="688"/>
       <c r="L89" s="56"/>
       <c r="N89" s="11"/>
       <c r="O89" s="6"/>
       <c r="S89" s="32"/>
     </row>
     <row r="90" spans="1:32" ht="15.75">
-      <c r="A90" s="655"/>
+      <c r="A90" s="669"/>
       <c r="B90" s="19">
         <v>0</v>
       </c>
@@ -10306,14 +10305,14 @@
         <v>2</v>
       </c>
       <c r="J90" s="13"/>
-      <c r="K90" s="653"/>
+      <c r="K90" s="688"/>
       <c r="L90" s="56"/>
       <c r="N90" s="11"/>
       <c r="O90" s="6"/>
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:32" ht="15.75">
-      <c r="A91" s="655"/>
+      <c r="A91" s="669"/>
       <c r="B91" s="19">
         <v>0</v>
       </c>
@@ -10337,14 +10336,14 @@
         <v>6</v>
       </c>
       <c r="J91" s="13"/>
-      <c r="K91" s="653"/>
+      <c r="K91" s="688"/>
       <c r="L91" s="56"/>
       <c r="N91" s="11"/>
       <c r="O91" s="6"/>
       <c r="S91" s="32"/>
     </row>
     <row r="92" spans="1:32" ht="15.75">
-      <c r="A92" s="655"/>
+      <c r="A92" s="669"/>
       <c r="B92" s="19">
         <v>0</v>
       </c>
@@ -10368,14 +10367,14 @@
         <v>1</v>
       </c>
       <c r="J92" s="13"/>
-      <c r="K92" s="653"/>
+      <c r="K92" s="688"/>
       <c r="L92" s="56"/>
       <c r="N92" s="11"/>
       <c r="O92" s="6"/>
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:32" ht="15.75">
-      <c r="A93" s="655"/>
+      <c r="A93" s="669"/>
       <c r="B93" s="19">
         <v>0</v>
       </c>
@@ -10399,14 +10398,14 @@
         <v>5</v>
       </c>
       <c r="J93" s="13"/>
-      <c r="K93" s="653"/>
+      <c r="K93" s="688"/>
       <c r="L93" s="56"/>
       <c r="N93" s="11"/>
       <c r="O93" s="6"/>
       <c r="S93" s="32"/>
     </row>
     <row r="94" spans="1:32" ht="15.75">
-      <c r="A94" s="655"/>
+      <c r="A94" s="669"/>
       <c r="B94" s="19">
         <v>0</v>
       </c>
@@ -10430,14 +10429,14 @@
         <v>3</v>
       </c>
       <c r="J94" s="13"/>
-      <c r="K94" s="653"/>
+      <c r="K94" s="688"/>
       <c r="L94" s="56"/>
       <c r="N94" s="11"/>
       <c r="O94" s="6"/>
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A95" s="655"/>
+      <c r="A95" s="669"/>
       <c r="B95" s="19">
         <v>0</v>
       </c>
@@ -10461,14 +10460,14 @@
         <v>7</v>
       </c>
       <c r="J95" s="13"/>
-      <c r="K95" s="653"/>
+      <c r="K95" s="688"/>
       <c r="L95" s="56"/>
       <c r="N95" s="11"/>
       <c r="O95" s="6"/>
       <c r="S95" s="32"/>
     </row>
     <row r="96" spans="1:32" ht="15.75">
-      <c r="A96" s="655"/>
+      <c r="A96" s="669"/>
       <c r="B96" s="19">
         <v>1</v>
       </c>
@@ -10494,14 +10493,14 @@
       <c r="J96" s="148">
         <v>13.6</v>
       </c>
-      <c r="K96" s="653"/>
+      <c r="K96" s="688"/>
       <c r="L96" s="56"/>
       <c r="N96" s="11"/>
       <c r="O96" s="6"/>
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="15.75">
-      <c r="A97" s="655"/>
+      <c r="A97" s="669"/>
       <c r="B97" s="19">
         <v>1</v>
       </c>
@@ -10525,14 +10524,14 @@
         <v>4</v>
       </c>
       <c r="J97" s="13"/>
-      <c r="K97" s="653"/>
+      <c r="K97" s="688"/>
       <c r="L97" s="56"/>
       <c r="N97" s="11"/>
       <c r="O97" s="6"/>
       <c r="S97" s="32"/>
     </row>
     <row r="98" spans="1:19" ht="15.75">
-      <c r="A98" s="655"/>
+      <c r="A98" s="669"/>
       <c r="B98" s="19">
         <v>1</v>
       </c>
@@ -10556,14 +10555,14 @@
         <v>2</v>
       </c>
       <c r="J98" s="13"/>
-      <c r="K98" s="653"/>
+      <c r="K98" s="688"/>
       <c r="L98" s="56"/>
       <c r="N98" s="11"/>
       <c r="O98" s="6"/>
       <c r="S98" s="32"/>
     </row>
     <row r="99" spans="1:19" ht="15.75">
-      <c r="A99" s="655"/>
+      <c r="A99" s="669"/>
       <c r="B99" s="19">
         <v>1</v>
       </c>
@@ -10587,14 +10586,14 @@
         <v>6</v>
       </c>
       <c r="J99" s="13"/>
-      <c r="K99" s="653"/>
+      <c r="K99" s="688"/>
       <c r="L99" s="56"/>
       <c r="N99" s="11"/>
       <c r="O99" s="6"/>
       <c r="S99" s="32"/>
     </row>
     <row r="100" spans="1:19" ht="15.75">
-      <c r="A100" s="655"/>
+      <c r="A100" s="669"/>
       <c r="B100" s="19">
         <v>1</v>
       </c>
@@ -10618,14 +10617,14 @@
         <v>1</v>
       </c>
       <c r="J100" s="13"/>
-      <c r="K100" s="653"/>
+      <c r="K100" s="688"/>
       <c r="L100" s="56"/>
       <c r="N100" s="11"/>
       <c r="O100" s="6"/>
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="15.75">
-      <c r="A101" s="655"/>
+      <c r="A101" s="669"/>
       <c r="B101" s="19">
         <v>1</v>
       </c>
@@ -10649,14 +10648,14 @@
         <v>5</v>
       </c>
       <c r="J101" s="13"/>
-      <c r="K101" s="653"/>
+      <c r="K101" s="688"/>
       <c r="L101" s="56"/>
       <c r="N101" s="11"/>
       <c r="O101" s="6"/>
       <c r="S101" s="32"/>
     </row>
     <row r="102" spans="1:19" ht="15.75">
-      <c r="A102" s="655"/>
+      <c r="A102" s="669"/>
       <c r="B102" s="19">
         <v>1</v>
       </c>
@@ -10680,14 +10679,14 @@
         <v>3</v>
       </c>
       <c r="J102" s="13"/>
-      <c r="K102" s="653"/>
+      <c r="K102" s="688"/>
       <c r="L102" s="56"/>
       <c r="N102" s="11"/>
       <c r="O102" s="6"/>
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A103" s="655"/>
+      <c r="A103" s="669"/>
       <c r="B103" s="19">
         <v>1</v>
       </c>
@@ -10711,14 +10710,14 @@
         <v>7</v>
       </c>
       <c r="J103" s="13"/>
-      <c r="K103" s="653"/>
+      <c r="K103" s="688"/>
       <c r="L103" s="56"/>
       <c r="N103" s="11"/>
       <c r="O103" s="6"/>
       <c r="S103" s="32"/>
     </row>
     <row r="104" spans="1:19" ht="15.75">
-      <c r="A104" s="655"/>
+      <c r="A104" s="669"/>
       <c r="B104" s="132" t="s">
         <v>149</v>
       </c>
@@ -10746,7 +10745,7 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="15.75">
-      <c r="A105" s="655"/>
+      <c r="A105" s="669"/>
       <c r="B105" s="19">
         <v>0</v>
       </c>
@@ -10770,7 +10769,7 @@
       <c r="J105" s="146">
         <v>1</v>
       </c>
-      <c r="K105" s="638" t="s">
+      <c r="K105" s="675" t="s">
         <v>159</v>
       </c>
       <c r="L105" s="2" t="s">
@@ -10780,7 +10779,7 @@
       <c r="S105" s="32"/>
     </row>
     <row r="106" spans="1:19" ht="15.75">
-      <c r="A106" s="655"/>
+      <c r="A106" s="669"/>
       <c r="B106" s="19">
         <v>0</v>
       </c>
@@ -10804,7 +10803,7 @@
       <c r="J106" s="146">
         <v>0.99719999999999998</v>
       </c>
-      <c r="K106" s="638"/>
+      <c r="K106" s="675"/>
       <c r="L106" t="s">
         <v>157</v>
       </c>
@@ -10813,7 +10812,7 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="15.75">
-      <c r="A107" s="655"/>
+      <c r="A107" s="669"/>
       <c r="B107" s="19">
         <v>0</v>
       </c>
@@ -10837,14 +10836,14 @@
       <c r="J107" s="146">
         <v>0.99429999999999996</v>
       </c>
-      <c r="K107" s="638"/>
+      <c r="K107" s="675"/>
       <c r="L107" s="12"/>
       <c r="O107" s="6"/>
       <c r="Q107" s="11"/>
       <c r="S107" s="32"/>
     </row>
     <row r="108" spans="1:19" ht="15.75">
-      <c r="A108" s="655"/>
+      <c r="A108" s="669"/>
       <c r="B108" s="19">
         <v>0</v>
       </c>
@@ -10868,14 +10867,14 @@
       <c r="J108" s="3">
         <v>0.99139999999999995</v>
       </c>
-      <c r="K108" s="638"/>
+      <c r="K108" s="675"/>
       <c r="L108" s="12"/>
       <c r="O108" s="6"/>
       <c r="Q108" s="11"/>
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="15.75">
-      <c r="A109" s="655"/>
+      <c r="A109" s="669"/>
       <c r="B109" s="19">
         <v>0</v>
       </c>
@@ -10899,14 +10898,14 @@
       <c r="J109" s="3">
         <v>0.98850000000000005</v>
       </c>
-      <c r="K109" s="638"/>
+      <c r="K109" s="675"/>
       <c r="L109" s="12"/>
       <c r="O109" s="6"/>
       <c r="Q109" s="11"/>
       <c r="S109" s="32"/>
     </row>
     <row r="110" spans="1:19" ht="15.75">
-      <c r="A110" s="655"/>
+      <c r="A110" s="669"/>
       <c r="B110" s="19">
         <v>0</v>
       </c>
@@ -10930,14 +10929,14 @@
       <c r="J110" s="3">
         <v>0.98560000000000003</v>
       </c>
-      <c r="K110" s="638"/>
+      <c r="K110" s="675"/>
       <c r="L110" s="57"/>
       <c r="O110" s="6"/>
       <c r="Q110" s="11"/>
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="15.75">
-      <c r="A111" s="655"/>
+      <c r="A111" s="669"/>
       <c r="B111" s="19">
         <v>0</v>
       </c>
@@ -10961,14 +10960,14 @@
       <c r="J111" s="3">
         <v>0.98260000000000003</v>
       </c>
-      <c r="K111" s="638"/>
+      <c r="K111" s="675"/>
       <c r="L111" s="12"/>
       <c r="O111" s="6"/>
       <c r="Q111" s="11"/>
       <c r="S111" s="32"/>
     </row>
     <row r="112" spans="1:19" ht="15.75">
-      <c r="A112" s="655"/>
+      <c r="A112" s="669"/>
       <c r="B112" s="19">
         <v>0</v>
       </c>
@@ -10992,14 +10991,14 @@
       <c r="J112" s="147">
         <v>0.9798</v>
       </c>
-      <c r="K112" s="638"/>
+      <c r="K112" s="675"/>
       <c r="L112" s="12"/>
       <c r="O112" s="6"/>
       <c r="Q112" s="11"/>
       <c r="S112" s="32"/>
     </row>
     <row r="113" spans="1:19" ht="15.75">
-      <c r="A113" s="655"/>
+      <c r="A113" s="669"/>
       <c r="B113" s="19">
         <v>1</v>
       </c>
@@ -11023,14 +11022,14 @@
       <c r="J113" s="147">
         <v>1.0233000000000001</v>
       </c>
-      <c r="K113" s="638"/>
+      <c r="K113" s="675"/>
       <c r="L113" s="12"/>
       <c r="O113" s="6"/>
       <c r="Q113" s="11"/>
       <c r="S113" s="32"/>
     </row>
     <row r="114" spans="1:19" ht="15.75">
-      <c r="A114" s="655"/>
+      <c r="A114" s="669"/>
       <c r="B114" s="19">
         <v>1</v>
       </c>
@@ -11054,14 +11053,14 @@
       <c r="J114" s="3">
         <v>1.0204</v>
       </c>
-      <c r="K114" s="638"/>
+      <c r="K114" s="675"/>
       <c r="L114" s="12"/>
       <c r="O114" s="6"/>
       <c r="Q114" s="11"/>
       <c r="S114" s="32"/>
     </row>
     <row r="115" spans="1:19" ht="15.75">
-      <c r="A115" s="655"/>
+      <c r="A115" s="669"/>
       <c r="B115" s="19">
         <v>1</v>
       </c>
@@ -11085,14 +11084,14 @@
       <c r="J115" s="3">
         <v>1.0175000000000001</v>
       </c>
-      <c r="K115" s="638"/>
+      <c r="K115" s="675"/>
       <c r="L115" s="12"/>
       <c r="O115" s="6"/>
       <c r="Q115" s="11"/>
       <c r="S115" s="32"/>
     </row>
     <row r="116" spans="1:19" ht="15.75">
-      <c r="A116" s="655"/>
+      <c r="A116" s="669"/>
       <c r="B116" s="19">
         <v>1</v>
       </c>
@@ -11116,14 +11115,14 @@
       <c r="J116" s="3">
         <v>1.0145999999999999</v>
       </c>
-      <c r="K116" s="638"/>
+      <c r="K116" s="675"/>
       <c r="L116" s="57"/>
       <c r="O116" s="6"/>
       <c r="Q116" s="11"/>
       <c r="S116" s="32"/>
     </row>
     <row r="117" spans="1:19" ht="15.75">
-      <c r="A117" s="655"/>
+      <c r="A117" s="669"/>
       <c r="B117" s="19">
         <v>1</v>
       </c>
@@ -11147,14 +11146,14 @@
       <c r="J117" s="3">
         <v>1.0117</v>
       </c>
-      <c r="K117" s="638"/>
+      <c r="K117" s="675"/>
       <c r="L117" s="12"/>
       <c r="O117" s="6"/>
       <c r="Q117" s="11"/>
       <c r="S117" s="32"/>
     </row>
     <row r="118" spans="1:19" ht="15.75">
-      <c r="A118" s="655"/>
+      <c r="A118" s="669"/>
       <c r="B118" s="19">
         <v>1</v>
       </c>
@@ -11178,14 +11177,14 @@
       <c r="J118" s="3">
         <v>1.0087999999999999</v>
       </c>
-      <c r="K118" s="638"/>
+      <c r="K118" s="675"/>
       <c r="L118" s="12"/>
       <c r="O118" s="6"/>
       <c r="Q118" s="11"/>
       <c r="S118" s="32"/>
     </row>
     <row r="119" spans="1:19" ht="15.75">
-      <c r="A119" s="655"/>
+      <c r="A119" s="669"/>
       <c r="B119" s="19">
         <v>1</v>
       </c>
@@ -11209,14 +11208,14 @@
       <c r="J119" s="3">
         <v>1.0059</v>
       </c>
-      <c r="K119" s="638"/>
+      <c r="K119" s="675"/>
       <c r="L119" s="12"/>
       <c r="O119" s="6"/>
       <c r="Q119" s="11"/>
       <c r="S119" s="32"/>
     </row>
     <row r="120" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A120" s="656"/>
+      <c r="A120" s="690"/>
       <c r="B120" s="22">
         <v>1</v>
       </c>
@@ -11240,7 +11239,7 @@
       <c r="J120" s="142">
         <v>1.0029999999999999</v>
       </c>
-      <c r="K120" s="638"/>
+      <c r="K120" s="675"/>
       <c r="L120" s="12"/>
       <c r="O120" s="6"/>
       <c r="Q120" s="11"/>
@@ -11847,25 +11846,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="K36:K52"/>
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="K105:K120"/>
     <mergeCell ref="H6:H9"/>
@@ -11882,6 +11862,25 @@
     <mergeCell ref="K88:K103"/>
     <mergeCell ref="A87:A120"/>
     <mergeCell ref="J37:J52"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="K36:K52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26356,9 +26355,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="9" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH41" sqref="AH41"/>
+      <selection pane="topRight" activeCell="AF52" sqref="AF22:AF52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -26529,14 +26528,17 @@
       <c r="F4" s="306">
         <v>-0.88207547169811318</v>
       </c>
-      <c r="G4" s="304"/>
+      <c r="G4" s="610">
+        <f t="shared" ref="G4:G17" si="0">F4*1.5</f>
+        <v>-1.3231132075471699</v>
+      </c>
       <c r="H4" s="307" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="308">
         <v>1</v>
       </c>
-      <c r="J4" s="657" t="s">
+      <c r="J4" s="691" t="s">
         <v>256</v>
       </c>
       <c r="K4" s="354">
@@ -26550,7 +26552,7 @@
         <v>2.6878000000000002</v>
       </c>
       <c r="O4" s="372">
-        <f t="shared" ref="O4:O17" si="0">(N4-M4)/(N$19-M$19)</f>
+        <f t="shared" ref="O4:O17" si="1">(N4-M4)/(N$19-M$19)</f>
         <v>0.12797936178565428</v>
       </c>
       <c r="P4" s="359">
@@ -26560,7 +26562,7 @@
         <v>2.718</v>
       </c>
       <c r="R4" s="372">
-        <f t="shared" ref="R4:R17" si="1">(Q4-P4)/(Q$19-P$19)</f>
+        <f t="shared" ref="R4:R17" si="2">(Q4-P4)/(Q$19-P$19)</f>
         <v>0.12250905797101455</v>
       </c>
       <c r="S4" s="359">
@@ -26570,7 +26572,7 @@
         <v>2.7366999999999999</v>
       </c>
       <c r="U4" s="372">
-        <f t="shared" ref="U4:U17" si="2">(T4-S4)/(T$19-S$19)</f>
+        <f t="shared" ref="U4:U17" si="3">(T4-S4)/(T$19-S$19)</f>
         <v>0.12281989050064909</v>
       </c>
       <c r="V4" s="359">
@@ -26580,7 +26582,7 @@
         <v>2.7765</v>
       </c>
       <c r="X4" s="372">
-        <f t="shared" ref="X4:X17" si="3">(W4-V4)/(W$19-V$19)</f>
+        <f t="shared" ref="X4:X17" si="4">(W4-V4)/(W$19-V$19)</f>
         <v>0.122814521734481</v>
       </c>
       <c r="Y4" s="359">
@@ -26590,7 +26592,7 @@
         <v>2.673</v>
       </c>
       <c r="AA4" s="372">
-        <f t="shared" ref="AA4:AA17" si="4">(Z4-Y4)/(Z$19-Y$19)</f>
+        <f t="shared" ref="AA4:AA17" si="5">(Z4-Y4)/(Z$19-Y$19)</f>
         <v>0.12297394479172438</v>
       </c>
       <c r="AB4" s="359">
@@ -26600,8 +26602,12 @@
         <v>2.7014</v>
       </c>
       <c r="AD4" s="372">
-        <f t="shared" ref="AD4:AD17" si="5">(AC4-AB4)/(AC$19-AB$19)</f>
+        <f t="shared" ref="AD4:AD17" si="6">(AC4-AB4)/(AC$19-AB$19)</f>
         <v>0.12229214234003469</v>
+      </c>
+      <c r="AF4" s="371">
+        <f>AG4*1.5</f>
+        <v>0.18534722978088949</v>
       </c>
       <c r="AG4" s="370">
         <f>AVERAGE(O4,R4,U4,X4,AA4,AD4)</f>
@@ -26638,14 +26644,17 @@
       <c r="F5" s="306">
         <v>-0.86438679245283012</v>
       </c>
-      <c r="G5" s="304"/>
+      <c r="G5" s="610">
+        <f t="shared" si="0"/>
+        <v>-1.2965801886792452</v>
+      </c>
       <c r="H5" s="307" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="308">
         <v>0</v>
       </c>
-      <c r="J5" s="657"/>
+      <c r="J5" s="691"/>
       <c r="K5" s="354">
         <v>0.02</v>
       </c>
@@ -26657,7 +26666,7 @@
         <v>2.7132999999999998</v>
       </c>
       <c r="O5" s="372">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14115865627278337</v>
       </c>
       <c r="P5" s="359">
@@ -26667,7 +26676,7 @@
         <v>2.7523</v>
       </c>
       <c r="R5" s="372">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14147418478260854</v>
       </c>
       <c r="S5" s="359">
@@ -26677,7 +26686,7 @@
         <v>2.7706</v>
       </c>
       <c r="U5" s="372">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14133318281876162</v>
       </c>
       <c r="V5" s="359">
@@ -26687,7 +26696,7 @@
         <v>2.8121</v>
       </c>
       <c r="X5" s="372">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14142116238036678</v>
       </c>
       <c r="Y5" s="359">
@@ -26697,7 +26706,7 @@
         <v>2.7067999999999999</v>
       </c>
       <c r="AA5" s="372">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14150578082646445</v>
       </c>
       <c r="AB5" s="359">
@@ -26707,11 +26716,15 @@
         <v>2.7364000000000002</v>
       </c>
       <c r="AD5" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14100350838113279</v>
       </c>
+      <c r="AF5" s="371">
+        <f t="shared" ref="AF5:AF19" si="7">AG5*1.5</f>
+        <v>0.21197411886552942</v>
+      </c>
       <c r="AG5" s="370">
-        <f t="shared" ref="AG5:AG18" si="6">AVERAGE(O5,R5,U5,X5,AA5,AD5)</f>
+        <f t="shared" ref="AG5:AG18" si="8">AVERAGE(O5,R5,U5,X5,AA5,AD5)</f>
         <v>0.14131607924368628</v>
       </c>
       <c r="AH5" s="214">
@@ -26721,7 +26734,7 @@
         <v>-0.86438679245283012</v>
       </c>
       <c r="AJ5" s="371">
-        <f t="shared" ref="AJ5:AJ19" si="7">AG5-AI5</f>
+        <f t="shared" ref="AJ5:AJ19" si="9">AG5-AI5</f>
         <v>1.0057028716965164</v>
       </c>
     </row>
@@ -26744,14 +26757,17 @@
       <c r="F6" s="306">
         <v>-0.84433962264150941</v>
       </c>
-      <c r="G6" s="304"/>
+      <c r="G6" s="610">
+        <f t="shared" si="0"/>
+        <v>-1.266509433962264</v>
+      </c>
       <c r="H6" s="307" t="s">
         <v>40</v>
       </c>
       <c r="I6" s="308">
         <v>1</v>
       </c>
-      <c r="J6" s="657"/>
+      <c r="J6" s="691"/>
       <c r="K6" s="354">
         <v>0.03</v>
       </c>
@@ -26763,7 +26779,7 @@
         <v>2.7509999999999999</v>
       </c>
       <c r="O6" s="372">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16263810218159386</v>
       </c>
       <c r="P6" s="359">
@@ -26773,7 +26789,7 @@
         <v>2.7907000000000002</v>
       </c>
       <c r="R6" s="372">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16276041666666669</v>
       </c>
       <c r="S6" s="359">
@@ -26783,7 +26799,7 @@
         <v>2.8089</v>
       </c>
       <c r="U6" s="372">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16261218039171418</v>
       </c>
       <c r="V6" s="359">
@@ -26793,7 +26809,7 @@
         <v>2.8521999999999998</v>
       </c>
       <c r="X6" s="372">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16248730150243282</v>
       </c>
       <c r="Y6" s="359">
@@ -26803,7 +26819,7 @@
         <v>2.7452000000000001</v>
       </c>
       <c r="AA6" s="372">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16241633014327603</v>
       </c>
       <c r="AB6" s="359">
@@ -26813,11 +26829,15 @@
         <v>2.7755999999999998</v>
       </c>
       <c r="AD6" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16277774683967258</v>
       </c>
+      <c r="AF6" s="371">
+        <f t="shared" si="7"/>
+        <v>0.24392301943133909</v>
+      </c>
       <c r="AG6" s="370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16261534628755939</v>
       </c>
       <c r="AH6" s="214">
@@ -26827,7 +26847,7 @@
         <v>-0.84433962264150941</v>
       </c>
       <c r="AJ6" s="371">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0069549689290689</v>
       </c>
     </row>
@@ -26850,14 +26870,17 @@
       <c r="F7" s="306">
         <v>-0.82075471698113212</v>
       </c>
-      <c r="G7" s="304"/>
+      <c r="G7" s="610">
+        <f t="shared" si="0"/>
+        <v>-1.2311320754716981</v>
+      </c>
       <c r="H7" s="307" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="308">
         <v>0</v>
       </c>
-      <c r="J7" s="657"/>
+      <c r="J7" s="691"/>
       <c r="K7" s="354">
         <v>0.04</v>
       </c>
@@ -26869,7 +26892,7 @@
         <v>2.7955000000000001</v>
       </c>
       <c r="O7" s="372">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18725814592563528</v>
       </c>
       <c r="P7" s="359">
@@ -26879,7 +26902,7 @@
         <v>2.8347000000000002</v>
       </c>
       <c r="R7" s="372">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18744338768115948</v>
       </c>
       <c r="S7" s="359">
@@ -26889,7 +26912,7 @@
         <v>2.8530000000000002</v>
       </c>
       <c r="U7" s="372">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18739064175650522</v>
       </c>
       <c r="V7" s="359">
@@ -26899,7 +26922,7 @@
         <v>2.899</v>
       </c>
       <c r="X7" s="372">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18724268833876923</v>
       </c>
       <c r="Y7" s="359">
@@ -26909,7 +26932,7 @@
         <v>2.7913999999999999</v>
       </c>
       <c r="AA7" s="372">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18753111688886429</v>
       </c>
       <c r="AB7" s="359">
@@ -26919,11 +26942,15 @@
         <v>2.82</v>
       </c>
       <c r="AD7" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18716934900038965</v>
       </c>
+      <c r="AF7" s="371">
+        <f t="shared" si="7"/>
+        <v>0.28100883239783075</v>
+      </c>
       <c r="AG7" s="370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.18733922159855385</v>
       </c>
       <c r="AH7" s="214">
@@ -26933,7 +26960,7 @@
         <v>-0.82075471698113212</v>
       </c>
       <c r="AJ7" s="371">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0080939385796859</v>
       </c>
     </row>
@@ -26956,14 +26983,17 @@
       <c r="F8" s="306">
         <v>-0.79363207547169812</v>
       </c>
-      <c r="G8" s="304"/>
+      <c r="G8" s="610">
+        <f t="shared" si="0"/>
+        <v>-1.1904481132075473</v>
+      </c>
       <c r="H8" s="307" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="308">
         <v>1</v>
       </c>
-      <c r="J8" s="657"/>
+      <c r="J8" s="691"/>
       <c r="K8" s="354">
         <v>0.05</v>
       </c>
@@ -26975,7 +27005,7 @@
         <v>2.8447</v>
       </c>
       <c r="O8" s="372">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21485054119230565</v>
       </c>
       <c r="P8" s="359">
@@ -26985,7 +27015,7 @@
         <v>2.8856999999999999</v>
       </c>
       <c r="R8" s="372">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21552309782608692</v>
       </c>
       <c r="S8" s="359">
@@ -26995,7 +27025,7 @@
         <v>2.9032</v>
       </c>
       <c r="U8" s="372">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21516058023367399</v>
       </c>
       <c r="V8" s="359">
@@ -27005,7 +27035,7 @@
         <v>2.9521999999999999</v>
       </c>
       <c r="X8" s="372">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21541998609848678</v>
       </c>
       <c r="Y8" s="359">
@@ -27015,7 +27045,7 @@
         <v>2.8420000000000001</v>
       </c>
       <c r="AA8" s="372">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21568844387896216</v>
       </c>
       <c r="AB8" s="359">
@@ -27025,11 +27055,15 @@
         <v>2.8702999999999999</v>
       </c>
       <c r="AD8" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.21484657793618075</v>
       </c>
+      <c r="AF8" s="371">
+        <f t="shared" si="7"/>
+        <v>0.32287230679142409</v>
+      </c>
       <c r="AG8" s="370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21524820452761606</v>
       </c>
       <c r="AH8" s="214">
@@ -27039,7 +27073,7 @@
         <v>-0.79363207547169812</v>
       </c>
       <c r="AJ8" s="371">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0088802799993142</v>
       </c>
     </row>
@@ -27062,14 +27096,17 @@
       <c r="F9" s="306">
         <v>-0.7617924528301887</v>
       </c>
-      <c r="G9" s="304"/>
+      <c r="G9" s="610">
+        <f t="shared" si="0"/>
+        <v>-1.1426886792452831</v>
+      </c>
       <c r="H9" s="307" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="308">
         <v>0</v>
       </c>
-      <c r="J9" s="657"/>
+      <c r="J9" s="691"/>
       <c r="K9" s="354">
         <v>0.06</v>
       </c>
@@ -27081,7 +27118,7 @@
         <v>2.9034</v>
       </c>
       <c r="O9" s="372">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2474903258370254</v>
       </c>
       <c r="P9" s="359">
@@ -27091,7 +27128,7 @@
         <v>2.944</v>
       </c>
       <c r="R9" s="372">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24807518115942032</v>
       </c>
       <c r="S9" s="359">
@@ -27101,7 +27138,7 @@
         <v>2.9609999999999999</v>
       </c>
       <c r="U9" s="372">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24744595586160167</v>
       </c>
       <c r="V9" s="359">
@@ -27111,7 +27148,7 @@
         <v>3.0129999999999999</v>
       </c>
       <c r="X9" s="372">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24755386836336424</v>
       </c>
       <c r="Y9" s="359">
@@ -27121,7 +27158,7 @@
         <v>2.899</v>
       </c>
       <c r="AA9" s="372">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2471095867677158</v>
       </c>
       <c r="AB9" s="359">
@@ -27131,11 +27168,15 @@
         <v>2.9283000000000001</v>
       </c>
       <c r="AD9" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.24692320543520638</v>
       </c>
+      <c r="AF9" s="371">
+        <f t="shared" si="7"/>
+        <v>0.37114953085608349</v>
+      </c>
       <c r="AG9" s="370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.24743302057072233</v>
       </c>
       <c r="AH9" s="214">
@@ -27145,7 +27186,7 @@
         <v>-0.7617924528301887</v>
       </c>
       <c r="AJ9" s="371">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.009225473400911</v>
       </c>
     </row>
@@ -27168,14 +27209,17 @@
       <c r="F10" s="306">
         <v>-0.72641509433962259</v>
       </c>
-      <c r="G10" s="304"/>
+      <c r="G10" s="610">
+        <f t="shared" si="0"/>
+        <v>-1.0896226415094339</v>
+      </c>
       <c r="H10" s="307" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="308">
         <v>1</v>
       </c>
-      <c r="J10" s="657"/>
+      <c r="J10" s="691"/>
       <c r="K10" s="354">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -27187,7 +27231,7 @@
         <v>2.9695</v>
       </c>
       <c r="O10" s="372">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28428018619258588</v>
       </c>
       <c r="P10" s="359">
@@ -27197,7 +27241,7 @@
         <v>3.01</v>
       </c>
       <c r="R10" s="372">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28470335144927522</v>
       </c>
       <c r="S10" s="359">
@@ -27207,7 +27251,7 @@
         <v>3.0257999999999998</v>
       </c>
       <c r="U10" s="372">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28413388271151979</v>
       </c>
       <c r="V10" s="359">
@@ -27217,7 +27261,7 @@
         <v>3.0819999999999999</v>
       </c>
       <c r="X10" s="372">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28444634550606857</v>
       </c>
       <c r="Y10" s="359">
@@ -27227,7 +27271,7 @@
         <v>2.9903</v>
       </c>
       <c r="AA10" s="372">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.29717320351828286</v>
       </c>
       <c r="AB10" s="359">
@@ -27237,11 +27281,15 @@
         <v>2.9950000000000001</v>
       </c>
       <c r="AD10" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28384474021273048</v>
       </c>
+      <c r="AF10" s="371">
+        <f t="shared" si="7"/>
+        <v>0.42964542739761569</v>
+      </c>
       <c r="AG10" s="370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.28643028493174377</v>
       </c>
       <c r="AH10" s="214">
@@ -27251,7 +27299,7 @@
         <v>-0.72641509433962259</v>
       </c>
       <c r="AJ10" s="371">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0128453792713663</v>
       </c>
     </row>
@@ -27274,14 +27322,17 @@
       <c r="F11" s="612">
         <v>-0.68549528301886797</v>
       </c>
-      <c r="G11" s="610"/>
+      <c r="G11" s="610">
+        <f t="shared" si="0"/>
+        <v>-1.028242924528302</v>
+      </c>
       <c r="H11" s="613" t="s">
         <v>42</v>
       </c>
       <c r="I11" s="614">
         <v>0</v>
       </c>
-      <c r="J11" s="657"/>
+      <c r="J11" s="691"/>
       <c r="K11" s="354">
         <v>0.08</v>
       </c>
@@ -27293,7 +27344,7 @@
         <v>3.0466000000000002</v>
       </c>
       <c r="O11" s="618">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32740732432280861</v>
       </c>
       <c r="P11" s="616">
@@ -27303,7 +27354,7 @@
         <v>3.0872000000000002</v>
       </c>
       <c r="R11" s="618">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32795516304347838</v>
       </c>
       <c r="S11" s="616">
@@ -27313,7 +27364,7 @@
         <v>3.1019999999999999</v>
       </c>
       <c r="U11" s="618">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32708697860811642</v>
       </c>
       <c r="V11" s="616">
@@ -27323,7 +27374,7 @@
         <v>3.1623000000000001</v>
       </c>
       <c r="X11" s="618">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.32738063412286816</v>
       </c>
       <c r="Y11" s="616">
@@ -27333,7 +27384,7 @@
         <v>3.0459999999999998</v>
       </c>
       <c r="AA11" s="618">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32781988161752501</v>
       </c>
       <c r="AB11" s="616">
@@ -27343,12 +27394,15 @@
         <v>3.0716000000000001</v>
       </c>
       <c r="AD11" s="618">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3269477084145459</v>
       </c>
-      <c r="AF11" s="620"/>
+      <c r="AF11" s="371">
+        <f t="shared" si="7"/>
+        <v>0.49114942253233562</v>
+      </c>
       <c r="AG11" s="618">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.3274329483548904</v>
       </c>
       <c r="AH11" s="214">
@@ -27358,7 +27412,7 @@
         <v>-0.68549528301886797</v>
       </c>
       <c r="AJ11" s="620">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0129282313737584</v>
       </c>
     </row>
@@ -27381,14 +27435,17 @@
       <c r="F12" s="306">
         <v>-0.63844339622641511</v>
       </c>
-      <c r="G12" s="121"/>
+      <c r="G12" s="610">
+        <f t="shared" si="0"/>
+        <v>-0.95766509433962266</v>
+      </c>
       <c r="H12" s="307" t="s">
         <v>43</v>
       </c>
       <c r="I12" s="308">
         <v>1</v>
       </c>
-      <c r="J12" s="657"/>
+      <c r="J12" s="691"/>
       <c r="K12" s="354">
         <v>0.09</v>
       </c>
@@ -27400,7 +27457,7 @@
         <v>3.1313</v>
       </c>
       <c r="O12" s="372">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37642308339408881</v>
       </c>
       <c r="P12" s="359">
@@ -27410,7 +27467,7 @@
         <v>3.1734</v>
       </c>
       <c r="R12" s="372">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37839673913043476</v>
       </c>
       <c r="S12" s="359">
@@ -27420,7 +27477,7 @@
         <v>3.1896</v>
       </c>
       <c r="U12" s="372">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37794208951854147</v>
       </c>
       <c r="V12" s="359">
@@ -27430,7 +27487,7 @@
         <v>3.2551000000000001</v>
       </c>
       <c r="X12" s="372">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37801422231727549</v>
       </c>
       <c r="Y12" s="359">
@@ -27440,7 +27497,7 @@
         <v>3.1334</v>
       </c>
       <c r="AA12" s="372">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37755158488687285</v>
       </c>
       <c r="AB12" s="359">
@@ -27450,11 +27507,15 @@
         <v>3.1595</v>
       </c>
       <c r="AD12" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3772345046499973</v>
       </c>
+      <c r="AF12" s="371">
+        <f t="shared" si="7"/>
+        <v>0.56639055597430266</v>
+      </c>
       <c r="AG12" s="370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37759370398286846</v>
       </c>
       <c r="AH12" s="214">
@@ -27464,7 +27525,7 @@
         <v>-0.63844339622641511</v>
       </c>
       <c r="AJ12" s="371">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0160371002092836</v>
       </c>
     </row>
@@ -27487,14 +27548,17 @@
       <c r="F13" s="306">
         <v>-0.58372641509433976</v>
       </c>
-      <c r="G13" s="304"/>
+      <c r="G13" s="610">
+        <f t="shared" si="0"/>
+        <v>-0.87558962264150964</v>
+      </c>
       <c r="H13" s="307" t="s">
         <v>43</v>
       </c>
       <c r="I13" s="308">
         <v>0</v>
       </c>
-      <c r="J13" s="657"/>
+      <c r="J13" s="691"/>
       <c r="K13" s="354">
         <v>0.1</v>
       </c>
@@ -27506,7 +27570,7 @@
         <v>3.2363</v>
       </c>
       <c r="O13" s="372">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43514104649206437</v>
       </c>
       <c r="P13" s="359">
@@ -27516,7 +27580,7 @@
         <v>3.2744</v>
       </c>
       <c r="R13" s="372">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43540534420289839</v>
       </c>
       <c r="S13" s="359">
@@ -27526,7 +27590,7 @@
         <v>3.2924000000000002</v>
       </c>
       <c r="U13" s="372">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43551391319072091</v>
       </c>
       <c r="V13" s="359">
@@ -27536,7 +27600,7 @@
         <v>3.363</v>
       </c>
       <c r="X13" s="372">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43559856707480099</v>
       </c>
       <c r="Y13" s="359">
@@ -27546,7 +27610,7 @@
         <v>3.2360000000000002</v>
       </c>
       <c r="AA13" s="372">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43441942800243422</v>
       </c>
       <c r="AB13" s="359">
@@ -27556,11 +27620,15 @@
         <v>3.262</v>
       </c>
       <c r="AD13" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43453806315086047</v>
       </c>
+      <c r="AF13" s="371">
+        <f t="shared" si="7"/>
+        <v>0.65265409052844481</v>
+      </c>
       <c r="AG13" s="370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.43510272701896319</v>
       </c>
       <c r="AH13" s="214">
@@ -27570,7 +27638,7 @@
         <v>-0.58372641509433976</v>
       </c>
       <c r="AJ13" s="371">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0188291421133029</v>
       </c>
     </row>
@@ -27593,14 +27661,17 @@
       <c r="F14" s="306">
         <v>-0.52122641509433965</v>
       </c>
-      <c r="G14" s="304"/>
+      <c r="G14" s="610">
+        <f t="shared" si="0"/>
+        <v>-0.78183962264150941</v>
+      </c>
       <c r="H14" s="307" t="s">
         <v>44</v>
       </c>
       <c r="I14" s="308">
         <v>1</v>
       </c>
-      <c r="J14" s="657"/>
+      <c r="J14" s="691"/>
       <c r="K14" s="354">
         <v>0.11</v>
       </c>
@@ -27612,7 +27683,7 @@
         <v>3.3519999999999999</v>
       </c>
       <c r="O14" s="372">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.50036453367730349</v>
       </c>
       <c r="P14" s="359">
@@ -27622,7 +27693,7 @@
         <v>3.3913000000000002</v>
       </c>
       <c r="R14" s="372">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50016983695652173</v>
       </c>
       <c r="S14" s="359">
@@ -27632,7 +27703,7 @@
         <v>3.407</v>
       </c>
       <c r="U14" s="372">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49997177851780783</v>
       </c>
       <c r="V14" s="359">
@@ -27642,7 +27713,7 @@
         <v>3.4834000000000001</v>
       </c>
       <c r="X14" s="372">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49986633160455535</v>
       </c>
       <c r="Y14" s="359">
@@ -27652,7 +27723,7 @@
         <v>3.3530000000000002</v>
       </c>
       <c r="AA14" s="372">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.49908723792664716</v>
       </c>
       <c r="AB14" s="359">
@@ -27662,11 +27733,15 @@
         <v>3.3763000000000001</v>
       </c>
       <c r="AD14" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49846856379127941</v>
       </c>
+      <c r="AF14" s="371">
+        <f t="shared" si="7"/>
+        <v>0.74948207061852867</v>
+      </c>
       <c r="AG14" s="370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.49965471374568576</v>
       </c>
       <c r="AH14" s="214">
@@ -27676,7 +27751,7 @@
         <v>-0.52122641509433965</v>
       </c>
       <c r="AJ14" s="371">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0208811288400255</v>
       </c>
     </row>
@@ -27699,14 +27774,17 @@
       <c r="F15" s="612">
         <v>-0.44811320754716988</v>
       </c>
-      <c r="G15" s="610"/>
+      <c r="G15" s="610">
+        <f t="shared" si="0"/>
+        <v>-0.67216981132075482</v>
+      </c>
       <c r="H15" s="613" t="s">
         <v>44</v>
       </c>
       <c r="I15" s="614">
         <v>0</v>
       </c>
-      <c r="J15" s="657"/>
+      <c r="J15" s="691"/>
       <c r="K15" s="354">
         <v>0.12</v>
       </c>
@@ -27718,7 +27796,7 @@
         <v>3.4889999999999999</v>
       </c>
       <c r="O15" s="618">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57708485222365535</v>
       </c>
       <c r="P15" s="616">
@@ -27728,7 +27806,7 @@
         <v>3.5259999999999998</v>
       </c>
       <c r="R15" s="618">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57631340579710122</v>
       </c>
       <c r="S15" s="616">
@@ -27738,7 +27816,7 @@
         <v>3.5394999999999999</v>
       </c>
       <c r="U15" s="618">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57487159225602524</v>
       </c>
       <c r="V15" s="616">
@@ -27748,7 +27826,7 @@
         <v>3.6263000000000001</v>
       </c>
       <c r="X15" s="618">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57627118644067798</v>
       </c>
       <c r="Y15" s="616">
@@ -27758,7 +27836,7 @@
         <v>3.49</v>
       </c>
       <c r="AA15" s="618">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57498478729877744</v>
       </c>
       <c r="AB15" s="616">
@@ -27768,12 +27846,15 @@
         <v>3.512</v>
       </c>
       <c r="AD15" s="618">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57420504538620043</v>
       </c>
-      <c r="AF15" s="620"/>
+      <c r="AF15" s="371">
+        <f t="shared" si="7"/>
+        <v>0.86343271735060934</v>
+      </c>
       <c r="AG15" s="618">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.57562181156707293</v>
       </c>
       <c r="AH15" s="214">
@@ -27783,7 +27864,7 @@
         <v>-0.44811320754716988</v>
       </c>
       <c r="AJ15" s="620">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0237350191142429</v>
       </c>
     </row>
@@ -27806,14 +27887,17 @@
       <c r="F16" s="306">
         <v>-0.3632075471698113</v>
       </c>
-      <c r="G16" s="304"/>
+      <c r="G16" s="610">
+        <f t="shared" si="0"/>
+        <v>-0.54481132075471694</v>
+      </c>
       <c r="H16" s="307" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="308">
         <v>1</v>
       </c>
-      <c r="J16" s="657"/>
+      <c r="J16" s="691"/>
       <c r="K16" s="354">
         <v>0.13</v>
       </c>
@@ -27825,7 +27909,7 @@
         <v>3.6419999999999999</v>
       </c>
       <c r="O16" s="372">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66322696427569949</v>
       </c>
       <c r="P16" s="359">
@@ -27835,7 +27919,7 @@
         <v>3.68</v>
       </c>
       <c r="R16" s="372">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66372282608695643</v>
       </c>
       <c r="S16" s="359">
@@ -27845,7 +27929,7 @@
         <v>3.6915</v>
       </c>
       <c r="U16" s="372">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66077778404921828</v>
       </c>
       <c r="V16" s="359">
@@ -27855,7 +27939,7 @@
         <v>3.7869999999999999</v>
       </c>
       <c r="X16" s="372">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66213976367427685</v>
       </c>
       <c r="Y16" s="5">
@@ -27865,7 +27949,7 @@
         <v>3.6463000000000001</v>
       </c>
       <c r="AA16" s="372">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66122697350224036</v>
       </c>
       <c r="AB16" s="359">
@@ -27875,12 +27959,16 @@
         <v>3.6663999999999999</v>
       </c>
       <c r="AD16" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.66018822743219918</v>
       </c>
       <c r="AE16" s="5"/>
+      <c r="AF16" s="371">
+        <f t="shared" si="7"/>
+        <v>0.99282063475514759</v>
+      </c>
       <c r="AG16" s="370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.66188042317009843</v>
       </c>
       <c r="AH16" s="214">
@@ -27890,7 +27978,7 @@
         <v>-0.3632075471698113</v>
       </c>
       <c r="AJ16" s="371">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0250879703399098</v>
       </c>
     </row>
@@ -27913,14 +28001,17 @@
       <c r="F17" s="612">
         <v>-0.26297169811320759</v>
       </c>
-      <c r="G17" s="610"/>
+      <c r="G17" s="610">
+        <f t="shared" si="0"/>
+        <v>-0.39445754716981141</v>
+      </c>
       <c r="H17" s="613" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="614">
         <v>0</v>
       </c>
-      <c r="J17" s="657"/>
+      <c r="J17" s="691"/>
       <c r="K17" s="354">
         <v>0.14000000000000001</v>
       </c>
@@ -27932,7 +28023,7 @@
         <v>3.8136000000000001</v>
       </c>
       <c r="O17" s="618">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75951993718804345</v>
       </c>
       <c r="P17" s="616">
@@ -27942,7 +28033,7 @@
         <v>3.8540000000000001</v>
       </c>
       <c r="R17" s="618">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76143568840579701</v>
       </c>
       <c r="S17" s="616">
@@ -27952,7 +28043,7 @@
         <v>3.8675999999999999</v>
       </c>
       <c r="U17" s="618">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76017384433030422</v>
       </c>
       <c r="V17" s="616">
@@ -27962,7 +28053,7 @@
         <v>3.9712000000000001</v>
       </c>
       <c r="X17" s="618">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.76057317007966641</v>
       </c>
       <c r="Y17" s="611">
@@ -27972,7 +28063,7 @@
         <v>3.8233999999999999</v>
       </c>
       <c r="AA17" s="618">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75919676937544933</v>
       </c>
       <c r="AB17" s="616">
@@ -27982,12 +28073,15 @@
         <v>3.8437000000000001</v>
       </c>
       <c r="AD17" s="618">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75909116222086126</v>
       </c>
-      <c r="AF17" s="620"/>
+      <c r="AF17" s="371">
+        <f t="shared" si="7"/>
+        <v>1.1399976429000305</v>
+      </c>
       <c r="AG17" s="618">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.75999842860002031</v>
       </c>
       <c r="AH17" s="214">
@@ -27997,7 +28091,7 @@
         <v>-0.26297169811320759</v>
       </c>
       <c r="AJ17" s="620">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0229701267132278</v>
       </c>
     </row>
@@ -28020,14 +28114,17 @@
       <c r="F18" s="612">
         <v>-0.14268867924528311</v>
       </c>
-      <c r="G18" s="610"/>
+      <c r="G18" s="610">
+        <f>F18*1.5</f>
+        <v>-0.21403301886792467</v>
+      </c>
       <c r="H18" s="613" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="614">
         <v>1</v>
       </c>
-      <c r="J18" s="657"/>
+      <c r="J18" s="691"/>
       <c r="K18" s="354">
         <v>0.15</v>
       </c>
@@ -28092,9 +28189,12 @@
         <f>(AC18-AB18)/(AC$19-AB$19)</f>
         <v>0.87475636242134014</v>
       </c>
-      <c r="AF18" s="620"/>
+      <c r="AF18" s="371">
+        <f t="shared" si="7"/>
+        <v>1.3130695491307596</v>
+      </c>
       <c r="AG18" s="618">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.87537969942050642</v>
       </c>
       <c r="AH18" s="214">
@@ -28104,7 +28204,7 @@
         <v>-0.14268867924528311</v>
       </c>
       <c r="AJ18" s="620">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0180683786657896</v>
       </c>
     </row>
@@ -28134,7 +28234,7 @@
       <c r="I19" s="308">
         <v>0</v>
       </c>
-      <c r="J19" s="657"/>
+      <c r="J19" s="691"/>
       <c r="K19" s="354">
         <v>0.16</v>
       </c>
@@ -28209,7 +28309,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="371">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -28452,9 +28552,9 @@
         <f>(AC22-AB22)/(AC$21-AB$21)</f>
         <v>0.99444598722577071</v>
       </c>
-      <c r="AF22" s="620"/>
+      <c r="AF22" s="371"/>
       <c r="AG22" s="618">
-        <f t="shared" ref="AG22:AG52" si="8">AVERAGE(O22,R22,U22,X22,AA22,AD22)</f>
+        <f t="shared" ref="AG22:AG52" si="10">AVERAGE(O22,R22,U22,X22,AA22,AD22)</f>
         <v>0.99510669756161574</v>
       </c>
       <c r="AH22" s="619">
@@ -28464,7 +28564,7 @@
         <v>-4.5200172191132591E-3</v>
       </c>
       <c r="AJ22" s="620">
-        <f t="shared" ref="AJ22:AJ52" si="9">AG22-AI22</f>
+        <f t="shared" ref="AJ22:AJ52" si="11">AG22-AI22</f>
         <v>0.99962671478072895</v>
       </c>
     </row>
@@ -28502,7 +28602,7 @@
         <v>4.2279999999999998</v>
       </c>
       <c r="O23" s="618">
-        <f t="shared" ref="O23:O52" si="10">(N23-M23)/(N$21-M$21)</f>
+        <f t="shared" ref="O23:O52" si="12">(N23-M23)/(N$21-M$21)</f>
         <v>0.98992556109027829</v>
       </c>
       <c r="P23" s="616">
@@ -28512,7 +28612,7 @@
         <v>4.26</v>
       </c>
       <c r="R23" s="618">
-        <f t="shared" ref="R23:R52" si="11">(Q23-P23)/(Q$21-P$21)</f>
+        <f t="shared" ref="R23:R52" si="13">(Q23-P23)/(Q$21-P$21)</f>
         <v>0.99139444035554514</v>
       </c>
       <c r="S23" s="616">
@@ -28522,7 +28622,7 @@
         <v>4.2785000000000002</v>
       </c>
       <c r="U23" s="618">
-        <f t="shared" ref="U23:U52" si="12">(T23-S23)/(T$21-S$21)</f>
+        <f t="shared" ref="U23:U52" si="14">(T23-S23)/(T$21-S$21)</f>
         <v>0.99209530800067769</v>
       </c>
       <c r="V23" s="616">
@@ -28532,7 +28632,7 @@
         <v>4.4039999999999999</v>
       </c>
       <c r="X23" s="618">
-        <f t="shared" ref="X23:X52" si="13">(W23-V23)/(W$21-V$21)</f>
+        <f t="shared" ref="X23:X52" si="15">(W23-V23)/(W$21-V$21)</f>
         <v>0.99133875106929004</v>
       </c>
       <c r="Y23" s="616">
@@ -28542,7 +28642,7 @@
         <v>4.2396000000000003</v>
       </c>
       <c r="AA23" s="618">
-        <f t="shared" ref="AA23:AA52" si="14">(Z23-Y23)/(Z$21-Y$21)</f>
+        <f t="shared" ref="AA23:AA52" si="16">(Z23-Y23)/(Z$21-Y$21)</f>
         <v>0.99108724534986725</v>
       </c>
       <c r="AB23" s="616">
@@ -28552,12 +28652,12 @@
         <v>4.2619999999999996</v>
       </c>
       <c r="AD23" s="618">
-        <f t="shared" ref="AD23:AD52" si="15">(AC23-AB23)/(AC$21-AB$21)</f>
+        <f t="shared" ref="AD23:AD52" si="17">(AC23-AB23)/(AC$21-AB$21)</f>
         <v>0.98961399611219081</v>
       </c>
-      <c r="AF23" s="620"/>
+      <c r="AF23" s="371"/>
       <c r="AG23" s="618">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.9909092169963083</v>
       </c>
       <c r="AH23" s="5">
@@ -28567,7 +28667,7 @@
         <v>-9.0041612856938298E-3</v>
       </c>
       <c r="AJ23" s="620">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99991337828200211</v>
       </c>
     </row>
@@ -28605,7 +28705,7 @@
         <v>4.2220000000000004</v>
       </c>
       <c r="O24" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.98634353836682176</v>
       </c>
       <c r="P24" s="359">
@@ -28615,7 +28715,7 @@
         <v>4.2519999999999998</v>
       </c>
       <c r="R24" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.98703504500934136</v>
       </c>
       <c r="S24" s="359">
@@ -28625,7 +28725,7 @@
         <v>4.2706</v>
       </c>
       <c r="U24" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.98718310654395547</v>
       </c>
       <c r="V24" s="359">
@@ -28635,7 +28735,7 @@
         <v>4.3959999999999999</v>
       </c>
       <c r="X24" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.98711505560307944</v>
       </c>
       <c r="Y24" s="359">
@@ -28645,7 +28745,7 @@
         <v>4.2310999999999996</v>
       </c>
       <c r="AA24" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.98638175376439308</v>
       </c>
       <c r="AB24" s="359">
@@ -28655,11 +28755,11 @@
         <v>4.2526999999999999</v>
       </c>
       <c r="AD24" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.98455984448764233</v>
       </c>
       <c r="AG24" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.98643639062920563</v>
       </c>
       <c r="AH24" s="619">
@@ -28669,7 +28769,7 @@
         <v>-1.3488305352274401E-2</v>
       </c>
       <c r="AJ24" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99992469598148004</v>
       </c>
     </row>
@@ -28707,7 +28807,7 @@
         <v>4.2126000000000001</v>
       </c>
       <c r="O25" s="618">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.98119438070185294</v>
       </c>
       <c r="P25" s="616">
@@ -28717,7 +28817,7 @@
         <v>4.2439999999999998</v>
       </c>
       <c r="R25" s="618">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.98244918756723065</v>
       </c>
       <c r="S25" s="616">
@@ -28727,7 +28827,7 @@
         <v>4.2625000000000002</v>
       </c>
       <c r="U25" s="618">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.98306137428716633</v>
       </c>
       <c r="V25" s="616">
@@ -28737,7 +28837,7 @@
         <v>4.3890000000000002</v>
       </c>
       <c r="X25" s="618">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.98321214713430305</v>
       </c>
       <c r="Y25" s="616">
@@ -28747,7 +28847,7 @@
         <v>4.2225000000000001</v>
       </c>
       <c r="AA25" s="618">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.98162090345438446</v>
       </c>
       <c r="AB25" s="616">
@@ -28757,12 +28857,12 @@
         <v>4.2443999999999997</v>
       </c>
       <c r="AD25" s="618">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.97995001388503178</v>
       </c>
-      <c r="AF25" s="620"/>
+      <c r="AF25" s="371"/>
       <c r="AG25" s="618">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.98191466783832804</v>
       </c>
       <c r="AH25" s="5">
@@ -28772,7 +28872,7 @@
         <v>-1.7972449418854973E-2</v>
       </c>
       <c r="AJ25" s="620">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99988711725718304</v>
       </c>
     </row>
@@ -28810,7 +28910,7 @@
         <v>4.2054999999999998</v>
       </c>
       <c r="O26" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.97638103766720785</v>
       </c>
       <c r="P26" s="359">
@@ -28820,7 +28920,7 @@
         <v>4.2370000000000001</v>
       </c>
       <c r="R26" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.97837286984091021</v>
       </c>
       <c r="S26" s="359">
@@ -28830,7 +28930,7 @@
         <v>4.2549999999999999</v>
       </c>
       <c r="U26" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.97877025577324805</v>
       </c>
       <c r="V26" s="359">
@@ -28840,7 +28940,7 @@
         <v>4.3781999999999996</v>
       </c>
       <c r="X26" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.97743798118049607</v>
       </c>
       <c r="Y26" s="359">
@@ -28850,7 +28950,7 @@
         <v>4.2145000000000001</v>
       </c>
       <c r="AA26" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.97719220549158547</v>
       </c>
       <c r="AB26" s="359">
@@ -28860,11 +28960,11 @@
         <v>4.2362000000000002</v>
       </c>
       <c r="AD26" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.97539572341016401</v>
       </c>
       <c r="AG26" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.97725834556060198</v>
       </c>
       <c r="AH26" s="619">
@@ -28874,7 +28974,7 @@
         <v>-2.2456593485435671E-2</v>
       </c>
       <c r="AJ26" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.9997149390460377</v>
       </c>
     </row>
@@ -28912,7 +29012,7 @@
         <v>4.1959999999999997</v>
       </c>
       <c r="O27" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.97167963284267078</v>
       </c>
       <c r="P27" s="359">
@@ -28922,7 +29022,7 @@
         <v>4.2220000000000004</v>
       </c>
       <c r="R27" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.97095623619996607</v>
       </c>
       <c r="S27" s="359">
@@ -28932,7 +29032,7 @@
         <v>4.2460000000000004</v>
       </c>
       <c r="U27" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.97385805431652672</v>
       </c>
       <c r="V27" s="359">
@@ -28942,7 +29042,7 @@
         <v>4.37</v>
       </c>
       <c r="X27" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.97305389221556893</v>
       </c>
       <c r="Y27" s="359">
@@ -28952,7 +29052,7 @@
         <v>4.2076000000000002</v>
       </c>
       <c r="AA27" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.97309565987599644</v>
       </c>
       <c r="AB27" s="359">
@@ -28962,11 +29062,11 @@
         <v>4.2279</v>
       </c>
       <c r="AD27" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.97078589280755345</v>
       </c>
       <c r="AG27" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.97223822804304705</v>
       </c>
       <c r="AH27" s="5">
@@ -28976,7 +29076,7 @@
         <v>-2.6940737552016113E-2</v>
       </c>
       <c r="AJ27" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99917896559506314</v>
       </c>
     </row>
@@ -29014,7 +29114,7 @@
         <v>4.1879999999999997</v>
       </c>
       <c r="O28" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.96725807354340398</v>
       </c>
       <c r="P28" s="359">
@@ -29024,7 +29124,7 @@
         <v>4.2161999999999997</v>
       </c>
       <c r="R28" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.9673328426654586</v>
       </c>
       <c r="S28" s="359">
@@ -29034,7 +29134,7 @@
         <v>4.2375999999999996</v>
       </c>
       <c r="U28" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.96905877703122323</v>
       </c>
       <c r="V28" s="359">
@@ -29044,7 +29144,7 @@
         <v>4.3620000000000001</v>
       </c>
       <c r="X28" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.96893712574850299</v>
       </c>
       <c r="Y28" s="359">
@@ -29054,7 +29154,7 @@
         <v>4.1999000000000004</v>
       </c>
       <c r="AA28" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.96883303808680254</v>
       </c>
       <c r="AB28" s="359">
@@ -29064,11 +29164,11 @@
         <v>4.2198000000000002</v>
       </c>
       <c r="AD28" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.96617606220494323</v>
       </c>
       <c r="AG28" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.96793265321338906</v>
       </c>
       <c r="AH28" s="619">
@@ -29078,7 +29178,7 @@
         <v>-3.1424881618596683E-2</v>
       </c>
       <c r="AJ28" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99935753483198575</v>
       </c>
     </row>
@@ -29116,7 +29216,7 @@
         <v>4.1797000000000004</v>
       </c>
       <c r="O29" s="618">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.96222085408854341</v>
       </c>
       <c r="P29" s="616">
@@ -29126,7 +29226,7 @@
         <v>4.2089999999999996</v>
       </c>
       <c r="R29" s="618">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.96314329389118458</v>
       </c>
       <c r="S29" s="616">
@@ -29136,7 +29236,7 @@
         <v>4.2291999999999996</v>
       </c>
       <c r="U29" s="618">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.96403365140308261</v>
       </c>
       <c r="V29" s="616">
@@ -29146,7 +29246,7 @@
         <v>4.3520000000000003</v>
       </c>
       <c r="X29" s="618">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.96369760479041922</v>
       </c>
       <c r="Y29" s="616">
@@ -29156,7 +29256,7 @@
         <v>4.1920000000000002</v>
       </c>
       <c r="AA29" s="618">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.96407218777679382</v>
       </c>
       <c r="AB29" s="616">
@@ -29166,12 +29266,12 @@
         <v>4.2131999999999996</v>
       </c>
       <c r="AD29" s="618">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.96234379339072451</v>
       </c>
-      <c r="AF29" s="620"/>
+      <c r="AF29" s="371"/>
       <c r="AG29" s="618">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.9632518975567913</v>
       </c>
       <c r="AH29" s="5">
@@ -29181,7 +29281,7 @@
         <v>-3.5909025685177252E-2</v>
       </c>
       <c r="AJ29" s="620">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99916092324196859</v>
       </c>
     </row>
@@ -29219,7 +29319,7 @@
         <v>4.1711999999999998</v>
       </c>
       <c r="O30" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.95796720210443842</v>
       </c>
       <c r="P30" s="359">
@@ -29229,7 +29329,7 @@
         <v>4.2034000000000002</v>
       </c>
       <c r="R30" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.95946328483270105</v>
       </c>
       <c r="S30" s="359">
@@ -29239,7 +29339,7 @@
         <v>4.2210000000000001</v>
       </c>
       <c r="U30" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.95962960871774605</v>
       </c>
       <c r="V30" s="359">
@@ -29249,7 +29349,7 @@
         <v>4.3448000000000002</v>
       </c>
       <c r="X30" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.95984816082121471</v>
       </c>
       <c r="Y30" s="359">
@@ -29259,7 +29359,7 @@
         <v>4.1833999999999998</v>
       </c>
       <c r="AA30" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.95969884853852949</v>
       </c>
       <c r="AB30" s="359">
@@ -29269,11 +29369,11 @@
         <v>4.2050000000000001</v>
       </c>
       <c r="AD30" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.95773396278811451</v>
       </c>
       <c r="AG30" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.95905684463379071</v>
       </c>
       <c r="AH30" s="619">
@@ -29283,7 +29383,7 @@
         <v>-4.0393169751757829E-2</v>
       </c>
       <c r="AJ30" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99945001438554848</v>
       </c>
     </row>
@@ -29321,7 +29421,7 @@
         <v>4.1630000000000003</v>
       </c>
       <c r="O31" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.95332176638495569</v>
       </c>
       <c r="P31" s="359">
@@ -29331,7 +29431,7 @@
         <v>4.1950000000000003</v>
       </c>
       <c r="R31" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.95521712053445063</v>
       </c>
       <c r="S31" s="359">
@@ -29341,7 +29441,7 @@
         <v>4.2126000000000001</v>
       </c>
       <c r="U31" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.95494325560386195</v>
       </c>
       <c r="V31" s="359">
@@ -29351,7 +29451,7 @@
         <v>4.335</v>
       </c>
       <c r="X31" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.95466210436270316</v>
       </c>
       <c r="Y31" s="359">
@@ -29361,7 +29461,7 @@
         <v>4.1779999999999999</v>
       </c>
       <c r="AA31" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.95676483613817531</v>
       </c>
       <c r="AB31" s="359">
@@ -29371,11 +29471,11 @@
         <v>4.1978</v>
       </c>
       <c r="AD31" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.95373507359066934</v>
       </c>
       <c r="AG31" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.95477402610246942</v>
       </c>
       <c r="AH31" s="5">
@@ -29385,7 +29485,7 @@
         <v>-4.4877313818338399E-2</v>
       </c>
       <c r="AJ31" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99965133992080779</v>
       </c>
     </row>
@@ -29423,7 +29523,7 @@
         <v>4.1562000000000001</v>
       </c>
       <c r="O32" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.949459898136229</v>
       </c>
       <c r="P32" s="359">
@@ -29433,7 +29533,7 @@
         <v>4.1866000000000003</v>
       </c>
       <c r="R32" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.9501783389005265</v>
       </c>
       <c r="S32" s="359">
@@ -29443,7 +29543,7 @@
         <v>4.2045000000000003</v>
       </c>
       <c r="U32" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.95042628874710655</v>
       </c>
       <c r="V32" s="359">
@@ -29453,7 +29553,7 @@
         <v>4.3262</v>
       </c>
       <c r="X32" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.94995722840034225</v>
       </c>
       <c r="Y32" s="359">
@@ -29463,7 +29563,7 @@
         <v>4.1680000000000001</v>
       </c>
       <c r="AA32" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.95117360496014169</v>
       </c>
       <c r="AB32" s="359">
@@ -29473,11 +29573,11 @@
         <v>4.1885000000000003</v>
       </c>
       <c r="AD32" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.94856984171063619</v>
       </c>
       <c r="AG32" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.94996086680916358</v>
       </c>
       <c r="AH32" s="619">
@@ -29487,7 +29587,7 @@
         <v>-4.9361457884918969E-2</v>
       </c>
       <c r="AJ32" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99932232469408255</v>
       </c>
     </row>
@@ -29525,7 +29625,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="O33" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.94604578272793438</v>
       </c>
       <c r="P33" s="359">
@@ -29535,7 +29635,7 @@
         <v>4.1790000000000003</v>
       </c>
       <c r="R33" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.94559248145841601</v>
       </c>
       <c r="S33" s="359">
@@ -29545,7 +29645,7 @@
         <v>4.1974999999999998</v>
       </c>
       <c r="U33" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.94658686691886385</v>
       </c>
       <c r="V33" s="359">
@@ -29555,7 +29655,7 @@
         <v>4.32</v>
       </c>
       <c r="X33" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.94632164242942707</v>
       </c>
       <c r="Y33" s="359">
@@ -29565,7 +29665,7 @@
         <v>4.1586999999999996</v>
       </c>
       <c r="AA33" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.94619131975199267</v>
       </c>
       <c r="AB33" s="359">
@@ -29575,11 +29675,11 @@
         <v>4.181</v>
       </c>
       <c r="AD33" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.944404332129964</v>
       </c>
       <c r="AG33" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.94585707090276638</v>
       </c>
       <c r="AH33" s="5">
@@ -29589,7 +29689,7 @@
         <v>-5.3845601951499539E-2</v>
       </c>
       <c r="AJ33" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99970267285426595</v>
       </c>
     </row>
@@ -29627,7 +29727,7 @@
         <v>4.1449999999999996</v>
       </c>
       <c r="O34" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.94251972910953152</v>
       </c>
       <c r="P34" s="359">
@@ -29637,7 +29737,7 @@
         <v>4.1710000000000003</v>
       </c>
       <c r="R34" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.94151616373209535</v>
       </c>
       <c r="S34" s="359">
@@ -29647,7 +29747,7 @@
         <v>4.1897000000000002</v>
       </c>
       <c r="U34" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.94206990006210845</v>
       </c>
       <c r="V34" s="359">
@@ -29657,7 +29757,7 @@
         <v>4.3127000000000004</v>
       </c>
       <c r="X34" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.94241873396065046</v>
       </c>
       <c r="Y34" s="359">
@@ -29667,7 +29767,7 @@
         <v>4.1520000000000001</v>
       </c>
       <c r="AA34" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.94231620903454383</v>
       </c>
       <c r="AB34" s="359">
@@ -29677,11 +29777,11 @@
         <v>4.1760000000000002</v>
       </c>
       <c r="AD34" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.94251596778672597</v>
       </c>
       <c r="AG34" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.94222611728094252</v>
       </c>
       <c r="AH34" s="619">
@@ -29691,7 +29791,7 @@
         <v>-5.8329746018080109E-2</v>
       </c>
       <c r="AJ34" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0005558632990226</v>
       </c>
     </row>
@@ -29729,7 +29829,7 @@
         <v>4.1314000000000002</v>
       </c>
       <c r="O35" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.93563552918788839</v>
       </c>
       <c r="P35" s="359">
@@ -29739,7 +29839,7 @@
         <v>4.1630000000000003</v>
       </c>
       <c r="R35" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.93670384419407793</v>
       </c>
       <c r="S35" s="359">
@@ -29749,7 +29849,7 @@
         <v>4.1816000000000004</v>
       </c>
       <c r="U35" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.9374964711196434</v>
       </c>
       <c r="V35" s="359">
@@ -29759,7 +29859,7 @@
         <v>4.3041</v>
       </c>
       <c r="X35" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.93787425149700598</v>
       </c>
       <c r="Y35" s="359">
@@ -29769,7 +29869,7 @@
         <v>4.1440000000000001</v>
       </c>
       <c r="AA35" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.93794286979627994</v>
       </c>
       <c r="AB35" s="359">
@@ -29779,11 +29879,11 @@
         <v>4.165</v>
       </c>
       <c r="AD35" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.93585115245765071</v>
       </c>
       <c r="AG35" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.93691735304209101</v>
       </c>
       <c r="AH35" s="5">
@@ -29793,7 +29893,7 @@
         <v>-6.2813890084660678E-2</v>
       </c>
       <c r="AJ35" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99973124312675166</v>
       </c>
     </row>
@@ -29831,7 +29931,7 @@
         <v>4.1245000000000003</v>
       </c>
       <c r="O36" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.93154978451894577</v>
       </c>
       <c r="P36" s="359">
@@ -29841,7 +29941,7 @@
         <v>4.1562000000000001</v>
       </c>
       <c r="R36" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.93240106437185066</v>
       </c>
       <c r="S36" s="359">
@@ -29851,7 +29951,7 @@
         <v>4.1722999999999999</v>
       </c>
       <c r="U36" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.93218903506295503</v>
       </c>
       <c r="V36" s="359">
@@ -29861,7 +29961,7 @@
         <v>4.2939999999999996</v>
       </c>
       <c r="X36" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.93242087254063288</v>
       </c>
       <c r="Y36" s="359">
@@ -29871,7 +29971,7 @@
         <v>4.1369999999999996</v>
       </c>
       <c r="AA36" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.93406775907883055</v>
       </c>
       <c r="AB36" s="359">
@@ -29881,11 +29981,11 @@
         <v>4.1589999999999998</v>
       </c>
       <c r="AD36" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.93251874479311292</v>
       </c>
       <c r="AG36" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.93252454339438806</v>
       </c>
       <c r="AH36" s="619">
@@ -29895,7 +29995,7 @@
         <v>-6.7298034151241248E-2</v>
       </c>
       <c r="AJ36" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99982257754562931</v>
       </c>
     </row>
@@ -29933,7 +30033,7 @@
         <v>4.1158000000000001</v>
       </c>
       <c r="O37" s="618">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.92684837969440892</v>
       </c>
       <c r="P37" s="616">
@@ -29943,7 +30043,7 @@
         <v>4.1496000000000004</v>
       </c>
       <c r="R37" s="618">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.92883428636132048</v>
       </c>
       <c r="S37" s="616">
@@ -29953,7 +30053,7 @@
         <v>4.1653000000000002</v>
       </c>
       <c r="U37" s="618">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.92823668906329404</v>
       </c>
       <c r="V37" s="616">
@@ -29963,7 +30063,7 @@
         <v>4.2869999999999999</v>
       </c>
       <c r="X37" s="618">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.92873182207014537</v>
       </c>
       <c r="Y37" s="616">
@@ -29973,7 +30073,7 @@
         <v>4.1265999999999998</v>
       </c>
       <c r="AA37" s="618">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.92831045172719207</v>
       </c>
       <c r="AB37" s="616">
@@ -29983,12 +30083,12 @@
         <v>4.1529999999999996</v>
       </c>
       <c r="AD37" s="618">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.92890863648986366</v>
       </c>
-      <c r="AF37" s="620"/>
+      <c r="AF37" s="371"/>
       <c r="AG37" s="618">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.92831171090103737</v>
       </c>
       <c r="AH37" s="5">
@@ -29998,7 +30098,7 @@
         <v>-7.1782178217821818E-2</v>
       </c>
       <c r="AJ37" s="620">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0000938891188591</v>
       </c>
     </row>
@@ -30036,7 +30136,7 @@
         <v>4.1074999999999999</v>
       </c>
       <c r="O38" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.92209100576481795</v>
       </c>
       <c r="P38" s="359">
@@ -30046,7 +30146,7 @@
         <v>4.1394000000000002</v>
       </c>
       <c r="R38" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.92339919605955956</v>
       </c>
       <c r="S38" s="359">
@@ -30056,7 +30156,7 @@
         <v>4.1567999999999996</v>
       </c>
       <c r="U38" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.92360679803511914</v>
       </c>
       <c r="V38" s="359">
@@ -30066,7 +30166,7 @@
         <v>4.2779999999999996</v>
       </c>
       <c r="X38" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.92397348160821202</v>
       </c>
       <c r="Y38" s="359">
@@ -30076,7 +30176,7 @@
         <v>4.1219999999999999</v>
       </c>
       <c r="AA38" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.92548715677590776</v>
       </c>
       <c r="AB38" s="359">
@@ -30086,11 +30186,11 @@
         <v>4.1440000000000001</v>
       </c>
       <c r="AD38" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.92396556512079986</v>
       </c>
       <c r="AG38" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.92375386722740283</v>
       </c>
       <c r="AH38" s="619">
@@ -30100,7 +30200,7 @@
         <v>-7.6266322284402388E-2</v>
       </c>
       <c r="AJ38" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0000201895118053</v>
       </c>
     </row>
@@ -30138,7 +30238,7 @@
         <v>4.0997000000000003</v>
       </c>
       <c r="O39" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.9178933228857673</v>
       </c>
       <c r="P39" s="359">
@@ -30148,7 +30248,7 @@
         <v>4.1317000000000004</v>
       </c>
       <c r="R39" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.91898318518937894</v>
       </c>
       <c r="S39" s="359">
@@ -30158,7 +30258,7 @@
         <v>4.149</v>
       </c>
       <c r="U39" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.91903336909265421</v>
       </c>
       <c r="V39" s="359">
@@ -30168,7 +30268,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="X39" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.91958939264328465</v>
       </c>
       <c r="Y39" s="359">
@@ -30178,7 +30278,7 @@
         <v>4.1108000000000002</v>
       </c>
       <c r="AA39" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.91956377325066441</v>
       </c>
       <c r="AB39" s="359">
@@ -30188,11 +30288,11 @@
         <v>4.1345000000000001</v>
       </c>
       <c r="AD39" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.91891141349625105</v>
       </c>
       <c r="AG39" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.91899574275966678</v>
       </c>
       <c r="AH39" s="5">
@@ -30202,7 +30302,7 @@
         <v>-8.0750466350982958E-2</v>
       </c>
       <c r="AJ39" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99974620911064971</v>
       </c>
     </row>
@@ -30240,7 +30340,7 @@
         <v>4.093</v>
       </c>
       <c r="O40" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.91386354732187847</v>
       </c>
       <c r="P40" s="359">
@@ -30250,7 +30350,7 @@
         <v>4.1239999999999997</v>
       </c>
       <c r="R40" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.91462378984317461</v>
       </c>
       <c r="S40" s="359">
@@ -30260,7 +30360,7 @@
         <v>4.1429999999999998</v>
       </c>
       <c r="U40" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.91581503020721577</v>
       </c>
       <c r="V40" s="359">
@@ -30270,7 +30370,7 @@
         <v>4.2626999999999997</v>
       </c>
       <c r="X40" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.91557955517536349</v>
       </c>
       <c r="Y40" s="359">
@@ -30280,7 +30380,7 @@
         <v>4.1032999999999999</v>
       </c>
       <c r="AA40" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.91546722763507515</v>
       </c>
       <c r="AB40" s="359">
@@ -30290,11 +30390,11 @@
         <v>4.1269999999999998</v>
       </c>
       <c r="AD40" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.91474590391557886</v>
       </c>
       <c r="AG40" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.91501584234971434</v>
       </c>
       <c r="AH40" s="619">
@@ -30304,7 +30404,7 @@
         <v>-8.5234610417563542E-2</v>
       </c>
       <c r="AJ40" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.000250452767278</v>
       </c>
     </row>
@@ -30342,7 +30442,7 @@
         <v>4.0839999999999996</v>
       </c>
       <c r="O41" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.90893826607712536</v>
       </c>
       <c r="P41" s="359">
@@ -30352,7 +30452,7 @@
         <v>4.1180000000000003</v>
       </c>
       <c r="R41" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.9113967049765046</v>
       </c>
       <c r="S41" s="359">
@@ -30362,7 +30462,7 @@
         <v>4.1340000000000003</v>
       </c>
       <c r="U41" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.91056405623623748</v>
       </c>
       <c r="V41" s="359">
@@ -30372,7 +30472,7 @@
         <v>4.2530999999999999</v>
       </c>
       <c r="X41" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.91066082121471337</v>
       </c>
       <c r="Y41" s="359">
@@ -30382,7 +30482,7 @@
         <v>4.0937000000000001</v>
       </c>
       <c r="AA41" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.90998671390611163</v>
       </c>
       <c r="AB41" s="359">
@@ -30392,11 +30492,11 @@
         <v>4.1192000000000002</v>
       </c>
       <c r="AD41" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.91013607331296864</v>
       </c>
       <c r="AG41" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.91028043928727687</v>
       </c>
       <c r="AH41" s="5">
@@ -30406,7 +30506,7 @@
         <v>-8.9718754484144111E-2</v>
       </c>
       <c r="AJ41" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99999919377142099</v>
       </c>
     </row>
@@ -30444,7 +30544,7 @@
         <v>4.0759999999999996</v>
       </c>
       <c r="O42" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.90446073767280455</v>
       </c>
       <c r="P42" s="359">
@@ -30454,7 +30554,7 @@
         <v>4.109</v>
       </c>
       <c r="R42" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.90647115439053394</v>
       </c>
       <c r="S42" s="359">
@@ -30464,7 +30564,7 @@
         <v>4.1260000000000003</v>
       </c>
       <c r="U42" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.90599062729377244</v>
       </c>
       <c r="V42" s="359">
@@ -30474,7 +30574,7 @@
         <v>4.2432999999999996</v>
       </c>
       <c r="X42" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.90542130025662948</v>
       </c>
       <c r="Y42" s="359">
@@ -30484,7 +30584,7 @@
         <v>4.0861000000000001</v>
       </c>
       <c r="AA42" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.9058901682905226</v>
       </c>
       <c r="AB42" s="359">
@@ -30494,11 +30594,11 @@
         <v>4.1093000000000002</v>
       </c>
       <c r="AD42" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.90491530130519315</v>
       </c>
       <c r="AG42" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.90552488153490929</v>
       </c>
       <c r="AH42" s="619">
@@ -30508,7 +30608,7 @@
         <v>-9.4202898550724681E-2</v>
       </c>
       <c r="AJ42" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99972778008563401</v>
       </c>
     </row>
@@ -30546,7 +30646,7 @@
         <v>4.0670000000000002</v>
       </c>
       <c r="O43" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.89942351821794397</v>
       </c>
       <c r="P43" s="359">
@@ -30556,7 +30656,7 @@
         <v>4.1003999999999996</v>
       </c>
       <c r="R43" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.90182868142444639</v>
       </c>
       <c r="S43" s="359">
@@ -30566,7 +30666,7 @@
         <v>4.1181999999999999</v>
       </c>
       <c r="U43" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.90164304669414463</v>
       </c>
       <c r="V43" s="359">
@@ -30576,7 +30676,7 @@
         <v>4.2359</v>
       </c>
       <c r="X43" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.9013579982891361</v>
       </c>
       <c r="Y43" s="359">
@@ -30586,7 +30686,7 @@
         <v>4.0776000000000003</v>
       </c>
       <c r="AA43" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.90112931798051377</v>
       </c>
       <c r="AB43" s="359">
@@ -30596,11 +30696,11 @@
         <v>4.101</v>
       </c>
       <c r="AD43" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.9003054707025826</v>
       </c>
       <c r="AG43" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.90094800555146115</v>
       </c>
       <c r="AH43" s="5">
@@ -30610,7 +30710,7 @@
         <v>-9.8687042617305251E-2</v>
       </c>
       <c r="AJ43" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99963504816876636</v>
       </c>
     </row>
@@ -30648,7 +30748,7 @@
         <v>4.0595999999999997</v>
       </c>
       <c r="O44" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.89528180444394689</v>
       </c>
       <c r="P44" s="359">
@@ -30658,7 +30758,7 @@
         <v>4.093</v>
       </c>
       <c r="R44" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.89758251712619586</v>
       </c>
       <c r="S44" s="359">
@@ -30668,7 +30768,7 @@
         <v>4.1105</v>
       </c>
       <c r="U44" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.89729546609451749</v>
       </c>
       <c r="V44" s="359">
@@ -30678,7 +30778,7 @@
         <v>4.2267999999999999</v>
       </c>
       <c r="X44" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.89659965782720275</v>
       </c>
       <c r="Y44" s="359">
@@ -30688,7 +30788,7 @@
         <v>4.0693000000000001</v>
       </c>
       <c r="AA44" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.89664526129317978</v>
       </c>
       <c r="AB44" s="359">
@@ -30698,11 +30798,11 @@
         <v>4.0934999999999997</v>
       </c>
       <c r="AD44" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.8959733407386834</v>
       </c>
       <c r="AG44" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.89656300792062094</v>
       </c>
       <c r="AH44" s="619">
@@ -30712,7 +30812,7 @@
         <v>-0.10317118668388582</v>
       </c>
       <c r="AJ44" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99973419460450674</v>
       </c>
     </row>
@@ -30750,7 +30850,7 @@
         <v>4.0510999999999999</v>
       </c>
       <c r="O45" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.89058039961941005</v>
       </c>
       <c r="P45" s="359">
@@ -30760,7 +30860,7 @@
         <v>4.0854999999999997</v>
       </c>
       <c r="R45" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.89305327520806166</v>
       </c>
       <c r="S45" s="359">
@@ -30770,7 +30870,7 @@
         <v>4.1020000000000003</v>
       </c>
       <c r="U45" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.89243972672350536</v>
       </c>
       <c r="V45" s="359">
@@ -30780,7 +30880,7 @@
         <v>4.218</v>
       </c>
       <c r="X45" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.89152053036783574</v>
       </c>
       <c r="Y45" s="359">
@@ -30790,7 +30890,7 @@
         <v>4.0646000000000004</v>
       </c>
       <c r="AA45" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.89376660761736082</v>
       </c>
       <c r="AB45" s="359">
@@ -30800,11 +30900,11 @@
         <v>4.085</v>
       </c>
       <c r="AD45" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.89125242988058861</v>
       </c>
       <c r="AG45" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.89210216156946043</v>
       </c>
       <c r="AH45" s="5">
@@ -30814,7 +30914,7 @@
         <v>-0.10765533075046639</v>
       </c>
       <c r="AJ45" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99975749231992683</v>
       </c>
     </row>
@@ -30852,7 +30952,7 @@
         <v>4.0434999999999999</v>
       </c>
       <c r="O46" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.88632674763530528</v>
       </c>
       <c r="P46" s="359">
@@ -30862,7 +30962,7 @@
         <v>4.077</v>
       </c>
       <c r="R46" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.88846741776595139</v>
       </c>
       <c r="S46" s="359">
@@ -30872,7 +30972,7 @@
         <v>4.093</v>
       </c>
       <c r="U46" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.88747106318107394</v>
       </c>
       <c r="V46" s="359">
@@ -30882,7 +30982,7 @@
         <v>4.2111999999999998</v>
       </c>
       <c r="X46" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.88815226689478188</v>
       </c>
       <c r="Y46" s="359">
@@ -30892,7 +30992,7 @@
         <v>4.0547000000000004</v>
       </c>
       <c r="AA46" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.88834145261293196</v>
       </c>
       <c r="AB46" s="359">
@@ -30902,11 +31002,11 @@
         <v>4.0765000000000002</v>
       </c>
       <c r="AD46" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.88658705915023617</v>
       </c>
       <c r="AG46" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.88755766787337997</v>
       </c>
       <c r="AH46" s="619">
@@ -30916,7 +31016,7 @@
         <v>-0.11213947481704696</v>
       </c>
       <c r="AJ46" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99969714269042698</v>
       </c>
     </row>
@@ -30954,7 +31054,7 @@
         <v>4.0350000000000001</v>
       </c>
       <c r="O47" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.88162534281076865</v>
       </c>
       <c r="P47" s="359">
@@ -30964,7 +31064,7 @@
         <v>4.0685000000000002</v>
       </c>
       <c r="R47" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.88359848270395747</v>
       </c>
       <c r="S47" s="359">
@@ -30974,7 +31074,7 @@
         <v>4.0850999999999997</v>
       </c>
       <c r="U47" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.88255886172435205</v>
       </c>
       <c r="V47" s="359">
@@ -30984,7 +31084,7 @@
         <v>4.2022000000000004</v>
       </c>
       <c r="X47" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.88334046193327653</v>
       </c>
       <c r="Y47" s="359">
@@ -30994,7 +31094,7 @@
         <v>4.0465</v>
       </c>
       <c r="AA47" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.88380203720106276</v>
       </c>
       <c r="AB47" s="359">
@@ -31004,11 +31104,11 @@
         <v>4.0690999999999997</v>
       </c>
       <c r="AD47" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.88242154956956376</v>
       </c>
       <c r="AG47" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.88289112265716352</v>
       </c>
       <c r="AH47" s="5">
@@ -31018,7 +31118,7 @@
         <v>-0.11662361888362753</v>
       </c>
       <c r="AJ47" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99951474154079101</v>
       </c>
     </row>
@@ -31056,7 +31156,7 @@
         <v>4.0270000000000001</v>
       </c>
       <c r="O48" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.87703587619633983</v>
       </c>
       <c r="P48" s="359">
@@ -31066,7 +31166,7 @@
         <v>4.0620000000000003</v>
       </c>
       <c r="R48" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.87963539602559015</v>
       </c>
       <c r="S48" s="359">
@@ -31076,7 +31176,7 @@
         <v>4.0759999999999996</v>
       </c>
       <c r="U48" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.87798543278188679</v>
       </c>
       <c r="V48" s="359">
@@ -31086,7 +31186,7 @@
         <v>4.1951000000000001</v>
       </c>
       <c r="X48" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.87933062446535515</v>
       </c>
       <c r="Y48" s="359">
@@ -31096,7 +31196,7 @@
         <v>4.0385999999999997</v>
       </c>
       <c r="AA48" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.87948405668733376</v>
       </c>
       <c r="AB48" s="359">
@@ -31106,11 +31206,11 @@
         <v>4.0605000000000002</v>
       </c>
       <c r="AD48" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.87764509858372675</v>
       </c>
       <c r="AG48" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.8785194141233722</v>
       </c>
       <c r="AH48" s="619">
@@ -31120,7 +31220,7 @@
         <v>-0.1211077629502081</v>
       </c>
       <c r="AJ48" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99962717707358029</v>
       </c>
     </row>
@@ -31158,7 +31258,7 @@
         <v>4.0186999999999999</v>
       </c>
       <c r="O49" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.87227850226674886</v>
       </c>
       <c r="P49" s="359">
@@ -31168,7 +31268,7 @@
         <v>4.0496999999999996</v>
       </c>
       <c r="R49" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.87340768838815563</v>
       </c>
       <c r="S49" s="359">
@@ -31178,7 +31278,7 @@
         <v>4.07</v>
       </c>
       <c r="U49" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.87459770763932032</v>
       </c>
       <c r="V49" s="359">
@@ -31188,7 +31288,7 @@
         <v>4.1863999999999999</v>
       </c>
       <c r="X49" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.875</v>
       </c>
       <c r="Y49" s="359">
@@ -31198,7 +31298,7 @@
         <v>4.0312999999999999</v>
       </c>
       <c r="AA49" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.87544286979627983</v>
       </c>
       <c r="AB49" s="359">
@@ -31208,11 +31308,11 @@
         <v>4.0525000000000002</v>
       </c>
       <c r="AD49" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.87303526798111653</v>
       </c>
       <c r="AG49" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.87396033934527007</v>
       </c>
       <c r="AH49" s="5">
@@ -31222,7 +31322,7 @@
         <v>-0.12559190701678868</v>
       </c>
       <c r="AJ49" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99955224636205875</v>
       </c>
     </row>
@@ -31260,7 +31360,7 @@
         <v>4.0119999999999996</v>
       </c>
       <c r="O50" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.86852857222812996</v>
       </c>
       <c r="P50" s="359">
@@ -31270,7 +31370,7 @@
         <v>4.0431999999999997</v>
       </c>
       <c r="R50" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.86961444828171852</v>
       </c>
       <c r="S50" s="359">
@@ -31280,7 +31380,7 @@
         <v>4.0609999999999999</v>
       </c>
       <c r="U50" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.86934673366834159</v>
       </c>
       <c r="V50" s="359">
@@ -31290,7 +31390,7 @@
         <v>4.1792999999999996</v>
       </c>
       <c r="X50" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.87104362703165072</v>
       </c>
       <c r="Y50" s="359">
@@ -31300,7 +31400,7 @@
         <v>4.0223000000000004</v>
       </c>
       <c r="AA50" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.87046058458813136</v>
       </c>
       <c r="AB50" s="359">
@@ -31310,11 +31410,11 @@
         <v>4.0449999999999999</v>
       </c>
       <c r="AD50" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.86881421827270189</v>
       </c>
       <c r="AG50" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.86963469734511234</v>
       </c>
       <c r="AH50" s="619">
@@ -31324,7 +31424,7 @@
         <v>-0.13007605108336925</v>
       </c>
       <c r="AJ50" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99971074842848162</v>
       </c>
     </row>
@@ -31362,7 +31462,7 @@
         <v>4.0039999999999996</v>
       </c>
       <c r="O51" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.86393910561370113</v>
       </c>
       <c r="P51" s="359">
@@ -31372,7 +31472,7 @@
         <v>4.0353000000000003</v>
       </c>
       <c r="R51" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.86497197531563175</v>
       </c>
       <c r="S51" s="359">
@@ -31382,7 +31482,7 @@
         <v>4.0522</v>
       </c>
       <c r="U51" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.86449099429732923</v>
       </c>
       <c r="V51" s="359">
@@ -31392,7 +31492,7 @@
         <v>4.1715999999999998</v>
       </c>
       <c r="X51" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.86681993156544035</v>
       </c>
       <c r="Y51" s="359">
@@ -31402,7 +31502,7 @@
         <v>4.0137</v>
       </c>
       <c r="AA51" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.86558901682905232</v>
       </c>
       <c r="AB51" s="359">
@@ -31412,11 +31512,11 @@
         <v>4.0355999999999996</v>
       </c>
       <c r="AD51" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.86370452652041074</v>
       </c>
       <c r="AG51" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.86491925835692751</v>
       </c>
       <c r="AH51" s="5">
@@ -31426,7 +31526,7 @@
         <v>-0.13456019514994982</v>
       </c>
       <c r="AJ51" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99947945350687739</v>
       </c>
     </row>
@@ -31464,7 +31564,7 @@
         <v>3.9956</v>
       </c>
       <c r="O52" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.85934963899927264</v>
       </c>
       <c r="P52" s="361">
@@ -31474,7 +31574,7 @@
         <v>4.0275999999999996</v>
       </c>
       <c r="R52" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.86066919549340393</v>
       </c>
       <c r="S52" s="361">
@@ -31484,7 +31584,7 @@
         <v>4.0449999999999999</v>
       </c>
       <c r="U52" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.86042572412624907</v>
       </c>
       <c r="V52" s="361">
@@ -31494,7 +31594,7 @@
         <v>4.1639999999999997</v>
       </c>
       <c r="X52" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.86264970059880219</v>
       </c>
       <c r="Y52" s="361">
@@ -31504,7 +31604,7 @@
         <v>4.0060000000000002</v>
       </c>
       <c r="AA52" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.86149247121346328</v>
       </c>
       <c r="AB52" s="361">
@@ -31514,11 +31614,11 @@
         <v>4.0278</v>
       </c>
       <c r="AD52" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.85942793668425443</v>
       </c>
       <c r="AG52" s="369">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.86066911118590772</v>
       </c>
       <c r="AH52" s="619">
@@ -31528,7 +31628,7 @@
         <v>-0.13904433921653039</v>
       </c>
       <c r="AJ52" s="371">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99971345040243809</v>
       </c>
     </row>
@@ -31723,57 +31823,57 @@
         <v>2.4350000000000001</v>
       </c>
       <c r="N56" s="603">
-        <f t="shared" ref="N56:N70" si="16">M56/M$55</f>
+        <f t="shared" ref="N56:N70" si="18">M56/M$55</f>
         <v>0.98983739837398377</v>
       </c>
       <c r="P56" s="604">
         <v>2.4813999999999998</v>
       </c>
       <c r="Q56" s="603">
-        <f t="shared" ref="Q56:Q70" si="17">P56/P$55</f>
+        <f t="shared" ref="Q56:Q70" si="19">P56/P$55</f>
         <v>0.98978859194256075</v>
       </c>
       <c r="S56" s="604">
         <v>2.4944999999999999</v>
       </c>
       <c r="T56" s="603">
-        <f t="shared" ref="T56:T70" si="18">S56/S$55</f>
+        <f t="shared" ref="T56:T70" si="20">S56/S$55</f>
         <v>0.98929208804283164</v>
       </c>
       <c r="V56" s="604">
         <v>2.5232000000000001</v>
       </c>
       <c r="W56" s="603">
-        <f t="shared" ref="W56:W70" si="19">V56/V$55</f>
+        <f t="shared" ref="W56:W70" si="21">V56/V$55</f>
         <v>0.98925742962440211</v>
       </c>
       <c r="Y56" s="604">
         <v>2.4239999999999999</v>
       </c>
       <c r="Z56" s="603">
-        <f t="shared" ref="Z56:Z70" si="20">Y56/Y$55</f>
+        <f t="shared" ref="Z56:Z70" si="22">Y56/Y$55</f>
         <v>0.98874204601076843</v>
       </c>
       <c r="AB56" s="604">
         <v>2.4554</v>
       </c>
       <c r="AC56" s="603">
-        <f t="shared" ref="AC56:AC70" si="21">AB56/AB$55</f>
+        <f t="shared" ref="AC56:AC70" si="23">AB56/AB$55</f>
         <v>0.98948216804352207</v>
       </c>
       <c r="AF56" s="371">
-        <f t="shared" ref="AF56:AF62" si="22">AG56-AG64</f>
+        <f t="shared" ref="AF56:AF62" si="24">AG56-AG64</f>
         <v>-8.3259627916457801E-2</v>
       </c>
       <c r="AG56" s="606">
-        <f t="shared" ref="AG56:AG70" si="23">AVERAGE(N56,Q56,T56,W56,Z56,AC56)</f>
+        <f t="shared" ref="AG56:AG70" si="25">AVERAGE(N56,Q56,T56,W56,Z56,AC56)</f>
         <v>0.98939995367301148</v>
       </c>
       <c r="AI56" s="599">
         <v>-1.0524209683873544E-2</v>
       </c>
       <c r="AJ56" s="606">
-        <f t="shared" ref="AJ56:AJ70" si="24">AG56-AI56</f>
+        <f t="shared" ref="AJ56:AJ70" si="26">AG56-AI56</f>
         <v>0.99992416335688505</v>
       </c>
       <c r="AL56" s="606">
@@ -31807,7 +31907,7 @@
         <v>-2.1128451380552204E-2</v>
       </c>
       <c r="G57" s="600">
-        <f t="shared" ref="G57:G62" si="25">G56+1.05%</f>
+        <f t="shared" ref="G57:G62" si="27">G56+1.05%</f>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H57" s="601" t="s">
@@ -31823,68 +31923,68 @@
         <v>2.407</v>
       </c>
       <c r="N57" s="603">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.97845528455284558</v>
       </c>
       <c r="P57" s="604">
         <v>2.4557000000000002</v>
       </c>
       <c r="Q57" s="603">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.97953729557239733</v>
       </c>
       <c r="S57" s="604">
         <v>2.4676999999999998</v>
       </c>
       <c r="T57" s="603">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.97866349395201258</v>
       </c>
       <c r="V57" s="604">
         <v>2.4954999999999998</v>
       </c>
       <c r="W57" s="603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.97839723986512961</v>
       </c>
       <c r="Y57" s="604">
         <v>2.3992</v>
       </c>
       <c r="Z57" s="603">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.97862620329580685</v>
       </c>
       <c r="AB57" s="604">
         <v>2.4281999999999999</v>
       </c>
       <c r="AC57" s="603">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.97852105581301629</v>
       </c>
       <c r="AF57" s="371">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8.3914712336133901E-2</v>
       </c>
       <c r="AG57" s="606">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.97870009550853476</v>
       </c>
       <c r="AI57" s="599">
         <v>-2.1128451380552204E-2</v>
       </c>
       <c r="AJ57" s="606">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.99982854688908696</v>
       </c>
       <c r="AL57" s="606">
         <v>0.97870009550853476</v>
       </c>
       <c r="AM57" s="606">
-        <f t="shared" ref="AM57:AM70" si="26">AG57-AL57</f>
+        <f t="shared" ref="AM57:AM70" si="28">AG57-AL57</f>
         <v>0</v>
       </c>
       <c r="AN57" s="607">
-        <f t="shared" ref="AN57:AN62" si="27">ABS(AL57/1.05%)</f>
+        <f t="shared" ref="AN57:AN62" si="29">ABS(AL57/1.05%)</f>
         <v>93.209532905574733</v>
       </c>
       <c r="AO57" s="606"/>
@@ -31907,7 +32007,7 @@
         <v>-3.1772709083633506E-2</v>
       </c>
       <c r="G58" s="375">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.15E-2</v>
       </c>
       <c r="H58" s="341" t="s">
@@ -31923,68 +32023,68 @@
         <v>2.3807999999999998</v>
       </c>
       <c r="N58" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.96780487804878046</v>
       </c>
       <c r="P58" s="230">
         <v>2.4272</v>
       </c>
       <c r="Q58" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.96816912644595132</v>
       </c>
       <c r="S58" s="230">
         <v>2.4405999999999999</v>
       </c>
       <c r="T58" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.96791592306166951</v>
       </c>
       <c r="V58" s="230">
         <v>2.468</v>
       </c>
       <c r="W58" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.96761546302830703</v>
       </c>
       <c r="Y58" s="230">
         <v>2.3719000000000001</v>
       </c>
       <c r="Z58" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.96749061837167571</v>
       </c>
       <c r="AB58" s="230">
         <v>2.4016000000000002</v>
       </c>
       <c r="AC58" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.96780173282288939</v>
       </c>
       <c r="AF58" s="371">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8.4516465719214007E-2</v>
       </c>
       <c r="AG58" s="594">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.96779962362987881</v>
       </c>
       <c r="AI58" s="339">
         <v>-3.1772709083633506E-2</v>
       </c>
       <c r="AJ58" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.99957233271351231</v>
       </c>
       <c r="AL58" s="594">
         <v>0.96779962362987881</v>
       </c>
       <c r="AM58" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN58" s="379">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>92.171392726655114</v>
       </c>
       <c r="AO58" s="371"/>
@@ -32007,7 +32107,7 @@
         <v>-4.2416966786714812E-2</v>
       </c>
       <c r="G59" s="600">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H59" s="601" t="s">
@@ -32023,68 +32123,68 @@
         <v>2.3546</v>
       </c>
       <c r="N59" s="603">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.95715447154471545</v>
       </c>
       <c r="P59" s="604">
         <v>2.4</v>
       </c>
       <c r="Q59" s="603">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.95731950538492216</v>
       </c>
       <c r="S59" s="604">
         <v>2.4125999999999999</v>
       </c>
       <c r="T59" s="603">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.95681142177275424</v>
       </c>
       <c r="V59" s="604">
         <v>2.4403999999999999</v>
       </c>
       <c r="W59" s="603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.95679447973025944</v>
       </c>
       <c r="Y59" s="604">
         <v>2.3441999999999998</v>
       </c>
       <c r="Z59" s="603">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.95619187469407729</v>
       </c>
       <c r="AB59" s="604">
         <v>2.3740000000000001</v>
       </c>
       <c r="AC59" s="603">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.95667942776546444</v>
       </c>
       <c r="AF59" s="371">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8.5190512985997002E-2</v>
       </c>
       <c r="AG59" s="606">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.95682519681536549</v>
       </c>
       <c r="AI59" s="599">
         <v>-4.2416966786714812E-2</v>
       </c>
       <c r="AJ59" s="606">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.99924216360208029</v>
       </c>
       <c r="AL59" s="606">
         <v>0.95682519681536549</v>
       </c>
       <c r="AM59" s="606">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN59" s="607">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>91.126209220510987</v>
       </c>
       <c r="AO59" s="606"/>
@@ -32107,7 +32207,7 @@
         <v>-5.3021208483393471E-2</v>
       </c>
       <c r="G60" s="375">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.2500000000000005E-2</v>
       </c>
       <c r="H60" s="341" t="s">
@@ -32123,68 +32223,68 @@
         <v>2.3285999999999998</v>
       </c>
       <c r="N60" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.94658536585365849</v>
       </c>
       <c r="P60" s="230">
         <v>2.3723999999999998</v>
       </c>
       <c r="Q60" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.94631033107299556</v>
       </c>
       <c r="S60" s="230">
         <v>2.3851</v>
       </c>
       <c r="T60" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.94590521514971249</v>
       </c>
       <c r="V60" s="230">
         <v>2.4127000000000001</v>
       </c>
       <c r="W60" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.94593428997098716</v>
       </c>
       <c r="Y60" s="230">
         <v>2.3180000000000001</v>
       </c>
       <c r="Z60" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.94550497634198072</v>
       </c>
       <c r="AB60" s="230">
         <v>2.3472</v>
       </c>
       <c r="AC60" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.94587950836187784</v>
       </c>
       <c r="AF60" s="371">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8.5602719817211459E-2</v>
       </c>
       <c r="AG60" s="594">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.9460199477918686</v>
       </c>
       <c r="AI60" s="339">
         <v>-5.3021208483393471E-2</v>
       </c>
       <c r="AJ60" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.99904115627526202</v>
       </c>
       <c r="AL60" s="594">
         <v>0.9460199477918686</v>
       </c>
       <c r="AM60" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN60" s="379">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>90.097137884939855</v>
       </c>
       <c r="AO60" s="371"/>
@@ -32207,7 +32307,7 @@
         <v>-6.3625450180072124E-2</v>
       </c>
       <c r="G61" s="375">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6.3E-2</v>
       </c>
       <c r="H61" s="341" t="s">
@@ -32223,68 +32323,68 @@
         <v>2.3006000000000002</v>
       </c>
       <c r="N61" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.93520325203252042</v>
       </c>
       <c r="P61" s="230">
         <v>2.3452000000000002</v>
       </c>
       <c r="Q61" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.93546071001196651</v>
       </c>
       <c r="S61" s="230">
         <v>2.3576000000000001</v>
       </c>
       <c r="T61" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.93499900852667062</v>
       </c>
       <c r="V61" s="230">
         <v>2.3841999999999999</v>
       </c>
       <c r="W61" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.93476044852191631</v>
       </c>
       <c r="Y61" s="230">
         <v>2.2911999999999999</v>
       </c>
       <c r="Z61" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.93457333985968338</v>
       </c>
       <c r="AB61" s="230">
         <v>2.3195999999999999</v>
       </c>
       <c r="AC61" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.93475720330445289</v>
       </c>
       <c r="AF61" s="371">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8.625834942112609E-2</v>
       </c>
       <c r="AG61" s="594">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.93495899370953495</v>
       </c>
       <c r="AI61" s="339">
         <v>-6.3625450180072124E-2</v>
       </c>
       <c r="AJ61" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.9985844438896071</v>
       </c>
       <c r="AL61" s="594">
         <v>0.93495899370953495</v>
       </c>
       <c r="AM61" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN61" s="379">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>89.043713686622368</v>
       </c>
       <c r="AO61" s="371"/>
@@ -32307,7 +32407,7 @@
         <v>-7.4029611844737914E-2</v>
       </c>
       <c r="G62" s="375">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="H62" s="341" t="s">
@@ -32323,68 +32423,68 @@
         <v>2.274</v>
       </c>
       <c r="N62" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.92439024390243907</v>
       </c>
       <c r="P62" s="230">
         <v>2.3168000000000002</v>
       </c>
       <c r="Q62" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.9241324291982449</v>
       </c>
       <c r="S62" s="230">
         <v>2.3296000000000001</v>
       </c>
       <c r="T62" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.92389450723775535</v>
       </c>
       <c r="V62" s="230">
         <v>2.3561999999999999</v>
       </c>
       <c r="W62" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.92378263937896954</v>
       </c>
       <c r="Y62" s="230">
         <v>2.2631999999999999</v>
       </c>
       <c r="Z62" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.92315222711698475</v>
       </c>
       <c r="AB62" s="230">
         <v>2.2923</v>
       </c>
       <c r="AC62" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.92375579286721743</v>
       </c>
       <c r="AF62" s="371">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-8.6820194240607385E-2</v>
       </c>
       <c r="AG62" s="594">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.92385130661693504</v>
       </c>
       <c r="AI62" s="339">
         <v>-7.4029611844737914E-2</v>
       </c>
       <c r="AJ62" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.99788091846167293</v>
       </c>
       <c r="AL62" s="594">
         <v>0.92385130661693504</v>
       </c>
       <c r="AM62" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN62" s="379">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>87.985838725422383</v>
       </c>
       <c r="AO62" s="371"/>
@@ -32425,61 +32525,61 @@
         <v>2.6616</v>
       </c>
       <c r="N63" s="603">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0819512195121952</v>
       </c>
       <c r="P63" s="604">
         <v>2.7149999999999999</v>
       </c>
       <c r="Q63" s="603">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0829676904666932</v>
       </c>
       <c r="S63" s="604">
         <v>2.7307999999999999</v>
       </c>
       <c r="T63" s="603">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0830061471346419</v>
       </c>
       <c r="V63" s="604">
         <v>2.7606999999999999</v>
       </c>
       <c r="W63" s="603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0823727750333254</v>
       </c>
       <c r="Y63" s="604">
         <v>2.6536</v>
       </c>
       <c r="Z63" s="603">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0823951705008974</v>
       </c>
       <c r="AB63" s="604">
         <v>2.6890000000000001</v>
       </c>
       <c r="AC63" s="603">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0836187789643361</v>
       </c>
       <c r="AF63" s="606"/>
       <c r="AG63" s="606">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0827186302686815</v>
       </c>
       <c r="AI63" s="599">
         <v>8.2032813125250126E-2</v>
       </c>
       <c r="AJ63" s="606">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0006858171434314</v>
       </c>
       <c r="AL63" s="606">
         <v>1.0827186302686815</v>
       </c>
       <c r="AM63" s="606">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN63" s="607">
@@ -32506,7 +32606,7 @@
         <v>7.2428971588635468E-2</v>
       </c>
       <c r="G64" s="375">
-        <f t="shared" ref="G64:G70" si="28">F64-8.4%</f>
+        <f t="shared" ref="G64:G70" si="30">F64-8.4%</f>
         <v>-1.1571028411364537E-2</v>
       </c>
       <c r="H64" s="341" t="s">
@@ -32522,64 +32622,64 @@
         <v>2.6368</v>
       </c>
       <c r="N64" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0718699186991871</v>
       </c>
       <c r="P64" s="230">
         <v>2.69</v>
       </c>
       <c r="Q64" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0729956122856001</v>
       </c>
       <c r="S64" s="230">
         <v>2.7056</v>
       </c>
       <c r="T64" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0730120959746183</v>
       </c>
       <c r="V64" s="230">
         <v>2.7351000000000001</v>
       </c>
       <c r="W64" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.072335920959774</v>
       </c>
       <c r="Y64" s="230">
         <v>2.629</v>
       </c>
       <c r="Z64" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0723609071626692</v>
       </c>
       <c r="AB64" s="230">
         <v>2.6636000000000002</v>
       </c>
       <c r="AC64" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0733830344549669</v>
       </c>
       <c r="AG64" s="594">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0726595815894693</v>
       </c>
       <c r="AI64" s="339">
         <v>7.2428971588635468E-2</v>
       </c>
       <c r="AJ64" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0002306100008338</v>
       </c>
       <c r="AL64" s="594">
         <v>1.0726595815894693</v>
       </c>
       <c r="AM64" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN64" s="379">
-        <f t="shared" ref="AN64:AN70" si="29">16-ABS(AL64/1.05%)</f>
+        <f t="shared" ref="AN64:AN70" si="31">16-ABS(AL64/1.05%)</f>
         <v>-86.158055389473262</v>
       </c>
       <c r="AO64" s="371"/>
@@ -32602,7 +32702,7 @@
         <v>6.2264905962384848E-2</v>
       </c>
       <c r="G65" s="375">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-2.1735094037615157E-2</v>
       </c>
       <c r="H65" s="341" t="s">
@@ -32618,64 +32718,64 @@
         <v>2.6122000000000001</v>
       </c>
       <c r="N65" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0618699186991871</v>
       </c>
       <c r="P65" s="230">
         <v>2.6654</v>
       </c>
       <c r="Q65" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0631830873554049</v>
       </c>
       <c r="S65" s="230">
         <v>2.6796000000000002</v>
       </c>
       <c r="T65" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0627007733491969</v>
       </c>
       <c r="V65" s="230">
         <v>2.7096</v>
       </c>
       <c r="W65" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0623382733474476</v>
       </c>
       <c r="Y65" s="230">
         <v>2.6048</v>
       </c>
       <c r="Z65" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0624898025779084</v>
       </c>
       <c r="AB65" s="230">
         <v>2.6381000000000001</v>
       </c>
       <c r="AC65" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0631069917388676</v>
       </c>
       <c r="AG65" s="594">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0626148078446687</v>
       </c>
       <c r="AI65" s="339">
         <v>6.2264905962384848E-2</v>
       </c>
       <c r="AJ65" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0003499018822839</v>
       </c>
       <c r="AL65" s="594">
         <v>1.0626148078446687</v>
       </c>
       <c r="AM65" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN65" s="379">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-85.201410270920817</v>
       </c>
       <c r="AO65" s="371"/>
@@ -32698,7 +32798,7 @@
         <v>5.2020808323329289E-2</v>
       </c>
       <c r="G66" s="375">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.1979191676670717E-2</v>
       </c>
       <c r="H66" s="341" t="s">
@@ -32714,64 +32814,64 @@
         <v>2.5874000000000001</v>
       </c>
       <c r="N66" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0517886178861788</v>
       </c>
       <c r="P66" s="230">
         <v>2.64</v>
       </c>
       <c r="Q66" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0530514559234145</v>
       </c>
       <c r="S66" s="230">
         <v>2.653</v>
       </c>
       <c r="T66" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0521514971247272</v>
       </c>
       <c r="V66" s="230">
         <v>2.6833999999999998</v>
       </c>
       <c r="W66" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0520661805065472</v>
       </c>
       <c r="Y66" s="230">
         <v>2.5792999999999999</v>
       </c>
       <c r="Z66" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0520884320443791</v>
       </c>
       <c r="AB66" s="230">
         <v>2.6124000000000001</v>
       </c>
       <c r="AC66" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0527503526093089</v>
       </c>
       <c r="AG66" s="594">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0523160893490928</v>
       </c>
       <c r="AI66" s="339">
         <v>5.2020808323329289E-2</v>
       </c>
       <c r="AJ66" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0002952810257635</v>
       </c>
       <c r="AL66" s="594">
         <v>1.0523160893490928</v>
       </c>
       <c r="AM66" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN66" s="379">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-84.220579938008839</v>
       </c>
       <c r="AO66" s="371"/>
@@ -32794,7 +32894,7 @@
         <v>4.1816726690676195E-2</v>
       </c>
       <c r="G67" s="375">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-4.218327330932381E-2</v>
       </c>
       <c r="H67" s="341" t="s">
@@ -32810,64 +32910,64 @@
         <v>2.5623</v>
       </c>
       <c r="N67" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0415853658536585</v>
       </c>
       <c r="P67" s="230">
         <v>2.6139999999999999</v>
       </c>
       <c r="Q67" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0426804946150776</v>
       </c>
       <c r="S67" s="230">
         <v>2.6269999999999998</v>
       </c>
       <c r="T67" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0418401744993058</v>
       </c>
       <c r="V67" s="230">
         <v>2.6577999999999999</v>
       </c>
       <c r="W67" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0420293264329961</v>
       </c>
       <c r="Y67" s="230">
         <v>2.5535999999999999</v>
       </c>
       <c r="Z67" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0416054821341165</v>
       </c>
       <c r="AB67" s="230">
         <v>2.5865999999999998</v>
       </c>
       <c r="AC67" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0423534152730203</v>
       </c>
       <c r="AG67" s="594">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0420157098013625</v>
       </c>
       <c r="AI67" s="339">
         <v>4.1816726690676195E-2</v>
       </c>
       <c r="AJ67" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0001989831106863</v>
       </c>
       <c r="AL67" s="594">
         <v>1.0420157098013625</v>
       </c>
       <c r="AM67" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN67" s="379">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-83.239591409653571</v>
       </c>
       <c r="AO67" s="371"/>
@@ -32890,7 +32990,7 @@
         <v>3.1452581032412878E-2</v>
       </c>
       <c r="G68" s="375">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-5.2547418967587127E-2</v>
       </c>
       <c r="H68" s="341" t="s">
@@ -32906,64 +33006,64 @@
         <v>2.5369999999999999</v>
       </c>
       <c r="N68" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.03130081300813</v>
       </c>
       <c r="P68" s="230">
         <v>2.5884</v>
       </c>
       <c r="Q68" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0324690865576385</v>
       </c>
       <c r="S68" s="230">
         <v>2.6006999999999998</v>
       </c>
       <c r="T68" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0314098750743603</v>
       </c>
       <c r="V68" s="230">
         <v>2.6315</v>
       </c>
       <c r="W68" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.031718027130871</v>
       </c>
       <c r="Y68" s="230">
         <v>2.5280999999999998</v>
       </c>
       <c r="Z68" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0312041116005872</v>
       </c>
       <c r="AB68" s="230">
         <v>2.56</v>
       </c>
       <c r="AC68" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0316340922828935</v>
       </c>
       <c r="AG68" s="594">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0316226676090801</v>
       </c>
       <c r="AI68" s="339">
         <v>3.1452581032412878E-2</v>
       </c>
       <c r="AJ68" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0001700865766672</v>
       </c>
       <c r="AL68" s="594">
         <v>1.0316226676090801</v>
       </c>
       <c r="AM68" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN68" s="379">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-82.249777867531421</v>
       </c>
       <c r="AO68" s="371"/>
@@ -32986,7 +33086,7 @@
         <v>2.1048419367747088E-2</v>
       </c>
       <c r="G69" s="375">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-6.2951580632252924E-2</v>
       </c>
       <c r="H69" s="341" t="s">
@@ -33002,64 +33102,64 @@
         <v>2.5112999999999999</v>
       </c>
       <c r="N69" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0208536585365853</v>
       </c>
       <c r="P69" s="230">
         <v>2.5625</v>
       </c>
       <c r="Q69" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0221380135620264</v>
       </c>
       <c r="S69" s="230">
         <v>2.5750000000000002</v>
       </c>
       <c r="T69" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0212175292484633</v>
       </c>
       <c r="V69" s="230">
         <v>2.6042000000000001</v>
       </c>
       <c r="W69" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.021014663216498</v>
       </c>
       <c r="Y69" s="230">
         <v>2.5026000000000002</v>
       </c>
       <c r="Z69" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0208027410670584</v>
       </c>
       <c r="AB69" s="230">
         <v>2.5343</v>
       </c>
       <c r="AC69" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0212774531533346</v>
       </c>
       <c r="AG69" s="594">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.021217343130661</v>
       </c>
       <c r="AI69" s="339">
         <v>2.1048419367747088E-2</v>
       </c>
       <c r="AJ69" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0001689237629139</v>
       </c>
       <c r="AL69" s="594">
         <v>1.021217343130661</v>
       </c>
       <c r="AM69" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN69" s="379">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-81.258794583872472</v>
       </c>
       <c r="AO69" s="371"/>
@@ -33082,7 +33182,7 @@
         <v>1.0564225690276013E-2</v>
       </c>
       <c r="G70" s="375">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-7.3435774309723992E-2</v>
       </c>
       <c r="H70" s="341" t="s">
@@ -33098,64 +33198,64 @@
         <v>2.4862000000000002</v>
       </c>
       <c r="N70" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0106504065040651</v>
       </c>
       <c r="P70" s="230">
         <v>2.5350000000000001</v>
       </c>
       <c r="Q70" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0111687275628241</v>
       </c>
       <c r="S70" s="230">
         <v>2.5486</v>
       </c>
       <c r="T70" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0107475708903431</v>
       </c>
       <c r="V70" s="230">
         <v>2.5775000000000001</v>
       </c>
       <c r="W70" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0105465380694738</v>
       </c>
       <c r="Y70" s="230">
         <v>2.4763999999999999</v>
       </c>
       <c r="Z70" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0101158427149617</v>
       </c>
       <c r="AB70" s="230">
         <v>2.5083000000000002</v>
       </c>
       <c r="AC70" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0107999194035866</v>
       </c>
       <c r="AG70" s="594">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0106715008575424</v>
       </c>
       <c r="AI70" s="339">
         <v>1.0564225690276013E-2</v>
       </c>
       <c r="AJ70" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0001072751672664</v>
       </c>
       <c r="AL70" s="594">
         <v>1.0106715008575424</v>
       </c>
       <c r="AM70" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN70" s="379">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-80.254428653099268</v>
       </c>
       <c r="AO70" s="371"/>
@@ -33319,54 +33419,54 @@
         <v>2.4527999999999999</v>
       </c>
       <c r="N73" s="618">
-        <f t="shared" ref="N73:N87" si="30">M73/M$72</f>
+        <f t="shared" ref="N73:N87" si="32">M73/M$72</f>
         <v>0.99707317073170731</v>
       </c>
       <c r="P73" s="628">
         <v>2.5024999999999999</v>
       </c>
       <c r="Q73" s="618">
-        <f t="shared" ref="Q73:Q87" si="31">P73/P$72</f>
+        <f t="shared" ref="Q73:Q87" si="33">P73/P$72</f>
         <v>0.99740932642487046</v>
       </c>
       <c r="S73" s="628">
         <v>2.5129999999999999</v>
       </c>
       <c r="T73" s="618">
-        <f t="shared" ref="T73:T87" si="32">S73/S$72</f>
+        <f t="shared" ref="T73:T87" si="34">S73/S$72</f>
         <v>0.99722222222222212</v>
       </c>
       <c r="V73" s="628">
         <v>2.5432999999999999</v>
       </c>
       <c r="W73" s="618">
-        <f t="shared" ref="W73:W87" si="33">V73/V$72</f>
+        <f t="shared" ref="W73:W87" si="35">V73/V$72</f>
         <v>0.99705974596205105</v>
       </c>
       <c r="Y73" s="628">
         <v>2.4430000000000001</v>
       </c>
       <c r="Z73" s="618">
-        <f t="shared" ref="Z73:Z87" si="34">Y73/Y$72</f>
+        <f t="shared" ref="Z73:Z87" si="36">Y73/Y$72</f>
         <v>0.99722426320515956</v>
       </c>
       <c r="AB73" s="628">
         <v>2.4748000000000001</v>
       </c>
       <c r="AC73" s="618">
-        <f t="shared" ref="AC73:AC87" si="35">AB73/AB$72</f>
+        <f t="shared" ref="AC73:AC87" si="37">AB73/AB$72</f>
         <v>0.99705894202489831</v>
       </c>
       <c r="AF73" s="620"/>
       <c r="AG73" s="620">
-        <f t="shared" ref="AG73:AG87" si="36">AVERAGE(N73,Q73,T73,W73,Z73,AC73)</f>
+        <f t="shared" ref="AG73:AG87" si="38">AVERAGE(N73,Q73,T73,W73,Z73,AC73)</f>
         <v>0.99717461176181799</v>
       </c>
       <c r="AI73" s="612">
         <v>-2.8000000000000247E-3</v>
       </c>
       <c r="AJ73" s="620">
-        <f t="shared" ref="AJ73:AJ87" si="37">AG73-AI73</f>
+        <f t="shared" ref="AJ73:AJ87" si="39">AG73-AI73</f>
         <v>0.99997461176181801</v>
       </c>
       <c r="AL73" s="620">
@@ -33377,7 +33477,7 @@
         <v>0</v>
       </c>
       <c r="AN73" s="629">
-        <f t="shared" ref="AN73:AN79" si="38">ABS(AL73/0.29%)</f>
+        <f t="shared" ref="AN73:AN79" si="40">ABS(AL73/0.29%)</f>
         <v>343.85331440062691</v>
       </c>
     </row>
@@ -33399,7 +33499,7 @@
         <v>-5.7000000000000384E-3</v>
       </c>
       <c r="G74" s="626">
-        <f t="shared" ref="G74:G80" si="39">F74-F73</f>
+        <f t="shared" ref="G74:G80" si="41">F74-F73</f>
         <v>-2.9000000000000137E-3</v>
       </c>
       <c r="H74" s="613" t="s">
@@ -33415,65 +33515,65 @@
         <v>2.4462000000000002</v>
       </c>
       <c r="N74" s="618">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.99439024390243913</v>
       </c>
       <c r="P74" s="628">
         <v>2.4950999999999999</v>
       </c>
       <c r="Q74" s="618">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.9944599442008768</v>
       </c>
       <c r="S74" s="628">
         <v>2.5055999999999998</v>
       </c>
       <c r="T74" s="618">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.99428571428571422</v>
       </c>
       <c r="V74" s="628">
         <v>2.5360999999999998</v>
       </c>
       <c r="W74" s="618">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.99423710208561999</v>
       </c>
       <c r="Y74" s="628">
         <v>2.4359999999999999</v>
       </c>
       <c r="Z74" s="618">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.99436688709282384</v>
       </c>
       <c r="AB74" s="628">
         <v>2.4676999999999998</v>
       </c>
       <c r="AC74" s="618">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99419846098062115</v>
       </c>
       <c r="AF74" s="620"/>
       <c r="AG74" s="620">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.99432305875801585</v>
       </c>
       <c r="AI74" s="612">
         <v>-5.7000000000000384E-3</v>
       </c>
       <c r="AJ74" s="620">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0000230587580159</v>
       </c>
       <c r="AL74" s="620">
         <v>0.99432305875801585</v>
       </c>
       <c r="AM74" s="620">
-        <f t="shared" ref="AM74:AM87" si="40">AG74-AL74</f>
+        <f t="shared" ref="AM74:AM87" si="42">AG74-AL74</f>
         <v>0</v>
       </c>
       <c r="AN74" s="629">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>342.87002026138481</v>
       </c>
     </row>
@@ -33495,7 +33595,7 @@
         <v>-8.600000000000052E-3</v>
       </c>
       <c r="G75" s="375">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-2.9000000000000137E-3</v>
       </c>
       <c r="H75" s="307" t="s">
@@ -33511,64 +33611,64 @@
         <v>2.4382000000000001</v>
       </c>
       <c r="N75" s="372">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.99113821138211389</v>
       </c>
       <c r="P75" s="230">
         <v>2.4874999999999998</v>
       </c>
       <c r="Q75" s="372">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.99143084894380229</v>
       </c>
       <c r="S75" s="230">
         <v>2.4996</v>
       </c>
       <c r="T75" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.99190476190476196</v>
       </c>
       <c r="V75" s="230">
         <v>2.5287999999999999</v>
       </c>
       <c r="W75" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.99137525482201649</v>
       </c>
       <c r="Y75" s="230">
         <v>2.4287000000000001</v>
       </c>
       <c r="Z75" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.99138705200424515</v>
       </c>
       <c r="AB75" s="230">
         <v>2.4601999999999999</v>
       </c>
       <c r="AC75" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.99117682607469482</v>
       </c>
       <c r="AG75" s="594">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.99140215918860575</v>
       </c>
       <c r="AI75" s="339">
         <v>-8.600000000000052E-3</v>
       </c>
       <c r="AJ75" s="371">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0000021591886057</v>
       </c>
       <c r="AL75" s="594">
         <v>0.99140215918860575</v>
       </c>
       <c r="AM75" s="371">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AN75" s="379">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AN75" s="379">
-        <f t="shared" si="38"/>
         <v>341.86281351331235</v>
       </c>
     </row>
@@ -33590,7 +33690,7 @@
         <v>-1.1499999999999955E-2</v>
       </c>
       <c r="G76" s="626">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H76" s="613" t="s">
@@ -33606,65 +33706,65 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="N76" s="618">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.98861788617886182</v>
       </c>
       <c r="P76" s="628">
         <v>2.4794</v>
       </c>
       <c r="Q76" s="618">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.98820247110402559</v>
       </c>
       <c r="S76" s="628">
         <v>2.4906000000000001</v>
       </c>
       <c r="T76" s="618">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.9883333333333334</v>
       </c>
       <c r="V76" s="628">
         <v>2.5215999999999998</v>
       </c>
       <c r="W76" s="618">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.98855261094558555</v>
       </c>
       <c r="Y76" s="628">
         <v>2.4222000000000001</v>
       </c>
       <c r="Z76" s="618">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.98873377418564778</v>
       </c>
       <c r="AB76" s="628">
         <v>2.4529999999999998</v>
       </c>
       <c r="AC76" s="618">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.98827605656500539</v>
       </c>
       <c r="AF76" s="620"/>
       <c r="AG76" s="620">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.98845268871874314</v>
       </c>
       <c r="AI76" s="612">
         <v>-1.1499999999999955E-2</v>
       </c>
       <c r="AJ76" s="620">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.9999526887187431</v>
       </c>
       <c r="AL76" s="620">
         <v>0.98845268871874314</v>
       </c>
       <c r="AM76" s="620">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AN76" s="629">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AN76" s="629">
-        <f t="shared" si="38"/>
         <v>340.84575473060113</v>
       </c>
     </row>
@@ -33686,7 +33786,7 @@
         <v>-1.4399999999999968E-2</v>
       </c>
       <c r="G77" s="375">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-2.9000000000000137E-3</v>
       </c>
       <c r="H77" s="307" t="s">
@@ -33702,64 +33802,64 @@
         <v>2.4249999999999998</v>
       </c>
       <c r="N77" s="372">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.98577235772357719</v>
       </c>
       <c r="P77" s="230">
         <v>2.4729999999999999</v>
       </c>
       <c r="Q77" s="372">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.98565165404543642</v>
       </c>
       <c r="S77" s="230">
         <v>2.484</v>
       </c>
       <c r="T77" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.98571428571428565</v>
       </c>
       <c r="V77" s="230">
         <v>2.5135999999999998</v>
       </c>
       <c r="W77" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.98541633997177347</v>
       </c>
       <c r="Y77" s="230">
         <v>2.4152999999999998</v>
       </c>
       <c r="Z77" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.98591721773205954</v>
       </c>
       <c r="AB77" s="230">
         <v>2.4456000000000002</v>
       </c>
       <c r="AC77" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.98529471012449144</v>
       </c>
       <c r="AG77" s="594">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.98562776088527071</v>
       </c>
       <c r="AI77" s="339">
         <v>-1.4399999999999968E-2</v>
       </c>
       <c r="AJ77" s="371">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0000277608852706</v>
       </c>
       <c r="AL77" s="594">
         <v>0.98562776088527071</v>
       </c>
       <c r="AM77" s="371">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AN77" s="379">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AN77" s="379">
-        <f t="shared" si="38"/>
         <v>339.8716416845761</v>
       </c>
     </row>
@@ -33781,7 +33881,7 @@
         <v>-1.7399999999999971E-2</v>
       </c>
       <c r="G78" s="375">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="H78" s="307" t="s">
@@ -33797,64 +33897,64 @@
         <v>2.4180000000000001</v>
       </c>
       <c r="N78" s="372">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.98292682926829278</v>
       </c>
       <c r="P78" s="230">
         <v>2.4662000000000002</v>
       </c>
       <c r="Q78" s="372">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.98294141092068565</v>
       </c>
       <c r="S78" s="230">
         <v>2.4769999999999999</v>
       </c>
       <c r="T78" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.98293650793650789</v>
       </c>
       <c r="V78" s="230">
         <v>2.5063</v>
       </c>
       <c r="W78" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.98255449270816986</v>
       </c>
       <c r="Y78" s="230">
         <v>2.4079999999999999</v>
       </c>
       <c r="Z78" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.98293738264348096</v>
       </c>
       <c r="AB78" s="230">
         <v>2.4388000000000001</v>
       </c>
       <c r="AC78" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.9825550944764514</v>
       </c>
       <c r="AG78" s="594">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.98280861965893129</v>
       </c>
       <c r="AI78" s="339">
         <v>-1.7399999999999971E-2</v>
       </c>
       <c r="AJ78" s="371">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0002086196589313</v>
       </c>
       <c r="AL78" s="594">
         <v>0.98280861965893129</v>
       </c>
       <c r="AM78" s="371">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AN78" s="379">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AN78" s="379">
-        <f t="shared" si="38"/>
         <v>338.89952402032117</v>
       </c>
     </row>
@@ -33876,7 +33976,7 @@
         <v>-2.0199999999999996E-2</v>
       </c>
       <c r="G79" s="375">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-2.8000000000000247E-3</v>
       </c>
       <c r="H79" s="307" t="s">
@@ -33892,64 +33992,64 @@
         <v>2.4117000000000002</v>
       </c>
       <c r="N79" s="372">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.98036585365853668</v>
       </c>
       <c r="P79" s="230">
         <v>2.4584999999999999</v>
       </c>
       <c r="Q79" s="372">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.97987245914707055</v>
       </c>
       <c r="S79" s="230">
         <v>2.4695</v>
       </c>
       <c r="T79" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.97996031746031742</v>
       </c>
       <c r="V79" s="230">
         <v>2.4996</v>
       </c>
       <c r="W79" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.97992786576760227</v>
       </c>
       <c r="Y79" s="230">
         <v>2.4018000000000002</v>
       </c>
       <c r="Z79" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.98040656380112656</v>
       </c>
       <c r="AB79" s="230">
         <v>2.4316</v>
       </c>
       <c r="AC79" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.97965432496676197</v>
       </c>
       <c r="AG79" s="594">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.98003123080023602</v>
       </c>
       <c r="AI79" s="339">
         <v>-2.0199999999999996E-2</v>
       </c>
       <c r="AJ79" s="371">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0002312308002361</v>
       </c>
       <c r="AL79" s="594">
         <v>0.98003123080023602</v>
       </c>
       <c r="AM79" s="371">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AN79" s="379">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AN79" s="379">
-        <f t="shared" si="38"/>
         <v>337.94180372421931</v>
       </c>
     </row>
@@ -33971,7 +34071,7 @@
         <v>2.3300000000000098E-2</v>
       </c>
       <c r="G80" s="626">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.3500000000000094E-2</v>
       </c>
       <c r="H80" s="613" t="s">
@@ -33987,61 +34087,61 @@
         <v>2.52</v>
       </c>
       <c r="N80" s="618">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.024390243902439</v>
       </c>
       <c r="P80" s="628">
         <v>2.5687000000000002</v>
       </c>
       <c r="Q80" s="618">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0237943403746514</v>
       </c>
       <c r="S80" s="628">
         <v>2.58</v>
       </c>
       <c r="T80" s="618">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0238095238095237</v>
       </c>
       <c r="V80" s="628">
         <v>2.6110000000000002</v>
       </c>
       <c r="W80" s="618">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0236004390779363</v>
       </c>
       <c r="Y80" s="628">
         <v>2.5085999999999999</v>
       </c>
       <c r="Z80" s="618">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0240019593436198</v>
       </c>
       <c r="AB80" s="628">
         <v>2.5415999999999999</v>
       </c>
       <c r="AC80" s="618">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0239716369203498</v>
       </c>
       <c r="AF80" s="620"/>
       <c r="AG80" s="620">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0239280239047532</v>
       </c>
       <c r="AI80" s="612">
         <v>2.3300000000000098E-2</v>
       </c>
       <c r="AJ80" s="620">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0006280239047531</v>
       </c>
       <c r="AL80" s="620">
         <v>1.0239280239047532</v>
       </c>
       <c r="AM80" s="620">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN80" s="629">
@@ -34083,64 +34183,64 @@
         <v>2.5118</v>
       </c>
       <c r="N81" s="372">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0210569105691056</v>
       </c>
       <c r="P81" s="230">
         <v>2.5617000000000001</v>
       </c>
       <c r="Q81" s="372">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0210043842168195</v>
       </c>
       <c r="S81" s="230">
         <v>2.5743</v>
       </c>
       <c r="T81" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0215476190476191</v>
       </c>
       <c r="V81" s="230">
         <v>2.6030000000000002</v>
       </c>
       <c r="W81" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0204641681041242</v>
       </c>
       <c r="Y81" s="230">
         <v>2.5011999999999999</v>
       </c>
       <c r="Z81" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0209813045962934</v>
       </c>
       <c r="AB81" s="230">
         <v>2.5339999999999998</v>
       </c>
       <c r="AC81" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0209097135490108</v>
       </c>
       <c r="AG81" s="594">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0209940166804954</v>
       </c>
       <c r="AI81" s="339">
         <v>2.0399999999999974E-2</v>
       </c>
       <c r="AJ81" s="371">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0005940166804954</v>
       </c>
       <c r="AL81" s="594">
         <v>1.0209940166804954</v>
       </c>
       <c r="AM81" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN81" s="379">
-        <f t="shared" ref="AN81:AN87" si="41">16-ABS(AL81/0.29%)</f>
+        <f t="shared" ref="AN81:AN87" si="43">16-ABS(AL81/0.29%)</f>
         <v>-336.06690230361914</v>
       </c>
     </row>
@@ -34162,7 +34262,7 @@
         <v>1.7500000000000071E-2</v>
       </c>
       <c r="G82" s="375">
-        <f t="shared" ref="G82:G87" si="42">F82-F81</f>
+        <f t="shared" ref="G82:G87" si="44">F82-F81</f>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H82" s="307" t="s">
@@ -34178,64 +34278,64 @@
         <v>2.5045999999999999</v>
       </c>
       <c r="N82" s="372">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.018130081300813</v>
       </c>
       <c r="P82" s="230">
         <v>2.5539999999999998</v>
       </c>
       <c r="Q82" s="372">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0179354324432044</v>
       </c>
       <c r="S82" s="230">
         <v>2.5672999999999999</v>
       </c>
       <c r="T82" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0187698412698412</v>
       </c>
       <c r="V82" s="230">
         <v>2.5949</v>
       </c>
       <c r="W82" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0172886937431393</v>
       </c>
       <c r="Y82" s="230">
         <v>2.4935999999999998</v>
       </c>
       <c r="Z82" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0178790105314719</v>
       </c>
       <c r="AB82" s="230">
         <v>2.5264000000000002</v>
       </c>
       <c r="AC82" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0178477901776721</v>
       </c>
       <c r="AG82" s="594">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0179751415776905</v>
       </c>
       <c r="AI82" s="339">
         <v>1.7500000000000071E-2</v>
       </c>
       <c r="AJ82" s="371">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0004751415776905</v>
       </c>
       <c r="AL82" s="594">
         <v>1.0179751415776905</v>
       </c>
       <c r="AM82" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN82" s="379">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-335.02591088885885</v>
       </c>
     </row>
@@ -34257,7 +34357,7 @@
         <v>1.4599999999999946E-2</v>
       </c>
       <c r="G83" s="375">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-2.9000000000001247E-3</v>
       </c>
       <c r="H83" s="307" t="s">
@@ -34273,64 +34373,64 @@
         <v>2.4971000000000001</v>
       </c>
       <c r="N83" s="372">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0150813008130082</v>
       </c>
       <c r="P83" s="230">
         <v>2.5459999999999998</v>
       </c>
       <c r="Q83" s="372">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0147469111199681</v>
       </c>
       <c r="S83" s="230">
         <v>2.5579999999999998</v>
       </c>
       <c r="T83" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.015079365079365</v>
       </c>
       <c r="V83" s="230">
         <v>2.5878000000000001</v>
       </c>
       <c r="W83" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0145052532538812</v>
       </c>
       <c r="Y83" s="230">
         <v>2.4860000000000002</v>
       </c>
       <c r="Z83" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0147767164666504</v>
       </c>
       <c r="AB83" s="230">
         <v>2.5182000000000002</v>
       </c>
       <c r="AC83" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0145441360138594</v>
       </c>
       <c r="AG83" s="594">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0147889471244553</v>
       </c>
       <c r="AI83" s="339">
         <v>1.4599999999999946E-2</v>
       </c>
       <c r="AJ83" s="371">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0001889471244554</v>
       </c>
       <c r="AL83" s="594">
         <v>1.0147889471244553</v>
       </c>
       <c r="AM83" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN83" s="379">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-333.92722314636393</v>
       </c>
     </row>
@@ -34352,7 +34452,7 @@
         <v>1.1700000000000044E-2</v>
       </c>
       <c r="G84" s="375">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H84" s="307" t="s">
@@ -34368,64 +34468,64 @@
         <v>2.4901</v>
       </c>
       <c r="N84" s="372">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0122357723577236</v>
       </c>
       <c r="P84" s="230">
         <v>2.5396000000000001</v>
       </c>
       <c r="Q84" s="372">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.012196094061379</v>
       </c>
       <c r="S84" s="230">
         <v>2.5503</v>
       </c>
       <c r="T84" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0120238095238094</v>
       </c>
       <c r="V84" s="230">
         <v>2.5804</v>
       </c>
       <c r="W84" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0116042026031049</v>
       </c>
       <c r="Y84" s="230">
         <v>2.4786999999999999</v>
       </c>
       <c r="Z84" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0117968813780716</v>
       </c>
       <c r="AB84" s="230">
         <v>2.5110000000000001</v>
       </c>
       <c r="AC84" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.01164336650417</v>
       </c>
       <c r="AG84" s="594">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.011916687738043</v>
       </c>
       <c r="AI84" s="339">
         <v>1.1700000000000044E-2</v>
       </c>
       <c r="AJ84" s="371">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.000216687738043</v>
       </c>
       <c r="AL84" s="594">
         <v>1.011916687738043</v>
       </c>
       <c r="AM84" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN84" s="379">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-332.93678887518729</v>
       </c>
     </row>
@@ -34447,7 +34547,7 @@
         <v>8.799999999999919E-3</v>
       </c>
       <c r="G85" s="375">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-2.9000000000001247E-3</v>
       </c>
       <c r="H85" s="307" t="s">
@@ -34463,64 +34563,64 @@
         <v>2.4826999999999999</v>
       </c>
       <c r="N85" s="372">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0092276422764228</v>
       </c>
       <c r="P85" s="230">
         <v>2.5310999999999999</v>
       </c>
       <c r="Q85" s="372">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0088082901554405</v>
       </c>
       <c r="S85" s="230">
         <v>2.5432000000000001</v>
       </c>
       <c r="T85" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0092063492063492</v>
       </c>
       <c r="V85" s="230">
         <v>2.5724999999999998</v>
       </c>
       <c r="W85" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0085071350164652</v>
       </c>
       <c r="Y85" s="230">
         <v>2.4716</v>
       </c>
       <c r="Z85" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0088986856069881</v>
       </c>
       <c r="AB85" s="230">
         <v>2.5036999999999998</v>
       </c>
       <c r="AC85" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0087023085290681</v>
       </c>
       <c r="AG85" s="594">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0088917351317892</v>
       </c>
       <c r="AI85" s="339">
         <v>8.799999999999919E-3</v>
       </c>
       <c r="AJ85" s="371">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0000917351317893</v>
       </c>
       <c r="AL85" s="594">
         <v>1.0088917351317892</v>
       </c>
       <c r="AM85" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN85" s="379">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-331.89370176958249</v>
       </c>
     </row>
@@ -34542,7 +34642,7 @@
         <v>5.9000000000000163E-3</v>
       </c>
       <c r="G86" s="375">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H86" s="307" t="s">
@@ -34558,64 +34658,64 @@
         <v>2.4752999999999998</v>
       </c>
       <c r="N86" s="372">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0062195121951218</v>
       </c>
       <c r="P86" s="230">
         <v>2.5230000000000001</v>
       </c>
       <c r="Q86" s="372">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0055799123156637</v>
       </c>
       <c r="S86" s="230">
         <v>2.5364</v>
       </c>
       <c r="T86" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0065079365079366</v>
       </c>
       <c r="V86" s="230">
         <v>2.5653000000000001</v>
       </c>
       <c r="W86" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0056844911400344</v>
       </c>
       <c r="Y86" s="230">
         <v>2.4645999999999999</v>
       </c>
       <c r="Z86" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0060413094946525</v>
       </c>
       <c r="AB86" s="230">
         <v>2.4965000000000002</v>
       </c>
       <c r="AC86" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0058015390193789</v>
       </c>
       <c r="AG86" s="594">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0059724501121314</v>
       </c>
       <c r="AI86" s="339">
         <v>5.9000000000000163E-3</v>
       </c>
       <c r="AJ86" s="371">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0000724501121314</v>
       </c>
       <c r="AL86" s="594">
         <v>1.0059724501121314</v>
       </c>
       <c r="AM86" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN86" s="379">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-330.88705176280399</v>
       </c>
     </row>
@@ -34637,7 +34737,7 @@
         <v>2.9999999999998916E-3</v>
       </c>
       <c r="G87" s="375">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-2.9000000000001247E-3</v>
       </c>
       <c r="H87" s="327" t="s">
@@ -34653,64 +34753,64 @@
         <v>2.468</v>
       </c>
       <c r="N87" s="372">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0032520325203251</v>
       </c>
       <c r="P87" s="235">
         <v>2.5167999999999999</v>
       </c>
       <c r="Q87" s="372">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.0031088082901554</v>
       </c>
       <c r="S87" s="235">
         <v>2.5280999999999998</v>
       </c>
       <c r="T87" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0032142857142856</v>
       </c>
       <c r="V87" s="235">
         <v>2.5579000000000001</v>
       </c>
       <c r="W87" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.0027834404892582</v>
       </c>
       <c r="Y87" s="235">
         <v>2.4571999999999998</v>
       </c>
       <c r="Z87" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0030206547473262</v>
       </c>
       <c r="AB87" s="235">
         <v>2.4895999999999998</v>
       </c>
       <c r="AC87" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.0030216349059264</v>
       </c>
       <c r="AG87" s="594">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0030668094445463</v>
       </c>
       <c r="AI87" s="352">
         <v>2.9999999999998916E-3</v>
       </c>
       <c r="AJ87" s="371">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0000668094445464</v>
       </c>
       <c r="AL87" s="594">
         <v>1.0030668094445463</v>
       </c>
       <c r="AM87" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN87" s="379">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-329.88510670501597</v>
       </c>
     </row>
@@ -34737,8 +34837,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet4!F11:F12</xm:f>
-              <xm:sqref>BA39</xm:sqref>
+              <xm:f>Sheet4!F11:F11</xm:f>
+              <xm:sqref>BE22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet4!F12:F12</xm:f>
+              <xm:sqref>BE23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -34753,12 +34857,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet4!F11:F11</xm:f>
-              <xm:sqref>BE22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet4!F12:F12</xm:f>
-              <xm:sqref>BE23</xm:sqref>
+              <xm:f>Sheet4!F11:F12</xm:f>
+              <xm:sqref>BA39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -40950,17 +41050,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:D26"/>
     <mergeCell ref="B39:B42"/>
@@ -40971,6 +41060,17 @@
     <mergeCell ref="C31:D34"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:D38"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
